--- a/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>959500</v>
+        <v>952900</v>
       </c>
       <c r="E8" s="3">
-        <v>876100</v>
+        <v>870100</v>
       </c>
       <c r="F8" s="3">
-        <v>836000</v>
+        <v>830300</v>
       </c>
       <c r="G8" s="3">
-        <v>696200</v>
+        <v>691400</v>
       </c>
       <c r="H8" s="3">
-        <v>618500</v>
+        <v>614200</v>
       </c>
       <c r="I8" s="3">
-        <v>455500</v>
+        <v>452300</v>
       </c>
       <c r="J8" s="3">
-        <v>369800</v>
+        <v>367200</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>414000</v>
+        <v>411200</v>
       </c>
       <c r="E9" s="3">
-        <v>457100</v>
+        <v>454000</v>
       </c>
       <c r="F9" s="3">
-        <v>524300</v>
+        <v>520700</v>
       </c>
       <c r="G9" s="3">
-        <v>424800</v>
+        <v>421900</v>
       </c>
       <c r="H9" s="3">
-        <v>398000</v>
+        <v>395300</v>
       </c>
       <c r="I9" s="3">
-        <v>341800</v>
+        <v>339500</v>
       </c>
       <c r="J9" s="3">
-        <v>672500</v>
+        <v>667900</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>545500</v>
+        <v>541700</v>
       </c>
       <c r="E10" s="3">
-        <v>419000</v>
+        <v>416200</v>
       </c>
       <c r="F10" s="3">
-        <v>311700</v>
+        <v>309500</v>
       </c>
       <c r="G10" s="3">
-        <v>271400</v>
+        <v>269500</v>
       </c>
       <c r="H10" s="3">
-        <v>220500</v>
+        <v>219000</v>
       </c>
       <c r="I10" s="3">
-        <v>113600</v>
+        <v>112900</v>
       </c>
       <c r="J10" s="3">
-        <v>-302700</v>
+        <v>-300700</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -808,10 +808,10 @@
         <v>9200</v>
       </c>
       <c r="E12" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="F12" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="G12" s="3">
         <v>10600</v>
@@ -820,10 +820,10 @@
         <v>6500</v>
       </c>
       <c r="I12" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="J12" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>82100</v>
+        <v>81500</v>
       </c>
       <c r="G14" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>576400</v>
+        <v>572400</v>
       </c>
       <c r="J14" s="3">
-        <v>117500</v>
+        <v>116700</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -886,25 +886,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>195900</v>
+        <v>194500</v>
       </c>
       <c r="E15" s="3">
-        <v>211600</v>
+        <v>210200</v>
       </c>
       <c r="F15" s="3">
-        <v>213700</v>
+        <v>212200</v>
       </c>
       <c r="G15" s="3">
-        <v>161100</v>
+        <v>160000</v>
       </c>
       <c r="H15" s="3">
-        <v>152600</v>
+        <v>151600</v>
       </c>
       <c r="I15" s="3">
-        <v>150700</v>
+        <v>149700</v>
       </c>
       <c r="J15" s="3">
-        <v>155800</v>
+        <v>154800</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>667600</v>
+        <v>663000</v>
       </c>
       <c r="E17" s="3">
-        <v>714500</v>
+        <v>709600</v>
       </c>
       <c r="F17" s="3">
-        <v>865000</v>
+        <v>859100</v>
       </c>
       <c r="G17" s="3">
-        <v>629200</v>
+        <v>624900</v>
       </c>
       <c r="H17" s="3">
-        <v>591200</v>
+        <v>587100</v>
       </c>
       <c r="I17" s="3">
-        <v>1112900</v>
+        <v>1105300</v>
       </c>
       <c r="J17" s="3">
-        <v>560500</v>
+        <v>556700</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>291900</v>
+        <v>289900</v>
       </c>
       <c r="E18" s="3">
-        <v>161600</v>
+        <v>160500</v>
       </c>
       <c r="F18" s="3">
-        <v>-29000</v>
+        <v>-28800</v>
       </c>
       <c r="G18" s="3">
-        <v>67000</v>
+        <v>66500</v>
       </c>
       <c r="H18" s="3">
-        <v>27300</v>
+        <v>27100</v>
       </c>
       <c r="I18" s="3">
-        <v>-657500</v>
+        <v>-652900</v>
       </c>
       <c r="J18" s="3">
-        <v>-190700</v>
+        <v>-189400</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-11800</v>
+        <v>-11700</v>
       </c>
       <c r="E20" s="3">
         <v>3700</v>
       </c>
       <c r="F20" s="3">
-        <v>-20300</v>
+        <v>-20100</v>
       </c>
       <c r="G20" s="3">
-        <v>-38500</v>
+        <v>-38200</v>
       </c>
       <c r="H20" s="3">
-        <v>-37100</v>
+        <v>-36800</v>
       </c>
       <c r="I20" s="3">
-        <v>-59100</v>
+        <v>-58700</v>
       </c>
       <c r="J20" s="3">
-        <v>-64000</v>
+        <v>-63600</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1020,22 +1020,22 @@
         <v>474800</v>
       </c>
       <c r="E21" s="3">
-        <v>374100</v>
+        <v>375200</v>
       </c>
       <c r="F21" s="3">
-        <v>161600</v>
+        <v>164100</v>
       </c>
       <c r="G21" s="3">
-        <v>187400</v>
+        <v>188900</v>
       </c>
       <c r="H21" s="3">
-        <v>140800</v>
+        <v>142500</v>
       </c>
       <c r="I21" s="3">
-        <v>-567900</v>
+        <v>-561400</v>
       </c>
       <c r="J21" s="3">
-        <v>-101000</v>
+        <v>-97600</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>279900</v>
+        <v>277900</v>
       </c>
       <c r="E23" s="3">
-        <v>165300</v>
+        <v>164200</v>
       </c>
       <c r="F23" s="3">
-        <v>-49300</v>
+        <v>-48900</v>
       </c>
       <c r="G23" s="3">
-        <v>28500</v>
+        <v>28300</v>
       </c>
       <c r="H23" s="3">
         <v>-9700</v>
       </c>
       <c r="I23" s="3">
-        <v>-716600</v>
+        <v>-711700</v>
       </c>
       <c r="J23" s="3">
-        <v>-254700</v>
+        <v>-253000</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>94900</v>
+        <v>94300</v>
       </c>
       <c r="E24" s="3">
-        <v>42100</v>
+        <v>41800</v>
       </c>
       <c r="F24" s="3">
-        <v>43900</v>
+        <v>43600</v>
       </c>
       <c r="G24" s="3">
         <v>-5600</v>
       </c>
       <c r="H24" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="I24" s="3">
-        <v>-63900</v>
+        <v>-63400</v>
       </c>
       <c r="J24" s="3">
-        <v>-37200</v>
+        <v>-36900</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>185000</v>
+        <v>183700</v>
       </c>
       <c r="E26" s="3">
-        <v>123300</v>
+        <v>122400</v>
       </c>
       <c r="F26" s="3">
-        <v>-93100</v>
+        <v>-92500</v>
       </c>
       <c r="G26" s="3">
-        <v>34100</v>
+        <v>33900</v>
       </c>
       <c r="H26" s="3">
-        <v>-23000</v>
+        <v>-22800</v>
       </c>
       <c r="I26" s="3">
-        <v>-652700</v>
+        <v>-648200</v>
       </c>
       <c r="J26" s="3">
-        <v>-217500</v>
+        <v>-216000</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>185000</v>
+        <v>183700</v>
       </c>
       <c r="E27" s="3">
-        <v>123300</v>
+        <v>122400</v>
       </c>
       <c r="F27" s="3">
-        <v>-93100</v>
+        <v>-92500</v>
       </c>
       <c r="G27" s="3">
-        <v>34100</v>
+        <v>33900</v>
       </c>
       <c r="H27" s="3">
-        <v>-23000</v>
+        <v>-22800</v>
       </c>
       <c r="I27" s="3">
-        <v>-652700</v>
+        <v>-648200</v>
       </c>
       <c r="J27" s="3">
-        <v>-217500</v>
+        <v>-216000</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="E32" s="3">
         <v>-3700</v>
       </c>
       <c r="F32" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="G32" s="3">
-        <v>38500</v>
+        <v>38200</v>
       </c>
       <c r="H32" s="3">
-        <v>37100</v>
+        <v>36800</v>
       </c>
       <c r="I32" s="3">
-        <v>59100</v>
+        <v>58700</v>
       </c>
       <c r="J32" s="3">
-        <v>64000</v>
+        <v>63600</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>185000</v>
+        <v>183700</v>
       </c>
       <c r="E33" s="3">
-        <v>123300</v>
+        <v>122400</v>
       </c>
       <c r="F33" s="3">
-        <v>-93100</v>
+        <v>-92500</v>
       </c>
       <c r="G33" s="3">
-        <v>34100</v>
+        <v>33900</v>
       </c>
       <c r="H33" s="3">
-        <v>-23000</v>
+        <v>-22800</v>
       </c>
       <c r="I33" s="3">
-        <v>-652700</v>
+        <v>-648200</v>
       </c>
       <c r="J33" s="3">
-        <v>-217500</v>
+        <v>-216000</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>185000</v>
+        <v>183700</v>
       </c>
       <c r="E35" s="3">
-        <v>123300</v>
+        <v>122400</v>
       </c>
       <c r="F35" s="3">
-        <v>-93100</v>
+        <v>-92500</v>
       </c>
       <c r="G35" s="3">
-        <v>34100</v>
+        <v>33900</v>
       </c>
       <c r="H35" s="3">
-        <v>-23000</v>
+        <v>-22800</v>
       </c>
       <c r="I35" s="3">
-        <v>-652700</v>
+        <v>-648200</v>
       </c>
       <c r="J35" s="3">
-        <v>-217500</v>
+        <v>-216000</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>282800</v>
+        <v>280900</v>
       </c>
       <c r="E41" s="3">
-        <v>234500</v>
+        <v>232900</v>
       </c>
       <c r="F41" s="3">
-        <v>264200</v>
+        <v>262400</v>
       </c>
       <c r="G41" s="3">
-        <v>257500</v>
+        <v>255800</v>
       </c>
       <c r="H41" s="3">
-        <v>323500</v>
+        <v>321300</v>
       </c>
       <c r="I41" s="3">
-        <v>362800</v>
+        <v>360400</v>
       </c>
       <c r="J41" s="3">
-        <v>228300</v>
+        <v>226800</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1507,22 +1507,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>56000</v>
+        <v>55700</v>
       </c>
       <c r="E42" s="3">
-        <v>29200</v>
+        <v>29000</v>
       </c>
       <c r="F42" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="G42" s="3">
-        <v>45900</v>
+        <v>45600</v>
       </c>
       <c r="H42" s="3">
-        <v>18100</v>
+        <v>18000</v>
       </c>
       <c r="I42" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>44500</v>
+        <v>44200</v>
       </c>
       <c r="E43" s="3">
-        <v>53900</v>
+        <v>53500</v>
       </c>
       <c r="F43" s="3">
-        <v>60900</v>
+        <v>60500</v>
       </c>
       <c r="G43" s="3">
-        <v>52600</v>
+        <v>52200</v>
       </c>
       <c r="H43" s="3">
-        <v>57600</v>
+        <v>57200</v>
       </c>
       <c r="I43" s="3">
-        <v>75300</v>
+        <v>74800</v>
       </c>
       <c r="J43" s="3">
-        <v>38600</v>
+        <v>38400</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>190500</v>
+        <v>189200</v>
       </c>
       <c r="E44" s="3">
-        <v>162800</v>
+        <v>161600</v>
       </c>
       <c r="F44" s="3">
-        <v>141300</v>
+        <v>140400</v>
       </c>
       <c r="G44" s="3">
-        <v>206800</v>
+        <v>205300</v>
       </c>
       <c r="H44" s="3">
-        <v>168900</v>
+        <v>167800</v>
       </c>
       <c r="I44" s="3">
-        <v>161700</v>
+        <v>160600</v>
       </c>
       <c r="J44" s="3">
-        <v>289100</v>
+        <v>287100</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,22 +1588,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33300</v>
+        <v>33100</v>
       </c>
       <c r="E45" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="F45" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="G45" s="3">
-        <v>18500</v>
+        <v>18300</v>
       </c>
       <c r="H45" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="I45" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="J45" s="3">
         <v>4300</v>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>607200</v>
+        <v>603000</v>
       </c>
       <c r="E46" s="3">
-        <v>505700</v>
+        <v>502300</v>
       </c>
       <c r="F46" s="3">
-        <v>496400</v>
+        <v>493000</v>
       </c>
       <c r="G46" s="3">
-        <v>581300</v>
+        <v>577300</v>
       </c>
       <c r="H46" s="3">
-        <v>582900</v>
+        <v>578900</v>
       </c>
       <c r="I46" s="3">
-        <v>619800</v>
+        <v>615500</v>
       </c>
       <c r="J46" s="3">
-        <v>236000</v>
+        <v>234400</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1660,7 +1660,7 @@
         <v>17</v>
       </c>
       <c r="J47" s="3">
-        <v>73100</v>
+        <v>72600</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3977700</v>
+        <v>3950400</v>
       </c>
       <c r="E48" s="3">
-        <v>3762400</v>
+        <v>3736600</v>
       </c>
       <c r="F48" s="3">
-        <v>3608300</v>
+        <v>3583600</v>
       </c>
       <c r="G48" s="3">
-        <v>3531500</v>
+        <v>3507300</v>
       </c>
       <c r="H48" s="3">
-        <v>2460300</v>
+        <v>2443400</v>
       </c>
       <c r="I48" s="3">
-        <v>2384600</v>
+        <v>2368200</v>
       </c>
       <c r="J48" s="3">
-        <v>2101800</v>
+        <v>2087400</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>670800</v>
+        <v>666200</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>79300</v>
+        <v>78700</v>
       </c>
       <c r="E52" s="3">
-        <v>88200</v>
+        <v>87600</v>
       </c>
       <c r="F52" s="3">
-        <v>92200</v>
+        <v>91600</v>
       </c>
       <c r="G52" s="3">
-        <v>145800</v>
+        <v>144800</v>
       </c>
       <c r="H52" s="3">
-        <v>153300</v>
+        <v>152200</v>
       </c>
       <c r="I52" s="3">
-        <v>153700</v>
+        <v>152600</v>
       </c>
       <c r="J52" s="3">
-        <v>301500</v>
+        <v>299500</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4664200</v>
+        <v>4632200</v>
       </c>
       <c r="E54" s="3">
-        <v>4356400</v>
+        <v>4326500</v>
       </c>
       <c r="F54" s="3">
-        <v>4196900</v>
+        <v>4168100</v>
       </c>
       <c r="G54" s="3">
-        <v>4258600</v>
+        <v>4229400</v>
       </c>
       <c r="H54" s="3">
-        <v>3196500</v>
+        <v>3174600</v>
       </c>
       <c r="I54" s="3">
-        <v>3158000</v>
+        <v>3136400</v>
       </c>
       <c r="J54" s="3">
-        <v>2926600</v>
+        <v>2906600</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>151000</v>
+        <v>149900</v>
       </c>
       <c r="E57" s="3">
-        <v>151700</v>
+        <v>150700</v>
       </c>
       <c r="F57" s="3">
-        <v>284700</v>
+        <v>282800</v>
       </c>
       <c r="G57" s="3">
-        <v>112000</v>
+        <v>111200</v>
       </c>
       <c r="H57" s="3">
-        <v>104800</v>
+        <v>104100</v>
       </c>
       <c r="I57" s="3">
-        <v>107600</v>
+        <v>106900</v>
       </c>
       <c r="J57" s="3">
-        <v>110100</v>
+        <v>109400</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1917,10 +1917,10 @@
         <v>1000</v>
       </c>
       <c r="F58" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="G58" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="H58" s="3">
         <v>4600</v>
@@ -1929,7 +1929,7 @@
         <v>6800</v>
       </c>
       <c r="J58" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>36800</v>
+        <v>36600</v>
       </c>
       <c r="E59" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="F59" s="3">
-        <v>23000</v>
+        <v>22800</v>
       </c>
       <c r="G59" s="3">
-        <v>27800</v>
+        <v>27600</v>
       </c>
       <c r="H59" s="3">
-        <v>18300</v>
+        <v>18200</v>
       </c>
       <c r="I59" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="J59" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>188400</v>
+        <v>187100</v>
       </c>
       <c r="E60" s="3">
-        <v>163300</v>
+        <v>162200</v>
       </c>
       <c r="F60" s="3">
-        <v>169200</v>
+        <v>168000</v>
       </c>
       <c r="G60" s="3">
-        <v>145200</v>
+        <v>144200</v>
       </c>
       <c r="H60" s="3">
-        <v>127700</v>
+        <v>126900</v>
       </c>
       <c r="I60" s="3">
-        <v>128100</v>
+        <v>127300</v>
       </c>
       <c r="J60" s="3">
-        <v>66700</v>
+        <v>66200</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -2004,13 +2004,13 @@
         <v>4200</v>
       </c>
       <c r="H61" s="3">
-        <v>386400</v>
+        <v>383800</v>
       </c>
       <c r="I61" s="3">
-        <v>404000</v>
+        <v>401200</v>
       </c>
       <c r="J61" s="3">
-        <v>395200</v>
+        <v>392500</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>818400</v>
+        <v>812800</v>
       </c>
       <c r="E62" s="3">
-        <v>736100</v>
+        <v>731000</v>
       </c>
       <c r="F62" s="3">
-        <v>690000</v>
+        <v>685300</v>
       </c>
       <c r="G62" s="3">
-        <v>674500</v>
+        <v>669900</v>
       </c>
       <c r="H62" s="3">
-        <v>425700</v>
+        <v>422800</v>
       </c>
       <c r="I62" s="3">
-        <v>414400</v>
+        <v>411600</v>
       </c>
       <c r="J62" s="3">
-        <v>410300</v>
+        <v>407500</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1006800</v>
+        <v>999900</v>
       </c>
       <c r="E66" s="3">
-        <v>899400</v>
+        <v>893200</v>
       </c>
       <c r="F66" s="3">
-        <v>859200</v>
+        <v>853300</v>
       </c>
       <c r="G66" s="3">
-        <v>819700</v>
+        <v>814100</v>
       </c>
       <c r="H66" s="3">
-        <v>939900</v>
+        <v>933400</v>
       </c>
       <c r="I66" s="3">
-        <v>946600</v>
+        <v>940100</v>
       </c>
       <c r="J66" s="3">
-        <v>834300</v>
+        <v>828600</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1228900</v>
+        <v>-1220400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1396100</v>
+        <v>-1386500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1514800</v>
+        <v>-1504400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1427500</v>
+        <v>-1417700</v>
       </c>
       <c r="H72" s="3">
-        <v>-1454600</v>
+        <v>-1444600</v>
       </c>
       <c r="I72" s="3">
-        <v>-1429200</v>
+        <v>-1419400</v>
       </c>
       <c r="J72" s="3">
-        <v>-591000</v>
+        <v>-587000</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3657300</v>
+        <v>3632200</v>
       </c>
       <c r="E76" s="3">
-        <v>3457000</v>
+        <v>3433300</v>
       </c>
       <c r="F76" s="3">
-        <v>3337700</v>
+        <v>3314800</v>
       </c>
       <c r="G76" s="3">
-        <v>3438900</v>
+        <v>3415300</v>
       </c>
       <c r="H76" s="3">
-        <v>2256600</v>
+        <v>2241100</v>
       </c>
       <c r="I76" s="3">
-        <v>2211500</v>
+        <v>2196300</v>
       </c>
       <c r="J76" s="3">
-        <v>2092300</v>
+        <v>2077900</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>185000</v>
+        <v>183700</v>
       </c>
       <c r="E81" s="3">
-        <v>123300</v>
+        <v>122400</v>
       </c>
       <c r="F81" s="3">
-        <v>-93100</v>
+        <v>-92500</v>
       </c>
       <c r="G81" s="3">
-        <v>34100</v>
+        <v>33900</v>
       </c>
       <c r="H81" s="3">
-        <v>-23000</v>
+        <v>-22800</v>
       </c>
       <c r="I81" s="3">
-        <v>-652700</v>
+        <v>-648200</v>
       </c>
       <c r="J81" s="3">
-        <v>-217500</v>
+        <v>-216000</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>197300</v>
+        <v>195900</v>
       </c>
       <c r="E83" s="3">
-        <v>211600</v>
+        <v>210200</v>
       </c>
       <c r="F83" s="3">
-        <v>213700</v>
+        <v>212200</v>
       </c>
       <c r="G83" s="3">
-        <v>161100</v>
+        <v>160000</v>
       </c>
       <c r="H83" s="3">
-        <v>152600</v>
+        <v>151600</v>
       </c>
       <c r="I83" s="3">
-        <v>150700</v>
+        <v>149700</v>
       </c>
       <c r="J83" s="3">
-        <v>155800</v>
+        <v>154800</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>472500</v>
+        <v>469300</v>
       </c>
       <c r="E89" s="3">
-        <v>334000</v>
+        <v>331700</v>
       </c>
       <c r="F89" s="3">
-        <v>274300</v>
+        <v>272500</v>
       </c>
       <c r="G89" s="3">
-        <v>209700</v>
+        <v>208300</v>
       </c>
       <c r="H89" s="3">
-        <v>174000</v>
+        <v>172900</v>
       </c>
       <c r="I89" s="3">
-        <v>77000</v>
+        <v>76400</v>
       </c>
       <c r="J89" s="3">
-        <v>99300</v>
+        <v>98600</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-385900</v>
+        <v>-383300</v>
       </c>
       <c r="E91" s="3">
-        <v>-338100</v>
+        <v>-335800</v>
       </c>
       <c r="F91" s="3">
-        <v>-284100</v>
+        <v>-282100</v>
       </c>
       <c r="G91" s="3">
-        <v>-208400</v>
+        <v>-207000</v>
       </c>
       <c r="H91" s="3">
-        <v>-187900</v>
+        <v>-186600</v>
       </c>
       <c r="I91" s="3">
-        <v>-209200</v>
+        <v>-207800</v>
       </c>
       <c r="J91" s="3">
-        <v>-484300</v>
+        <v>-481000</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-402900</v>
+        <v>-400100</v>
       </c>
       <c r="E94" s="3">
-        <v>-343200</v>
+        <v>-340900</v>
       </c>
       <c r="F94" s="3">
-        <v>-252200</v>
+        <v>-250400</v>
       </c>
       <c r="G94" s="3">
-        <v>-153100</v>
+        <v>-152100</v>
       </c>
       <c r="H94" s="3">
-        <v>-194300</v>
+        <v>-193000</v>
       </c>
       <c r="I94" s="3">
-        <v>125600</v>
+        <v>124700</v>
       </c>
       <c r="J94" s="3">
-        <v>-193400</v>
+        <v>-192100</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-30700</v>
+        <v>-30400</v>
       </c>
       <c r="E96" s="3">
-        <v>-20000</v>
+        <v>-19900</v>
       </c>
       <c r="F96" s="3">
-        <v>-10000</v>
+        <v>-9900</v>
       </c>
       <c r="G96" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="H96" s="3">
         <v>-6900</v>
       </c>
       <c r="I96" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="J96" s="3">
-        <v>-18500</v>
+        <v>-18300</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20000</v>
+        <v>-19900</v>
       </c>
       <c r="E100" s="3">
-        <v>-21800</v>
+        <v>-21700</v>
       </c>
       <c r="F100" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="G100" s="3">
-        <v>-125200</v>
+        <v>-124300</v>
       </c>
       <c r="H100" s="3">
-        <v>-16400</v>
+        <v>-16300</v>
       </c>
       <c r="I100" s="3">
-        <v>51800</v>
+        <v>51500</v>
       </c>
       <c r="J100" s="3">
-        <v>27200</v>
+        <v>27000</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>48400</v>
+        <v>48000</v>
       </c>
       <c r="E102" s="3">
-        <v>-29800</v>
+        <v>-29600</v>
       </c>
       <c r="F102" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="G102" s="3">
-        <v>-65900</v>
+        <v>-65500</v>
       </c>
       <c r="H102" s="3">
-        <v>-39400</v>
+        <v>-39100</v>
       </c>
       <c r="I102" s="3">
-        <v>248700</v>
+        <v>247000</v>
       </c>
       <c r="J102" s="3">
-        <v>-68900</v>
+        <v>-68400</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>AGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>952900</v>
+        <v>1049500</v>
       </c>
       <c r="E8" s="3">
-        <v>870100</v>
+        <v>953300</v>
       </c>
       <c r="F8" s="3">
-        <v>830300</v>
+        <v>870500</v>
       </c>
       <c r="G8" s="3">
-        <v>691400</v>
+        <v>830600</v>
       </c>
       <c r="H8" s="3">
-        <v>614200</v>
+        <v>691700</v>
       </c>
       <c r="I8" s="3">
-        <v>452300</v>
+        <v>614500</v>
       </c>
       <c r="J8" s="3">
+        <v>452500</v>
+      </c>
+      <c r="K8" s="3">
         <v>367200</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>411200</v>
+        <v>462800</v>
       </c>
       <c r="E9" s="3">
-        <v>454000</v>
+        <v>411300</v>
       </c>
       <c r="F9" s="3">
-        <v>520700</v>
+        <v>454200</v>
       </c>
       <c r="G9" s="3">
-        <v>421900</v>
+        <v>520900</v>
       </c>
       <c r="H9" s="3">
-        <v>395300</v>
+        <v>422000</v>
       </c>
       <c r="I9" s="3">
-        <v>339500</v>
+        <v>395400</v>
       </c>
       <c r="J9" s="3">
+        <v>339600</v>
+      </c>
+      <c r="K9" s="3">
         <v>667900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>541700</v>
+        <v>586700</v>
       </c>
       <c r="E10" s="3">
-        <v>416200</v>
+        <v>542000</v>
       </c>
       <c r="F10" s="3">
-        <v>309500</v>
+        <v>416300</v>
       </c>
       <c r="G10" s="3">
-        <v>269500</v>
+        <v>309700</v>
       </c>
       <c r="H10" s="3">
-        <v>219000</v>
+        <v>269600</v>
       </c>
       <c r="I10" s="3">
+        <v>219100</v>
+      </c>
+      <c r="J10" s="3">
         <v>112900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-300700</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E12" s="3">
         <v>9200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>81500</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>81600</v>
+      </c>
+      <c r="H14" s="3">
         <v>4800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>572400</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>572700</v>
+      </c>
+      <c r="K14" s="3">
         <v>116700</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>194500</v>
+        <v>217800</v>
       </c>
       <c r="E15" s="3">
-        <v>210200</v>
+        <v>194600</v>
       </c>
       <c r="F15" s="3">
-        <v>212200</v>
+        <v>210300</v>
       </c>
       <c r="G15" s="3">
-        <v>160000</v>
+        <v>212300</v>
       </c>
       <c r="H15" s="3">
+        <v>160100</v>
+      </c>
+      <c r="I15" s="3">
         <v>151600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>149700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>154800</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>663000</v>
+        <v>1031700</v>
       </c>
       <c r="E17" s="3">
-        <v>709600</v>
+        <v>663300</v>
       </c>
       <c r="F17" s="3">
-        <v>859100</v>
+        <v>709900</v>
       </c>
       <c r="G17" s="3">
-        <v>624900</v>
+        <v>859400</v>
       </c>
       <c r="H17" s="3">
-        <v>587100</v>
+        <v>625200</v>
       </c>
       <c r="I17" s="3">
-        <v>1105300</v>
+        <v>587300</v>
       </c>
       <c r="J17" s="3">
+        <v>1105700</v>
+      </c>
+      <c r="K17" s="3">
         <v>556700</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>289900</v>
+        <v>17800</v>
       </c>
       <c r="E18" s="3">
-        <v>160500</v>
+        <v>290000</v>
       </c>
       <c r="F18" s="3">
+        <v>160600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-28800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>66500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>27100</v>
       </c>
-      <c r="I18" s="3">
-        <v>-652900</v>
-      </c>
       <c r="J18" s="3">
+        <v>-653200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-189400</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,70 +1016,77 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-11700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-20100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-38200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-36800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-58700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-63600</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>474800</v>
+        <v>222000</v>
       </c>
       <c r="E21" s="3">
-        <v>375200</v>
+        <v>475200</v>
       </c>
       <c r="F21" s="3">
-        <v>164100</v>
+        <v>375500</v>
       </c>
       <c r="G21" s="3">
-        <v>188900</v>
+        <v>164400</v>
       </c>
       <c r="H21" s="3">
-        <v>142500</v>
+        <v>189100</v>
       </c>
       <c r="I21" s="3">
-        <v>-561400</v>
+        <v>142700</v>
       </c>
       <c r="J21" s="3">
+        <v>-561500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-97600</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>17</v>
+      <c r="E22" s="3">
+        <v>300</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>17</v>
@@ -1064,63 +1103,72 @@
       <c r="J22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>277900</v>
+        <v>2900</v>
       </c>
       <c r="E23" s="3">
-        <v>164200</v>
+        <v>278100</v>
       </c>
       <c r="F23" s="3">
+        <v>164300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-48900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>28300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9700</v>
       </c>
-      <c r="I23" s="3">
-        <v>-711700</v>
-      </c>
       <c r="J23" s="3">
+        <v>-712000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-253000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E24" s="3">
         <v>94300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>41800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>43600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13100</v>
       </c>
-      <c r="I24" s="3">
-        <v>-63400</v>
-      </c>
       <c r="J24" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-36900</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>183700</v>
+        <v>-85000</v>
       </c>
       <c r="E26" s="3">
-        <v>122400</v>
+        <v>183800</v>
       </c>
       <c r="F26" s="3">
+        <v>122500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-92500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>33900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-22800</v>
       </c>
-      <c r="I26" s="3">
-        <v>-648200</v>
-      </c>
       <c r="J26" s="3">
+        <v>-648500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-216000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>183700</v>
+        <v>-85000</v>
       </c>
       <c r="E27" s="3">
-        <v>122400</v>
+        <v>183800</v>
       </c>
       <c r="F27" s="3">
+        <v>122500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-92500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>33900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22800</v>
       </c>
-      <c r="I27" s="3">
-        <v>-648200</v>
-      </c>
       <c r="J27" s="3">
+        <v>-648500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-216000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E32" s="3">
         <v>11700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>20100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>38200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>36800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>58700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>63600</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>183700</v>
+        <v>-85000</v>
       </c>
       <c r="E33" s="3">
-        <v>122400</v>
+        <v>183800</v>
       </c>
       <c r="F33" s="3">
+        <v>122500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-92500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>33900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22800</v>
       </c>
-      <c r="I33" s="3">
-        <v>-648200</v>
-      </c>
       <c r="J33" s="3">
+        <v>-648500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-216000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>183700</v>
+        <v>-85000</v>
       </c>
       <c r="E35" s="3">
-        <v>122400</v>
+        <v>183800</v>
       </c>
       <c r="F35" s="3">
+        <v>122500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-92500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>33900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22800</v>
       </c>
-      <c r="I35" s="3">
-        <v>-648200</v>
-      </c>
       <c r="J35" s="3">
+        <v>-648500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-216000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>280900</v>
+        <v>219800</v>
       </c>
       <c r="E41" s="3">
+        <v>281000</v>
+      </c>
+      <c r="F41" s="3">
         <v>232900</v>
       </c>
-      <c r="F41" s="3">
-        <v>262400</v>
-      </c>
       <c r="G41" s="3">
-        <v>255800</v>
+        <v>262500</v>
       </c>
       <c r="H41" s="3">
-        <v>321300</v>
+        <v>255900</v>
       </c>
       <c r="I41" s="3">
-        <v>360400</v>
+        <v>321400</v>
       </c>
       <c r="J41" s="3">
+        <v>360500</v>
+      </c>
+      <c r="K41" s="3">
         <v>226800</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E42" s="3">
         <v>55700</v>
       </c>
-      <c r="E42" s="3">
-        <v>29000</v>
-      </c>
       <c r="F42" s="3">
+        <v>29100</v>
+      </c>
+      <c r="G42" s="3">
         <v>9900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>45600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>18000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8500</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E43" s="3">
         <v>44200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>53500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>60500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>52200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>57200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>74800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>38400</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>253600</v>
+      </c>
+      <c r="E44" s="3">
         <v>189200</v>
       </c>
-      <c r="E44" s="3">
-        <v>161600</v>
-      </c>
       <c r="F44" s="3">
+        <v>161700</v>
+      </c>
+      <c r="G44" s="3">
         <v>140400</v>
       </c>
-      <c r="G44" s="3">
-        <v>205300</v>
-      </c>
       <c r="H44" s="3">
+        <v>205400</v>
+      </c>
+      <c r="I44" s="3">
         <v>167800</v>
       </c>
-      <c r="I44" s="3">
-        <v>160600</v>
-      </c>
       <c r="J44" s="3">
+        <v>160700</v>
+      </c>
+      <c r="K44" s="3">
         <v>287100</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E45" s="3">
         <v>33100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25200</v>
       </c>
-      <c r="F45" s="3">
-        <v>19700</v>
-      </c>
       <c r="G45" s="3">
+        <v>19800</v>
+      </c>
+      <c r="H45" s="3">
         <v>18300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4300</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>603000</v>
+        <v>585400</v>
       </c>
       <c r="E46" s="3">
-        <v>502300</v>
+        <v>603300</v>
       </c>
       <c r="F46" s="3">
-        <v>493000</v>
+        <v>502500</v>
       </c>
       <c r="G46" s="3">
-        <v>577300</v>
+        <v>493200</v>
       </c>
       <c r="H46" s="3">
-        <v>578900</v>
+        <v>577500</v>
       </c>
       <c r="I46" s="3">
-        <v>615500</v>
+        <v>579200</v>
       </c>
       <c r="J46" s="3">
+        <v>615700</v>
+      </c>
+      <c r="K46" s="3">
         <v>234400</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>17</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>72600</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3950400</v>
+        <v>3961200</v>
       </c>
       <c r="E48" s="3">
-        <v>3736600</v>
+        <v>3952000</v>
       </c>
       <c r="F48" s="3">
-        <v>3583600</v>
+        <v>3738000</v>
       </c>
       <c r="G48" s="3">
-        <v>3507300</v>
+        <v>3585000</v>
       </c>
       <c r="H48" s="3">
-        <v>2443400</v>
+        <v>3508700</v>
       </c>
       <c r="I48" s="3">
-        <v>2368200</v>
+        <v>2444400</v>
       </c>
       <c r="J48" s="3">
+        <v>2369200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2087400</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>17</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>666200</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>78700</v>
+        <v>68300</v>
       </c>
       <c r="E52" s="3">
-        <v>87600</v>
+        <v>78800</v>
       </c>
       <c r="F52" s="3">
+        <v>87700</v>
+      </c>
+      <c r="G52" s="3">
         <v>91600</v>
       </c>
-      <c r="G52" s="3">
-        <v>144800</v>
-      </c>
       <c r="H52" s="3">
-        <v>152200</v>
+        <v>144900</v>
       </c>
       <c r="I52" s="3">
-        <v>152600</v>
+        <v>152300</v>
       </c>
       <c r="J52" s="3">
+        <v>152700</v>
+      </c>
+      <c r="K52" s="3">
         <v>299500</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4632200</v>
+        <v>4614900</v>
       </c>
       <c r="E54" s="3">
-        <v>4326500</v>
+        <v>4634000</v>
       </c>
       <c r="F54" s="3">
-        <v>4168100</v>
+        <v>4328200</v>
       </c>
       <c r="G54" s="3">
-        <v>4229400</v>
+        <v>4169800</v>
       </c>
       <c r="H54" s="3">
-        <v>3174600</v>
+        <v>4231100</v>
       </c>
       <c r="I54" s="3">
-        <v>3136400</v>
+        <v>3175800</v>
       </c>
       <c r="J54" s="3">
+        <v>3137600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2906600</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,116 +2007,129 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>149900</v>
+        <v>175300</v>
       </c>
       <c r="E57" s="3">
+        <v>150000</v>
+      </c>
+      <c r="F57" s="3">
         <v>150700</v>
       </c>
-      <c r="F57" s="3">
-        <v>282800</v>
-      </c>
       <c r="G57" s="3">
+        <v>282900</v>
+      </c>
+      <c r="H57" s="3">
         <v>111200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>104100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>106900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>109400</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E59" s="3">
         <v>36600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22800</v>
       </c>
-      <c r="G59" s="3">
-        <v>27600</v>
-      </c>
       <c r="H59" s="3">
+        <v>27700</v>
+      </c>
+      <c r="I59" s="3">
         <v>18200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7200</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>187100</v>
+        <v>200600</v>
       </c>
       <c r="E60" s="3">
+        <v>187200</v>
+      </c>
+      <c r="F60" s="3">
         <v>162200</v>
       </c>
-      <c r="F60" s="3">
-        <v>168000</v>
-      </c>
       <c r="G60" s="3">
-        <v>144200</v>
+        <v>168100</v>
       </c>
       <c r="H60" s="3">
+        <v>144300</v>
+      </c>
+      <c r="I60" s="3">
         <v>126900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>127300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>66200</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2001,47 +2143,53 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>4200</v>
       </c>
-      <c r="H61" s="3">
-        <v>383800</v>
-      </c>
       <c r="I61" s="3">
-        <v>401200</v>
+        <v>383900</v>
       </c>
       <c r="J61" s="3">
+        <v>401400</v>
+      </c>
+      <c r="K61" s="3">
         <v>392500</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>812800</v>
+        <v>928300</v>
       </c>
       <c r="E62" s="3">
-        <v>731000</v>
+        <v>813100</v>
       </c>
       <c r="F62" s="3">
-        <v>685300</v>
+        <v>731300</v>
       </c>
       <c r="G62" s="3">
-        <v>669900</v>
+        <v>685600</v>
       </c>
       <c r="H62" s="3">
-        <v>422800</v>
+        <v>670200</v>
       </c>
       <c r="I62" s="3">
-        <v>411600</v>
+        <v>422900</v>
       </c>
       <c r="J62" s="3">
+        <v>411700</v>
+      </c>
+      <c r="K62" s="3">
         <v>407500</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>999900</v>
+        <v>1128900</v>
       </c>
       <c r="E66" s="3">
-        <v>893200</v>
+        <v>1000300</v>
       </c>
       <c r="F66" s="3">
-        <v>853300</v>
+        <v>893500</v>
       </c>
       <c r="G66" s="3">
-        <v>814100</v>
+        <v>853700</v>
       </c>
       <c r="H66" s="3">
-        <v>933400</v>
+        <v>814400</v>
       </c>
       <c r="I66" s="3">
-        <v>940100</v>
+        <v>933800</v>
       </c>
       <c r="J66" s="3">
+        <v>940400</v>
+      </c>
+      <c r="K66" s="3">
         <v>828600</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1220400</v>
+        <v>-1336400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1386500</v>
+        <v>-1220900</v>
       </c>
       <c r="F72" s="3">
-        <v>-1504400</v>
+        <v>-1387100</v>
       </c>
       <c r="G72" s="3">
-        <v>-1417700</v>
+        <v>-1504900</v>
       </c>
       <c r="H72" s="3">
-        <v>-1444600</v>
+        <v>-1418300</v>
       </c>
       <c r="I72" s="3">
-        <v>-1419400</v>
+        <v>-1445200</v>
       </c>
       <c r="J72" s="3">
+        <v>-1420000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-587000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3632200</v>
+        <v>3486000</v>
       </c>
       <c r="E76" s="3">
-        <v>3433300</v>
+        <v>3633700</v>
       </c>
       <c r="F76" s="3">
-        <v>3314800</v>
+        <v>3434600</v>
       </c>
       <c r="G76" s="3">
-        <v>3415300</v>
+        <v>3316100</v>
       </c>
       <c r="H76" s="3">
-        <v>2241100</v>
+        <v>3416700</v>
       </c>
       <c r="I76" s="3">
-        <v>2196300</v>
+        <v>2242000</v>
       </c>
       <c r="J76" s="3">
+        <v>2197100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2077900</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>183700</v>
+        <v>-85000</v>
       </c>
       <c r="E81" s="3">
-        <v>122400</v>
+        <v>183800</v>
       </c>
       <c r="F81" s="3">
+        <v>122500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-92500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>33900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22800</v>
       </c>
-      <c r="I81" s="3">
-        <v>-648200</v>
-      </c>
       <c r="J81" s="3">
+        <v>-648500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-216000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>195900</v>
+        <v>217800</v>
       </c>
       <c r="E83" s="3">
-        <v>210200</v>
+        <v>196000</v>
       </c>
       <c r="F83" s="3">
-        <v>212200</v>
+        <v>210300</v>
       </c>
       <c r="G83" s="3">
-        <v>160000</v>
+        <v>212300</v>
       </c>
       <c r="H83" s="3">
+        <v>160100</v>
+      </c>
+      <c r="I83" s="3">
         <v>151600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>149700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>154800</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>469300</v>
+        <v>454300</v>
       </c>
       <c r="E89" s="3">
-        <v>331700</v>
+        <v>469500</v>
       </c>
       <c r="F89" s="3">
-        <v>272500</v>
+        <v>331800</v>
       </c>
       <c r="G89" s="3">
+        <v>272600</v>
+      </c>
+      <c r="H89" s="3">
         <v>208300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>172900</v>
       </c>
-      <c r="I89" s="3">
-        <v>76400</v>
-      </c>
       <c r="J89" s="3">
+        <v>76500</v>
+      </c>
+      <c r="K89" s="3">
         <v>98600</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-383300</v>
+        <v>-464200</v>
       </c>
       <c r="E91" s="3">
-        <v>-335800</v>
+        <v>-383400</v>
       </c>
       <c r="F91" s="3">
-        <v>-282100</v>
+        <v>-335900</v>
       </c>
       <c r="G91" s="3">
-        <v>-207000</v>
+        <v>-282300</v>
       </c>
       <c r="H91" s="3">
-        <v>-186600</v>
+        <v>-207100</v>
       </c>
       <c r="I91" s="3">
+        <v>-186700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-207800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-481000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400100</v>
+        <v>-455100</v>
       </c>
       <c r="E94" s="3">
-        <v>-340900</v>
+        <v>-400300</v>
       </c>
       <c r="F94" s="3">
-        <v>-250400</v>
+        <v>-341000</v>
       </c>
       <c r="G94" s="3">
-        <v>-152100</v>
+        <v>-250500</v>
       </c>
       <c r="H94" s="3">
-        <v>-193000</v>
+        <v>-152200</v>
       </c>
       <c r="I94" s="3">
-        <v>124700</v>
+        <v>-193100</v>
       </c>
       <c r="J94" s="3">
+        <v>124800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-192100</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-30400</v>
+        <v>-44000</v>
       </c>
       <c r="E96" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-19900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-9900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-7600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-6900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-13500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-18300</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-21700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11200</v>
       </c>
-      <c r="G100" s="3">
-        <v>-124300</v>
-      </c>
       <c r="H100" s="3">
+        <v>-124400</v>
+      </c>
+      <c r="I100" s="3">
         <v>-16300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>51500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>27000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="E102" s="3">
         <v>48000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-29600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-65500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-39100</v>
       </c>
-      <c r="I102" s="3">
-        <v>247000</v>
-      </c>
       <c r="J102" s="3">
+        <v>247100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-68400</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1049500</v>
+        <v>1074300</v>
       </c>
       <c r="E8" s="3">
-        <v>953300</v>
+        <v>975800</v>
       </c>
       <c r="F8" s="3">
-        <v>870500</v>
+        <v>891000</v>
       </c>
       <c r="G8" s="3">
-        <v>830600</v>
+        <v>850200</v>
       </c>
       <c r="H8" s="3">
-        <v>691700</v>
+        <v>708000</v>
       </c>
       <c r="I8" s="3">
-        <v>614500</v>
+        <v>629000</v>
       </c>
       <c r="J8" s="3">
-        <v>452500</v>
+        <v>463200</v>
       </c>
       <c r="K8" s="3">
         <v>367200</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>462800</v>
+        <v>473800</v>
       </c>
       <c r="E9" s="3">
-        <v>411300</v>
+        <v>421100</v>
       </c>
       <c r="F9" s="3">
-        <v>454200</v>
+        <v>464900</v>
       </c>
       <c r="G9" s="3">
-        <v>520900</v>
+        <v>533200</v>
       </c>
       <c r="H9" s="3">
-        <v>422000</v>
+        <v>432000</v>
       </c>
       <c r="I9" s="3">
-        <v>395400</v>
+        <v>404800</v>
       </c>
       <c r="J9" s="3">
-        <v>339600</v>
+        <v>347600</v>
       </c>
       <c r="K9" s="3">
         <v>667900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>586700</v>
+        <v>600500</v>
       </c>
       <c r="E10" s="3">
-        <v>542000</v>
+        <v>554800</v>
       </c>
       <c r="F10" s="3">
-        <v>416300</v>
+        <v>426100</v>
       </c>
       <c r="G10" s="3">
-        <v>309700</v>
+        <v>317000</v>
       </c>
       <c r="H10" s="3">
-        <v>269600</v>
+        <v>276000</v>
       </c>
       <c r="I10" s="3">
-        <v>219100</v>
+        <v>224200</v>
       </c>
       <c r="J10" s="3">
-        <v>112900</v>
+        <v>115600</v>
       </c>
       <c r="K10" s="3">
         <v>-300700</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>18700</v>
+        <v>19200</v>
       </c>
       <c r="E12" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="F12" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="G12" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="H12" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="I12" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="J12" s="3">
-        <v>12000</v>
+        <v>12300</v>
       </c>
       <c r="K12" s="3">
         <v>2500</v>
@@ -878,25 +878,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>287000</v>
+        <v>293800</v>
       </c>
       <c r="E14" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>81600</v>
+        <v>83500</v>
       </c>
       <c r="H14" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>572700</v>
+        <v>586200</v>
       </c>
       <c r="K14" s="3">
         <v>116700</v>
@@ -908,25 +908,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>217800</v>
+        <v>222900</v>
       </c>
       <c r="E15" s="3">
-        <v>194600</v>
+        <v>199200</v>
       </c>
       <c r="F15" s="3">
-        <v>210300</v>
+        <v>215200</v>
       </c>
       <c r="G15" s="3">
-        <v>212300</v>
+        <v>217300</v>
       </c>
       <c r="H15" s="3">
-        <v>160100</v>
+        <v>163800</v>
       </c>
       <c r="I15" s="3">
-        <v>151600</v>
+        <v>155200</v>
       </c>
       <c r="J15" s="3">
-        <v>149700</v>
+        <v>153300</v>
       </c>
       <c r="K15" s="3">
         <v>154800</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1031700</v>
+        <v>1056000</v>
       </c>
       <c r="E17" s="3">
-        <v>663300</v>
+        <v>678900</v>
       </c>
       <c r="F17" s="3">
-        <v>709900</v>
+        <v>726700</v>
       </c>
       <c r="G17" s="3">
-        <v>859400</v>
+        <v>879700</v>
       </c>
       <c r="H17" s="3">
-        <v>625200</v>
+        <v>639900</v>
       </c>
       <c r="I17" s="3">
-        <v>587300</v>
+        <v>601200</v>
       </c>
       <c r="J17" s="3">
-        <v>1105700</v>
+        <v>1131800</v>
       </c>
       <c r="K17" s="3">
         <v>556700</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="E18" s="3">
-        <v>290000</v>
+        <v>296900</v>
       </c>
       <c r="F18" s="3">
-        <v>160600</v>
+        <v>164400</v>
       </c>
       <c r="G18" s="3">
-        <v>-28800</v>
+        <v>-29500</v>
       </c>
       <c r="H18" s="3">
-        <v>66500</v>
+        <v>68100</v>
       </c>
       <c r="I18" s="3">
-        <v>27100</v>
+        <v>27800</v>
       </c>
       <c r="J18" s="3">
-        <v>-653200</v>
+        <v>-668600</v>
       </c>
       <c r="K18" s="3">
         <v>-189400</v>
@@ -1023,25 +1023,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-14700</v>
+        <v>-15000</v>
       </c>
       <c r="E20" s="3">
-        <v>-11700</v>
+        <v>-12000</v>
       </c>
       <c r="F20" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G20" s="3">
-        <v>-20100</v>
+        <v>-20600</v>
       </c>
       <c r="H20" s="3">
-        <v>-38200</v>
+        <v>-39100</v>
       </c>
       <c r="I20" s="3">
-        <v>-36800</v>
+        <v>-37700</v>
       </c>
       <c r="J20" s="3">
-        <v>-58700</v>
+        <v>-60100</v>
       </c>
       <c r="K20" s="3">
         <v>-63600</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>222000</v>
+        <v>225300</v>
       </c>
       <c r="E21" s="3">
-        <v>475200</v>
+        <v>484700</v>
       </c>
       <c r="F21" s="3">
-        <v>375500</v>
+        <v>382500</v>
       </c>
       <c r="G21" s="3">
-        <v>164400</v>
+        <v>166400</v>
       </c>
       <c r="H21" s="3">
-        <v>189100</v>
+        <v>192100</v>
       </c>
       <c r="I21" s="3">
-        <v>142700</v>
+        <v>144700</v>
       </c>
       <c r="J21" s="3">
-        <v>-561500</v>
+        <v>-576100</v>
       </c>
       <c r="K21" s="3">
         <v>-97600</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E23" s="3">
-        <v>278100</v>
+        <v>284600</v>
       </c>
       <c r="F23" s="3">
-        <v>164300</v>
+        <v>168100</v>
       </c>
       <c r="G23" s="3">
-        <v>-48900</v>
+        <v>-50100</v>
       </c>
       <c r="H23" s="3">
-        <v>28300</v>
+        <v>29000</v>
       </c>
       <c r="I23" s="3">
-        <v>-9700</v>
+        <v>-9900</v>
       </c>
       <c r="J23" s="3">
-        <v>-712000</v>
+        <v>-728800</v>
       </c>
       <c r="K23" s="3">
         <v>-253000</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>87900</v>
+        <v>90000</v>
       </c>
       <c r="E24" s="3">
-        <v>94300</v>
+        <v>96500</v>
       </c>
       <c r="F24" s="3">
-        <v>41800</v>
+        <v>42800</v>
       </c>
       <c r="G24" s="3">
-        <v>43600</v>
+        <v>44600</v>
       </c>
       <c r="H24" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="I24" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="J24" s="3">
-        <v>-63500</v>
+        <v>-65000</v>
       </c>
       <c r="K24" s="3">
         <v>-36900</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-85000</v>
+        <v>-87000</v>
       </c>
       <c r="E26" s="3">
-        <v>183800</v>
+        <v>188100</v>
       </c>
       <c r="F26" s="3">
-        <v>122500</v>
+        <v>125400</v>
       </c>
       <c r="G26" s="3">
-        <v>-92500</v>
+        <v>-94700</v>
       </c>
       <c r="H26" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="I26" s="3">
-        <v>-22800</v>
+        <v>-23300</v>
       </c>
       <c r="J26" s="3">
-        <v>-648500</v>
+        <v>-663800</v>
       </c>
       <c r="K26" s="3">
         <v>-216000</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-85000</v>
+        <v>-87000</v>
       </c>
       <c r="E27" s="3">
-        <v>183800</v>
+        <v>188100</v>
       </c>
       <c r="F27" s="3">
-        <v>122500</v>
+        <v>125400</v>
       </c>
       <c r="G27" s="3">
-        <v>-92500</v>
+        <v>-94700</v>
       </c>
       <c r="H27" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="I27" s="3">
-        <v>-22800</v>
+        <v>-23300</v>
       </c>
       <c r="J27" s="3">
-        <v>-648500</v>
+        <v>-663800</v>
       </c>
       <c r="K27" s="3">
         <v>-216000</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="E32" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="F32" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="G32" s="3">
-        <v>20100</v>
+        <v>20600</v>
       </c>
       <c r="H32" s="3">
-        <v>38200</v>
+        <v>39100</v>
       </c>
       <c r="I32" s="3">
-        <v>36800</v>
+        <v>37700</v>
       </c>
       <c r="J32" s="3">
-        <v>58700</v>
+        <v>60100</v>
       </c>
       <c r="K32" s="3">
         <v>63600</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-85000</v>
+        <v>-87000</v>
       </c>
       <c r="E33" s="3">
-        <v>183800</v>
+        <v>188100</v>
       </c>
       <c r="F33" s="3">
-        <v>122500</v>
+        <v>125400</v>
       </c>
       <c r="G33" s="3">
-        <v>-92500</v>
+        <v>-94700</v>
       </c>
       <c r="H33" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="I33" s="3">
-        <v>-22800</v>
+        <v>-23300</v>
       </c>
       <c r="J33" s="3">
-        <v>-648500</v>
+        <v>-663800</v>
       </c>
       <c r="K33" s="3">
         <v>-216000</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-85000</v>
+        <v>-87000</v>
       </c>
       <c r="E35" s="3">
-        <v>183800</v>
+        <v>188100</v>
       </c>
       <c r="F35" s="3">
-        <v>122500</v>
+        <v>125400</v>
       </c>
       <c r="G35" s="3">
-        <v>-92500</v>
+        <v>-94700</v>
       </c>
       <c r="H35" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="I35" s="3">
-        <v>-22800</v>
+        <v>-23300</v>
       </c>
       <c r="J35" s="3">
-        <v>-648500</v>
+        <v>-663800</v>
       </c>
       <c r="K35" s="3">
         <v>-216000</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>219800</v>
+        <v>225000</v>
       </c>
       <c r="E41" s="3">
-        <v>281000</v>
+        <v>287600</v>
       </c>
       <c r="F41" s="3">
-        <v>232900</v>
+        <v>238400</v>
       </c>
       <c r="G41" s="3">
-        <v>262500</v>
+        <v>268700</v>
       </c>
       <c r="H41" s="3">
-        <v>255900</v>
+        <v>261900</v>
       </c>
       <c r="I41" s="3">
-        <v>321400</v>
+        <v>329000</v>
       </c>
       <c r="J41" s="3">
-        <v>360500</v>
+        <v>369000</v>
       </c>
       <c r="K41" s="3">
         <v>226800</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30500</v>
+        <v>31200</v>
       </c>
       <c r="E42" s="3">
-        <v>55700</v>
+        <v>57000</v>
       </c>
       <c r="F42" s="3">
-        <v>29100</v>
+        <v>29700</v>
       </c>
       <c r="G42" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="H42" s="3">
-        <v>45600</v>
+        <v>46700</v>
       </c>
       <c r="I42" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="J42" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>50700</v>
+        <v>51900</v>
       </c>
       <c r="E43" s="3">
-        <v>44200</v>
+        <v>45300</v>
       </c>
       <c r="F43" s="3">
+        <v>54800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>62000</v>
+      </c>
+      <c r="H43" s="3">
         <v>53500</v>
       </c>
-      <c r="G43" s="3">
-        <v>60500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>52200</v>
-      </c>
       <c r="I43" s="3">
-        <v>57200</v>
+        <v>58600</v>
       </c>
       <c r="J43" s="3">
-        <v>74800</v>
+        <v>76600</v>
       </c>
       <c r="K43" s="3">
         <v>38400</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>253600</v>
+        <v>259600</v>
       </c>
       <c r="E44" s="3">
-        <v>189200</v>
+        <v>193700</v>
       </c>
       <c r="F44" s="3">
-        <v>161700</v>
+        <v>165500</v>
       </c>
       <c r="G44" s="3">
-        <v>140400</v>
+        <v>143700</v>
       </c>
       <c r="H44" s="3">
-        <v>205400</v>
+        <v>210300</v>
       </c>
       <c r="I44" s="3">
-        <v>167800</v>
+        <v>171800</v>
       </c>
       <c r="J44" s="3">
-        <v>160700</v>
+        <v>164500</v>
       </c>
       <c r="K44" s="3">
         <v>287100</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30800</v>
+        <v>31600</v>
       </c>
       <c r="E45" s="3">
-        <v>33100</v>
+        <v>33900</v>
       </c>
       <c r="F45" s="3">
-        <v>25200</v>
+        <v>25800</v>
       </c>
       <c r="G45" s="3">
-        <v>19800</v>
+        <v>20200</v>
       </c>
       <c r="H45" s="3">
-        <v>18300</v>
+        <v>18800</v>
       </c>
       <c r="I45" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="J45" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="K45" s="3">
         <v>4300</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>585400</v>
+        <v>599200</v>
       </c>
       <c r="E46" s="3">
-        <v>603300</v>
+        <v>617500</v>
       </c>
       <c r="F46" s="3">
-        <v>502500</v>
+        <v>514300</v>
       </c>
       <c r="G46" s="3">
-        <v>493200</v>
+        <v>504800</v>
       </c>
       <c r="H46" s="3">
-        <v>577500</v>
+        <v>591200</v>
       </c>
       <c r="I46" s="3">
-        <v>579200</v>
+        <v>592800</v>
       </c>
       <c r="J46" s="3">
-        <v>615700</v>
+        <v>630300</v>
       </c>
       <c r="K46" s="3">
         <v>234400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3961200</v>
+        <v>4054700</v>
       </c>
       <c r="E48" s="3">
-        <v>3952000</v>
+        <v>4045300</v>
       </c>
       <c r="F48" s="3">
-        <v>3738000</v>
+        <v>3826300</v>
       </c>
       <c r="G48" s="3">
-        <v>3585000</v>
+        <v>3669700</v>
       </c>
       <c r="H48" s="3">
-        <v>3508700</v>
+        <v>3591500</v>
       </c>
       <c r="I48" s="3">
-        <v>2444400</v>
+        <v>2502100</v>
       </c>
       <c r="J48" s="3">
-        <v>2369200</v>
+        <v>2425100</v>
       </c>
       <c r="K48" s="3">
         <v>2087400</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>68300</v>
+        <v>69900</v>
       </c>
       <c r="E52" s="3">
-        <v>78800</v>
+        <v>80600</v>
       </c>
       <c r="F52" s="3">
-        <v>87700</v>
+        <v>89700</v>
       </c>
       <c r="G52" s="3">
-        <v>91600</v>
+        <v>93800</v>
       </c>
       <c r="H52" s="3">
-        <v>144900</v>
+        <v>148300</v>
       </c>
       <c r="I52" s="3">
-        <v>152300</v>
+        <v>155900</v>
       </c>
       <c r="J52" s="3">
-        <v>152700</v>
+        <v>156300</v>
       </c>
       <c r="K52" s="3">
         <v>299500</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4614900</v>
+        <v>4723900</v>
       </c>
       <c r="E54" s="3">
-        <v>4634000</v>
+        <v>4743500</v>
       </c>
       <c r="F54" s="3">
-        <v>4328200</v>
+        <v>4430400</v>
       </c>
       <c r="G54" s="3">
-        <v>4169800</v>
+        <v>4268300</v>
       </c>
       <c r="H54" s="3">
-        <v>4231100</v>
+        <v>4331000</v>
       </c>
       <c r="I54" s="3">
-        <v>3175800</v>
+        <v>3250800</v>
       </c>
       <c r="J54" s="3">
-        <v>3137600</v>
+        <v>3211700</v>
       </c>
       <c r="K54" s="3">
         <v>2906600</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>175300</v>
+        <v>179500</v>
       </c>
       <c r="E57" s="3">
-        <v>150000</v>
+        <v>153500</v>
       </c>
       <c r="F57" s="3">
-        <v>150700</v>
+        <v>154300</v>
       </c>
       <c r="G57" s="3">
-        <v>282900</v>
+        <v>289600</v>
       </c>
       <c r="H57" s="3">
-        <v>111200</v>
+        <v>113900</v>
       </c>
       <c r="I57" s="3">
-        <v>104100</v>
+        <v>106600</v>
       </c>
       <c r="J57" s="3">
-        <v>106900</v>
+        <v>109400</v>
       </c>
       <c r="K57" s="3">
         <v>109400</v>
@@ -2047,22 +2047,22 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
       </c>
       <c r="G58" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="H58" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="I58" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="J58" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="K58" s="3">
         <v>8000</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24700</v>
+        <v>25300</v>
       </c>
       <c r="E59" s="3">
-        <v>36600</v>
+        <v>37400</v>
       </c>
       <c r="F59" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="G59" s="3">
-        <v>22800</v>
+        <v>23300</v>
       </c>
       <c r="H59" s="3">
-        <v>27700</v>
+        <v>28300</v>
       </c>
       <c r="I59" s="3">
-        <v>18200</v>
+        <v>18700</v>
       </c>
       <c r="J59" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="K59" s="3">
         <v>7200</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200600</v>
+        <v>205300</v>
       </c>
       <c r="E60" s="3">
-        <v>187200</v>
+        <v>191600</v>
       </c>
       <c r="F60" s="3">
-        <v>162200</v>
+        <v>166100</v>
       </c>
       <c r="G60" s="3">
-        <v>168100</v>
+        <v>172100</v>
       </c>
       <c r="H60" s="3">
-        <v>144300</v>
+        <v>147700</v>
       </c>
       <c r="I60" s="3">
-        <v>126900</v>
+        <v>129900</v>
       </c>
       <c r="J60" s="3">
-        <v>127300</v>
+        <v>130300</v>
       </c>
       <c r="K60" s="3">
         <v>66200</v>
@@ -2146,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I61" s="3">
-        <v>383900</v>
+        <v>393000</v>
       </c>
       <c r="J61" s="3">
-        <v>401400</v>
+        <v>410900</v>
       </c>
       <c r="K61" s="3">
         <v>392500</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>928300</v>
+        <v>950300</v>
       </c>
       <c r="E62" s="3">
-        <v>813100</v>
+        <v>832300</v>
       </c>
       <c r="F62" s="3">
-        <v>731300</v>
+        <v>748600</v>
       </c>
       <c r="G62" s="3">
-        <v>685600</v>
+        <v>701800</v>
       </c>
       <c r="H62" s="3">
-        <v>670200</v>
+        <v>686000</v>
       </c>
       <c r="I62" s="3">
-        <v>422900</v>
+        <v>432900</v>
       </c>
       <c r="J62" s="3">
-        <v>411700</v>
+        <v>421500</v>
       </c>
       <c r="K62" s="3">
         <v>407500</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1128900</v>
+        <v>1155600</v>
       </c>
       <c r="E66" s="3">
-        <v>1000300</v>
+        <v>1024000</v>
       </c>
       <c r="F66" s="3">
-        <v>893500</v>
+        <v>914600</v>
       </c>
       <c r="G66" s="3">
-        <v>853700</v>
+        <v>873800</v>
       </c>
       <c r="H66" s="3">
-        <v>814400</v>
+        <v>833600</v>
       </c>
       <c r="I66" s="3">
-        <v>933800</v>
+        <v>955900</v>
       </c>
       <c r="J66" s="3">
-        <v>940400</v>
+        <v>962600</v>
       </c>
       <c r="K66" s="3">
         <v>828600</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1336400</v>
+        <v>-1367900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1220900</v>
+        <v>-1249700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1387100</v>
+        <v>-1419800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1504900</v>
+        <v>-1540500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1418300</v>
+        <v>-1451800</v>
       </c>
       <c r="I72" s="3">
-        <v>-1445200</v>
+        <v>-1479300</v>
       </c>
       <c r="J72" s="3">
-        <v>-1420000</v>
+        <v>-1453500</v>
       </c>
       <c r="K72" s="3">
         <v>-587000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3486000</v>
+        <v>3568300</v>
       </c>
       <c r="E76" s="3">
-        <v>3633700</v>
+        <v>3719500</v>
       </c>
       <c r="F76" s="3">
-        <v>3434600</v>
+        <v>3515700</v>
       </c>
       <c r="G76" s="3">
-        <v>3316100</v>
+        <v>3394400</v>
       </c>
       <c r="H76" s="3">
-        <v>3416700</v>
+        <v>3497400</v>
       </c>
       <c r="I76" s="3">
-        <v>2242000</v>
+        <v>2295000</v>
       </c>
       <c r="J76" s="3">
-        <v>2197100</v>
+        <v>2249000</v>
       </c>
       <c r="K76" s="3">
         <v>2077900</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-85000</v>
+        <v>-87000</v>
       </c>
       <c r="E81" s="3">
-        <v>183800</v>
+        <v>188100</v>
       </c>
       <c r="F81" s="3">
-        <v>122500</v>
+        <v>125400</v>
       </c>
       <c r="G81" s="3">
-        <v>-92500</v>
+        <v>-94700</v>
       </c>
       <c r="H81" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="I81" s="3">
-        <v>-22800</v>
+        <v>-23300</v>
       </c>
       <c r="J81" s="3">
-        <v>-648500</v>
+        <v>-663800</v>
       </c>
       <c r="K81" s="3">
         <v>-216000</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>217800</v>
+        <v>222900</v>
       </c>
       <c r="E83" s="3">
-        <v>196000</v>
+        <v>200600</v>
       </c>
       <c r="F83" s="3">
-        <v>210300</v>
+        <v>215200</v>
       </c>
       <c r="G83" s="3">
-        <v>212300</v>
+        <v>217300</v>
       </c>
       <c r="H83" s="3">
-        <v>160100</v>
+        <v>163800</v>
       </c>
       <c r="I83" s="3">
-        <v>151600</v>
+        <v>155200</v>
       </c>
       <c r="J83" s="3">
-        <v>149700</v>
+        <v>153300</v>
       </c>
       <c r="K83" s="3">
         <v>154800</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>454300</v>
+        <v>465000</v>
       </c>
       <c r="E89" s="3">
-        <v>469500</v>
+        <v>480500</v>
       </c>
       <c r="F89" s="3">
-        <v>331800</v>
+        <v>339700</v>
       </c>
       <c r="G89" s="3">
-        <v>272600</v>
+        <v>279000</v>
       </c>
       <c r="H89" s="3">
-        <v>208300</v>
+        <v>213300</v>
       </c>
       <c r="I89" s="3">
-        <v>172900</v>
+        <v>177000</v>
       </c>
       <c r="J89" s="3">
-        <v>76500</v>
+        <v>78300</v>
       </c>
       <c r="K89" s="3">
         <v>98600</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-464200</v>
+        <v>-475200</v>
       </c>
       <c r="E91" s="3">
-        <v>-383400</v>
+        <v>-392500</v>
       </c>
       <c r="F91" s="3">
-        <v>-335900</v>
+        <v>-343800</v>
       </c>
       <c r="G91" s="3">
-        <v>-282300</v>
+        <v>-288900</v>
       </c>
       <c r="H91" s="3">
-        <v>-207100</v>
+        <v>-212000</v>
       </c>
       <c r="I91" s="3">
-        <v>-186700</v>
+        <v>-191100</v>
       </c>
       <c r="J91" s="3">
-        <v>-207800</v>
+        <v>-212700</v>
       </c>
       <c r="K91" s="3">
         <v>-481000</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-455100</v>
+        <v>-465800</v>
       </c>
       <c r="E94" s="3">
-        <v>-400300</v>
+        <v>-409700</v>
       </c>
       <c r="F94" s="3">
-        <v>-341000</v>
+        <v>-349100</v>
       </c>
       <c r="G94" s="3">
-        <v>-250500</v>
+        <v>-256400</v>
       </c>
       <c r="H94" s="3">
-        <v>-152200</v>
+        <v>-155700</v>
       </c>
       <c r="I94" s="3">
-        <v>-193100</v>
+        <v>-197600</v>
       </c>
       <c r="J94" s="3">
-        <v>124800</v>
+        <v>127700</v>
       </c>
       <c r="K94" s="3">
         <v>-192100</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-44000</v>
+        <v>-45000</v>
       </c>
       <c r="E96" s="3">
-        <v>-30500</v>
+        <v>-31200</v>
       </c>
       <c r="F96" s="3">
-        <v>-19900</v>
+        <v>-20300</v>
       </c>
       <c r="G96" s="3">
-        <v>-9900</v>
+        <v>-10200</v>
       </c>
       <c r="H96" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="I96" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="J96" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="K96" s="3">
         <v>-18300</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-60300</v>
+        <v>-61700</v>
       </c>
       <c r="E100" s="3">
-        <v>-19900</v>
+        <v>-20300</v>
       </c>
       <c r="F100" s="3">
-        <v>-21700</v>
+        <v>-22200</v>
       </c>
       <c r="G100" s="3">
-        <v>-11200</v>
+        <v>-11500</v>
       </c>
       <c r="H100" s="3">
-        <v>-124400</v>
+        <v>-127300</v>
       </c>
       <c r="I100" s="3">
-        <v>-16300</v>
+        <v>-16700</v>
       </c>
       <c r="J100" s="3">
-        <v>51500</v>
+        <v>52700</v>
       </c>
       <c r="K100" s="3">
         <v>27000</v>
@@ -3224,7 +3224,7 @@
         <v>1300</v>
       </c>
       <c r="G101" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H101" s="3">
         <v>2700</v>
@@ -3233,7 +3233,7 @@
         <v>-2700</v>
       </c>
       <c r="J101" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="K101" s="3">
         <v>-1900</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-61200</v>
+        <v>-62600</v>
       </c>
       <c r="E102" s="3">
-        <v>48000</v>
+        <v>49200</v>
       </c>
       <c r="F102" s="3">
-        <v>-29600</v>
+        <v>-30300</v>
       </c>
       <c r="G102" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="H102" s="3">
-        <v>-65500</v>
+        <v>-67000</v>
       </c>
       <c r="I102" s="3">
-        <v>-39100</v>
+        <v>-40000</v>
       </c>
       <c r="J102" s="3">
-        <v>247100</v>
+        <v>252900</v>
       </c>
       <c r="K102" s="3">
         <v>-68400</v>

--- a/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>AGI</t>
   </si>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1074300</v>
+        <v>1064400</v>
       </c>
       <c r="E8" s="3">
-        <v>975800</v>
+        <v>966800</v>
       </c>
       <c r="F8" s="3">
-        <v>891000</v>
+        <v>882800</v>
       </c>
       <c r="G8" s="3">
-        <v>850200</v>
+        <v>842400</v>
       </c>
       <c r="H8" s="3">
-        <v>708000</v>
+        <v>701500</v>
       </c>
       <c r="I8" s="3">
-        <v>629000</v>
+        <v>623200</v>
       </c>
       <c r="J8" s="3">
-        <v>463200</v>
+        <v>458900</v>
       </c>
       <c r="K8" s="3">
         <v>367200</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>473800</v>
+        <v>469400</v>
       </c>
       <c r="E9" s="3">
-        <v>421100</v>
+        <v>417200</v>
       </c>
       <c r="F9" s="3">
-        <v>464900</v>
+        <v>460600</v>
       </c>
       <c r="G9" s="3">
-        <v>533200</v>
+        <v>528300</v>
       </c>
       <c r="H9" s="3">
-        <v>432000</v>
+        <v>428000</v>
       </c>
       <c r="I9" s="3">
-        <v>404800</v>
+        <v>401000</v>
       </c>
       <c r="J9" s="3">
-        <v>347600</v>
+        <v>344400</v>
       </c>
       <c r="K9" s="3">
         <v>667900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>600500</v>
+        <v>595000</v>
       </c>
       <c r="E10" s="3">
-        <v>554800</v>
+        <v>549700</v>
       </c>
       <c r="F10" s="3">
-        <v>426100</v>
+        <v>422200</v>
       </c>
       <c r="G10" s="3">
-        <v>317000</v>
+        <v>314100</v>
       </c>
       <c r="H10" s="3">
-        <v>276000</v>
+        <v>273500</v>
       </c>
       <c r="I10" s="3">
-        <v>224200</v>
+        <v>222200</v>
       </c>
       <c r="J10" s="3">
-        <v>115600</v>
+        <v>114500</v>
       </c>
       <c r="K10" s="3">
         <v>-300700</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="E12" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="F12" s="3">
         <v>8700</v>
       </c>
       <c r="G12" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="H12" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="I12" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="J12" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="K12" s="3">
         <v>2500</v>
@@ -878,25 +878,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>293800</v>
+        <v>291000</v>
       </c>
       <c r="E14" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>83500</v>
+        <v>82700</v>
       </c>
       <c r="H14" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>586200</v>
+        <v>580800</v>
       </c>
       <c r="K14" s="3">
         <v>116700</v>
@@ -908,25 +908,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>222900</v>
+        <v>220900</v>
       </c>
       <c r="E15" s="3">
-        <v>199200</v>
+        <v>197300</v>
       </c>
       <c r="F15" s="3">
-        <v>215200</v>
+        <v>213200</v>
       </c>
       <c r="G15" s="3">
-        <v>217300</v>
+        <v>215300</v>
       </c>
       <c r="H15" s="3">
-        <v>163800</v>
+        <v>162300</v>
       </c>
       <c r="I15" s="3">
-        <v>155200</v>
+        <v>153800</v>
       </c>
       <c r="J15" s="3">
-        <v>153300</v>
+        <v>151900</v>
       </c>
       <c r="K15" s="3">
         <v>154800</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1056000</v>
+        <v>1046300</v>
       </c>
       <c r="E17" s="3">
-        <v>678900</v>
+        <v>672700</v>
       </c>
       <c r="F17" s="3">
-        <v>726700</v>
+        <v>720000</v>
       </c>
       <c r="G17" s="3">
-        <v>879700</v>
+        <v>871600</v>
       </c>
       <c r="H17" s="3">
-        <v>639900</v>
+        <v>634100</v>
       </c>
       <c r="I17" s="3">
-        <v>601200</v>
+        <v>595700</v>
       </c>
       <c r="J17" s="3">
-        <v>1131800</v>
+        <v>1121400</v>
       </c>
       <c r="K17" s="3">
         <v>556700</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="E18" s="3">
-        <v>296900</v>
+        <v>294200</v>
       </c>
       <c r="F18" s="3">
-        <v>164400</v>
+        <v>162800</v>
       </c>
       <c r="G18" s="3">
-        <v>-29500</v>
+        <v>-29200</v>
       </c>
       <c r="H18" s="3">
-        <v>68100</v>
+        <v>67500</v>
       </c>
       <c r="I18" s="3">
-        <v>27800</v>
+        <v>27500</v>
       </c>
       <c r="J18" s="3">
-        <v>-668600</v>
+        <v>-662500</v>
       </c>
       <c r="K18" s="3">
         <v>-189400</v>
@@ -1023,25 +1023,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="E20" s="3">
-        <v>-12000</v>
+        <v>-11900</v>
       </c>
       <c r="F20" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="G20" s="3">
-        <v>-20600</v>
+        <v>-20400</v>
       </c>
       <c r="H20" s="3">
-        <v>-39100</v>
+        <v>-38800</v>
       </c>
       <c r="I20" s="3">
-        <v>-37700</v>
+        <v>-37400</v>
       </c>
       <c r="J20" s="3">
-        <v>-60100</v>
+        <v>-59600</v>
       </c>
       <c r="K20" s="3">
         <v>-63600</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>225300</v>
+        <v>224800</v>
       </c>
       <c r="E21" s="3">
-        <v>484700</v>
+        <v>481700</v>
       </c>
       <c r="F21" s="3">
-        <v>382500</v>
+        <v>380900</v>
       </c>
       <c r="G21" s="3">
         <v>166400</v>
       </c>
       <c r="H21" s="3">
-        <v>192100</v>
+        <v>191500</v>
       </c>
       <c r="I21" s="3">
-        <v>144700</v>
+        <v>144500</v>
       </c>
       <c r="J21" s="3">
-        <v>-576100</v>
+        <v>-569700</v>
       </c>
       <c r="K21" s="3">
         <v>-97600</v>
@@ -1088,8 +1088,8 @@
       <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>17</v>
+      <c r="F22" s="3">
+        <v>400</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>17</v>
@@ -1116,22 +1116,22 @@
         <v>3000</v>
       </c>
       <c r="E23" s="3">
-        <v>284600</v>
+        <v>282000</v>
       </c>
       <c r="F23" s="3">
-        <v>168100</v>
+        <v>166600</v>
       </c>
       <c r="G23" s="3">
-        <v>-50100</v>
+        <v>-49600</v>
       </c>
       <c r="H23" s="3">
-        <v>29000</v>
+        <v>28700</v>
       </c>
       <c r="I23" s="3">
-        <v>-9900</v>
+        <v>-9800</v>
       </c>
       <c r="J23" s="3">
-        <v>-728800</v>
+        <v>-722100</v>
       </c>
       <c r="K23" s="3">
         <v>-253000</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>90000</v>
+        <v>89200</v>
       </c>
       <c r="E24" s="3">
-        <v>96500</v>
+        <v>95600</v>
       </c>
       <c r="F24" s="3">
-        <v>42800</v>
+        <v>42400</v>
       </c>
       <c r="G24" s="3">
-        <v>44600</v>
+        <v>44200</v>
       </c>
       <c r="H24" s="3">
         <v>-5700</v>
       </c>
       <c r="I24" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="J24" s="3">
-        <v>-65000</v>
+        <v>-64400</v>
       </c>
       <c r="K24" s="3">
         <v>-36900</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-87000</v>
+        <v>-86200</v>
       </c>
       <c r="E26" s="3">
-        <v>188100</v>
+        <v>186400</v>
       </c>
       <c r="F26" s="3">
-        <v>125400</v>
+        <v>124200</v>
       </c>
       <c r="G26" s="3">
-        <v>-94700</v>
+        <v>-93800</v>
       </c>
       <c r="H26" s="3">
-        <v>34700</v>
+        <v>34400</v>
       </c>
       <c r="I26" s="3">
-        <v>-23300</v>
+        <v>-23100</v>
       </c>
       <c r="J26" s="3">
-        <v>-663800</v>
+        <v>-657700</v>
       </c>
       <c r="K26" s="3">
         <v>-216000</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-87000</v>
+        <v>-86200</v>
       </c>
       <c r="E27" s="3">
-        <v>188100</v>
+        <v>186400</v>
       </c>
       <c r="F27" s="3">
-        <v>125400</v>
+        <v>124200</v>
       </c>
       <c r="G27" s="3">
-        <v>-94700</v>
+        <v>-93800</v>
       </c>
       <c r="H27" s="3">
-        <v>34700</v>
+        <v>34400</v>
       </c>
       <c r="I27" s="3">
-        <v>-23300</v>
+        <v>-23100</v>
       </c>
       <c r="J27" s="3">
-        <v>-663800</v>
+        <v>-657700</v>
       </c>
       <c r="K27" s="3">
         <v>-216000</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="E32" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="F32" s="3">
-        <v>-3800</v>
+        <v>-4100</v>
       </c>
       <c r="G32" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="H32" s="3">
-        <v>39100</v>
+        <v>38800</v>
       </c>
       <c r="I32" s="3">
-        <v>37700</v>
+        <v>37400</v>
       </c>
       <c r="J32" s="3">
-        <v>60100</v>
+        <v>59600</v>
       </c>
       <c r="K32" s="3">
         <v>63600</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-87000</v>
+        <v>-86200</v>
       </c>
       <c r="E33" s="3">
-        <v>188100</v>
+        <v>186400</v>
       </c>
       <c r="F33" s="3">
-        <v>125400</v>
+        <v>124200</v>
       </c>
       <c r="G33" s="3">
-        <v>-94700</v>
+        <v>-93800</v>
       </c>
       <c r="H33" s="3">
-        <v>34700</v>
+        <v>34400</v>
       </c>
       <c r="I33" s="3">
-        <v>-23300</v>
+        <v>-23100</v>
       </c>
       <c r="J33" s="3">
-        <v>-663800</v>
+        <v>-657700</v>
       </c>
       <c r="K33" s="3">
         <v>-216000</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-87000</v>
+        <v>-86200</v>
       </c>
       <c r="E35" s="3">
-        <v>188100</v>
+        <v>186400</v>
       </c>
       <c r="F35" s="3">
-        <v>125400</v>
+        <v>124200</v>
       </c>
       <c r="G35" s="3">
-        <v>-94700</v>
+        <v>-93800</v>
       </c>
       <c r="H35" s="3">
-        <v>34700</v>
+        <v>34400</v>
       </c>
       <c r="I35" s="3">
-        <v>-23300</v>
+        <v>-23100</v>
       </c>
       <c r="J35" s="3">
-        <v>-663800</v>
+        <v>-657700</v>
       </c>
       <c r="K35" s="3">
         <v>-216000</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>225000</v>
+        <v>222900</v>
       </c>
       <c r="E41" s="3">
-        <v>287600</v>
+        <v>285000</v>
       </c>
       <c r="F41" s="3">
-        <v>238400</v>
+        <v>236300</v>
       </c>
       <c r="G41" s="3">
-        <v>268700</v>
+        <v>266200</v>
       </c>
       <c r="H41" s="3">
-        <v>261900</v>
+        <v>259500</v>
       </c>
       <c r="I41" s="3">
-        <v>329000</v>
+        <v>325900</v>
       </c>
       <c r="J41" s="3">
-        <v>369000</v>
+        <v>365600</v>
       </c>
       <c r="K41" s="3">
         <v>226800</v>
@@ -1596,22 +1596,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="E42" s="3">
-        <v>57000</v>
+        <v>56500</v>
       </c>
       <c r="F42" s="3">
-        <v>29700</v>
+        <v>29500</v>
       </c>
       <c r="G42" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="H42" s="3">
-        <v>46700</v>
+        <v>46300</v>
       </c>
       <c r="I42" s="3">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="J42" s="3">
         <v>8700</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>51900</v>
+        <v>51400</v>
       </c>
       <c r="E43" s="3">
-        <v>45300</v>
+        <v>44800</v>
       </c>
       <c r="F43" s="3">
-        <v>54800</v>
+        <v>54300</v>
       </c>
       <c r="G43" s="3">
-        <v>62000</v>
+        <v>61400</v>
       </c>
       <c r="H43" s="3">
-        <v>53500</v>
+        <v>53000</v>
       </c>
       <c r="I43" s="3">
-        <v>58600</v>
+        <v>58000</v>
       </c>
       <c r="J43" s="3">
-        <v>76600</v>
+        <v>75900</v>
       </c>
       <c r="K43" s="3">
         <v>38400</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>259600</v>
+        <v>257200</v>
       </c>
       <c r="E44" s="3">
-        <v>193700</v>
+        <v>191900</v>
       </c>
       <c r="F44" s="3">
-        <v>165500</v>
+        <v>164000</v>
       </c>
       <c r="G44" s="3">
-        <v>143700</v>
+        <v>142400</v>
       </c>
       <c r="H44" s="3">
-        <v>210300</v>
+        <v>208300</v>
       </c>
       <c r="I44" s="3">
-        <v>171800</v>
+        <v>170200</v>
       </c>
       <c r="J44" s="3">
-        <v>164500</v>
+        <v>163000</v>
       </c>
       <c r="K44" s="3">
         <v>287100</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="E45" s="3">
-        <v>33900</v>
+        <v>33600</v>
       </c>
       <c r="F45" s="3">
-        <v>25800</v>
+        <v>25600</v>
       </c>
       <c r="G45" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="H45" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="I45" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="J45" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="K45" s="3">
         <v>4300</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>599200</v>
+        <v>593700</v>
       </c>
       <c r="E46" s="3">
-        <v>617500</v>
+        <v>611800</v>
       </c>
       <c r="F46" s="3">
-        <v>514300</v>
+        <v>509600</v>
       </c>
       <c r="G46" s="3">
-        <v>504800</v>
+        <v>500200</v>
       </c>
       <c r="H46" s="3">
-        <v>591200</v>
+        <v>585700</v>
       </c>
       <c r="I46" s="3">
-        <v>592800</v>
+        <v>587400</v>
       </c>
       <c r="J46" s="3">
-        <v>630300</v>
+        <v>624500</v>
       </c>
       <c r="K46" s="3">
         <v>234400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4054700</v>
+        <v>4017400</v>
       </c>
       <c r="E48" s="3">
-        <v>4045300</v>
+        <v>4008100</v>
       </c>
       <c r="F48" s="3">
-        <v>3826300</v>
+        <v>3791100</v>
       </c>
       <c r="G48" s="3">
-        <v>3669700</v>
+        <v>3635900</v>
       </c>
       <c r="H48" s="3">
-        <v>3591500</v>
+        <v>3558500</v>
       </c>
       <c r="I48" s="3">
-        <v>2502100</v>
+        <v>2479100</v>
       </c>
       <c r="J48" s="3">
-        <v>2425100</v>
+        <v>2402800</v>
       </c>
       <c r="K48" s="3">
         <v>2087400</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>69900</v>
+        <v>69300</v>
       </c>
       <c r="E52" s="3">
-        <v>80600</v>
+        <v>79900</v>
       </c>
       <c r="F52" s="3">
-        <v>89700</v>
+        <v>88900</v>
       </c>
       <c r="G52" s="3">
-        <v>93800</v>
+        <v>92900</v>
       </c>
       <c r="H52" s="3">
-        <v>148300</v>
+        <v>146900</v>
       </c>
       <c r="I52" s="3">
-        <v>155900</v>
+        <v>154400</v>
       </c>
       <c r="J52" s="3">
-        <v>156300</v>
+        <v>154800</v>
       </c>
       <c r="K52" s="3">
         <v>299500</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4723900</v>
+        <v>4680400</v>
       </c>
       <c r="E54" s="3">
-        <v>4743500</v>
+        <v>4699800</v>
       </c>
       <c r="F54" s="3">
-        <v>4430400</v>
+        <v>4389600</v>
       </c>
       <c r="G54" s="3">
-        <v>4268300</v>
+        <v>4229000</v>
       </c>
       <c r="H54" s="3">
-        <v>4331000</v>
+        <v>4291200</v>
       </c>
       <c r="I54" s="3">
-        <v>3250800</v>
+        <v>3220900</v>
       </c>
       <c r="J54" s="3">
-        <v>3211700</v>
+        <v>3182100</v>
       </c>
       <c r="K54" s="3">
         <v>2906600</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>179500</v>
+        <v>177800</v>
       </c>
       <c r="E57" s="3">
-        <v>153500</v>
+        <v>152100</v>
       </c>
       <c r="F57" s="3">
-        <v>154300</v>
+        <v>152900</v>
       </c>
       <c r="G57" s="3">
-        <v>289600</v>
+        <v>286900</v>
       </c>
       <c r="H57" s="3">
-        <v>113900</v>
+        <v>112800</v>
       </c>
       <c r="I57" s="3">
-        <v>106600</v>
+        <v>105600</v>
       </c>
       <c r="J57" s="3">
-        <v>109400</v>
+        <v>108400</v>
       </c>
       <c r="K57" s="3">
         <v>109400</v>
@@ -2047,22 +2047,22 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
       </c>
       <c r="G58" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="H58" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="I58" s="3">
         <v>4700</v>
       </c>
       <c r="J58" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="K58" s="3">
         <v>8000</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25300</v>
+        <v>25100</v>
       </c>
       <c r="E59" s="3">
-        <v>37400</v>
+        <v>37100</v>
       </c>
       <c r="F59" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="G59" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="H59" s="3">
-        <v>28300</v>
+        <v>28000</v>
       </c>
       <c r="I59" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="J59" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="K59" s="3">
         <v>7200</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>205300</v>
+        <v>203400</v>
       </c>
       <c r="E60" s="3">
-        <v>191600</v>
+        <v>189900</v>
       </c>
       <c r="F60" s="3">
-        <v>166100</v>
+        <v>164500</v>
       </c>
       <c r="G60" s="3">
-        <v>172100</v>
+        <v>170500</v>
       </c>
       <c r="H60" s="3">
-        <v>147700</v>
+        <v>146300</v>
       </c>
       <c r="I60" s="3">
-        <v>129900</v>
+        <v>128700</v>
       </c>
       <c r="J60" s="3">
-        <v>130300</v>
+        <v>129100</v>
       </c>
       <c r="K60" s="3">
         <v>66200</v>
@@ -2149,10 +2149,10 @@
         <v>4300</v>
       </c>
       <c r="I61" s="3">
-        <v>393000</v>
+        <v>389400</v>
       </c>
       <c r="J61" s="3">
-        <v>410900</v>
+        <v>407100</v>
       </c>
       <c r="K61" s="3">
         <v>392500</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>950300</v>
+        <v>941500</v>
       </c>
       <c r="E62" s="3">
-        <v>832300</v>
+        <v>824700</v>
       </c>
       <c r="F62" s="3">
-        <v>748600</v>
+        <v>741700</v>
       </c>
       <c r="G62" s="3">
-        <v>701800</v>
+        <v>695300</v>
       </c>
       <c r="H62" s="3">
-        <v>686000</v>
+        <v>679700</v>
       </c>
       <c r="I62" s="3">
-        <v>432900</v>
+        <v>428900</v>
       </c>
       <c r="J62" s="3">
-        <v>421500</v>
+        <v>417600</v>
       </c>
       <c r="K62" s="3">
         <v>407500</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1155600</v>
+        <v>1144900</v>
       </c>
       <c r="E66" s="3">
-        <v>1024000</v>
+        <v>1014500</v>
       </c>
       <c r="F66" s="3">
-        <v>914600</v>
+        <v>906200</v>
       </c>
       <c r="G66" s="3">
-        <v>873800</v>
+        <v>865800</v>
       </c>
       <c r="H66" s="3">
-        <v>833600</v>
+        <v>826000</v>
       </c>
       <c r="I66" s="3">
-        <v>955900</v>
+        <v>947100</v>
       </c>
       <c r="J66" s="3">
-        <v>962600</v>
+        <v>953800</v>
       </c>
       <c r="K66" s="3">
         <v>828600</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1367900</v>
+        <v>-1355300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1249700</v>
+        <v>-1238200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1419800</v>
+        <v>-1406800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1540500</v>
+        <v>-1526300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1451800</v>
+        <v>-1438400</v>
       </c>
       <c r="I72" s="3">
-        <v>-1479300</v>
+        <v>-1465700</v>
       </c>
       <c r="J72" s="3">
-        <v>-1453500</v>
+        <v>-1440100</v>
       </c>
       <c r="K72" s="3">
         <v>-587000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3568300</v>
+        <v>3535500</v>
       </c>
       <c r="E76" s="3">
-        <v>3719500</v>
+        <v>3685300</v>
       </c>
       <c r="F76" s="3">
-        <v>3515700</v>
+        <v>3483400</v>
       </c>
       <c r="G76" s="3">
-        <v>3394400</v>
+        <v>3363200</v>
       </c>
       <c r="H76" s="3">
-        <v>3497400</v>
+        <v>3465200</v>
       </c>
       <c r="I76" s="3">
-        <v>2295000</v>
+        <v>2273800</v>
       </c>
       <c r="J76" s="3">
-        <v>2249000</v>
+        <v>2228400</v>
       </c>
       <c r="K76" s="3">
         <v>2077900</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-87000</v>
+        <v>-86200</v>
       </c>
       <c r="E81" s="3">
-        <v>188100</v>
+        <v>186400</v>
       </c>
       <c r="F81" s="3">
-        <v>125400</v>
+        <v>124200</v>
       </c>
       <c r="G81" s="3">
-        <v>-94700</v>
+        <v>-93800</v>
       </c>
       <c r="H81" s="3">
-        <v>34700</v>
+        <v>34400</v>
       </c>
       <c r="I81" s="3">
-        <v>-23300</v>
+        <v>-23100</v>
       </c>
       <c r="J81" s="3">
-        <v>-663800</v>
+        <v>-657700</v>
       </c>
       <c r="K81" s="3">
         <v>-216000</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>222900</v>
+        <v>220900</v>
       </c>
       <c r="E83" s="3">
-        <v>200600</v>
+        <v>198800</v>
       </c>
       <c r="F83" s="3">
-        <v>215200</v>
+        <v>213200</v>
       </c>
       <c r="G83" s="3">
-        <v>217300</v>
+        <v>215300</v>
       </c>
       <c r="H83" s="3">
-        <v>163800</v>
+        <v>162300</v>
       </c>
       <c r="I83" s="3">
-        <v>155200</v>
+        <v>153800</v>
       </c>
       <c r="J83" s="3">
-        <v>153300</v>
+        <v>151900</v>
       </c>
       <c r="K83" s="3">
         <v>154800</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>465000</v>
+        <v>460700</v>
       </c>
       <c r="E89" s="3">
-        <v>480500</v>
+        <v>476100</v>
       </c>
       <c r="F89" s="3">
-        <v>339700</v>
+        <v>336500</v>
       </c>
       <c r="G89" s="3">
-        <v>279000</v>
+        <v>276400</v>
       </c>
       <c r="H89" s="3">
-        <v>213300</v>
+        <v>211300</v>
       </c>
       <c r="I89" s="3">
-        <v>177000</v>
+        <v>175400</v>
       </c>
       <c r="J89" s="3">
-        <v>78300</v>
+        <v>77500</v>
       </c>
       <c r="K89" s="3">
         <v>98600</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-475200</v>
+        <v>-470800</v>
       </c>
       <c r="E91" s="3">
-        <v>-392500</v>
+        <v>-388900</v>
       </c>
       <c r="F91" s="3">
-        <v>-343800</v>
+        <v>-340700</v>
       </c>
       <c r="G91" s="3">
-        <v>-288900</v>
+        <v>-286300</v>
       </c>
       <c r="H91" s="3">
-        <v>-212000</v>
+        <v>-210000</v>
       </c>
       <c r="I91" s="3">
-        <v>-191100</v>
+        <v>-189300</v>
       </c>
       <c r="J91" s="3">
-        <v>-212700</v>
+        <v>-210800</v>
       </c>
       <c r="K91" s="3">
         <v>-481000</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-465800</v>
+        <v>-461500</v>
       </c>
       <c r="E94" s="3">
-        <v>-409700</v>
+        <v>-405900</v>
       </c>
       <c r="F94" s="3">
-        <v>-349100</v>
+        <v>-345800</v>
       </c>
       <c r="G94" s="3">
-        <v>-256400</v>
+        <v>-254100</v>
       </c>
       <c r="H94" s="3">
-        <v>-155700</v>
+        <v>-154300</v>
       </c>
       <c r="I94" s="3">
-        <v>-197600</v>
+        <v>-195800</v>
       </c>
       <c r="J94" s="3">
-        <v>127700</v>
+        <v>126500</v>
       </c>
       <c r="K94" s="3">
         <v>-192100</v>
@@ -3065,16 +3065,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-45000</v>
+        <v>-44600</v>
       </c>
       <c r="E96" s="3">
-        <v>-31200</v>
+        <v>-30900</v>
       </c>
       <c r="F96" s="3">
-        <v>-20300</v>
+        <v>-20200</v>
       </c>
       <c r="G96" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="H96" s="3">
         <v>-7800</v>
@@ -3083,7 +3083,7 @@
         <v>-7000</v>
       </c>
       <c r="J96" s="3">
-        <v>-13800</v>
+        <v>-13700</v>
       </c>
       <c r="K96" s="3">
         <v>-18300</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-61700</v>
+        <v>-61100</v>
       </c>
       <c r="E100" s="3">
-        <v>-20300</v>
+        <v>-20200</v>
       </c>
       <c r="F100" s="3">
-        <v>-22200</v>
+        <v>-22000</v>
       </c>
       <c r="G100" s="3">
-        <v>-11500</v>
+        <v>-11400</v>
       </c>
       <c r="H100" s="3">
-        <v>-127300</v>
+        <v>-126100</v>
       </c>
       <c r="I100" s="3">
-        <v>-16700</v>
+        <v>-16500</v>
       </c>
       <c r="J100" s="3">
-        <v>52700</v>
+        <v>52200</v>
       </c>
       <c r="K100" s="3">
         <v>27000</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-62600</v>
+        <v>-62000</v>
       </c>
       <c r="E102" s="3">
-        <v>49200</v>
+        <v>48700</v>
       </c>
       <c r="F102" s="3">
-        <v>-30300</v>
+        <v>-30000</v>
       </c>
       <c r="G102" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="H102" s="3">
-        <v>-67000</v>
+        <v>-66400</v>
       </c>
       <c r="I102" s="3">
-        <v>-40000</v>
+        <v>-39700</v>
       </c>
       <c r="J102" s="3">
-        <v>252900</v>
+        <v>250600</v>
       </c>
       <c r="K102" s="3">
         <v>-68400</v>

--- a/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1064400</v>
+        <v>1096900</v>
       </c>
       <c r="E8" s="3">
-        <v>966800</v>
+        <v>996300</v>
       </c>
       <c r="F8" s="3">
-        <v>882800</v>
+        <v>909800</v>
       </c>
       <c r="G8" s="3">
-        <v>842400</v>
+        <v>868100</v>
       </c>
       <c r="H8" s="3">
-        <v>701500</v>
+        <v>722900</v>
       </c>
       <c r="I8" s="3">
-        <v>623200</v>
+        <v>642200</v>
       </c>
       <c r="J8" s="3">
-        <v>458900</v>
+        <v>472900</v>
       </c>
       <c r="K8" s="3">
         <v>367200</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>469400</v>
+        <v>483700</v>
       </c>
       <c r="E9" s="3">
-        <v>417200</v>
+        <v>429900</v>
       </c>
       <c r="F9" s="3">
-        <v>460600</v>
+        <v>474700</v>
       </c>
       <c r="G9" s="3">
-        <v>528300</v>
+        <v>544400</v>
       </c>
       <c r="H9" s="3">
-        <v>428000</v>
+        <v>441100</v>
       </c>
       <c r="I9" s="3">
-        <v>401000</v>
+        <v>413300</v>
       </c>
       <c r="J9" s="3">
-        <v>344400</v>
+        <v>354900</v>
       </c>
       <c r="K9" s="3">
         <v>667900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>595000</v>
+        <v>613200</v>
       </c>
       <c r="E10" s="3">
-        <v>549700</v>
+        <v>566400</v>
       </c>
       <c r="F10" s="3">
-        <v>422200</v>
+        <v>435100</v>
       </c>
       <c r="G10" s="3">
-        <v>314100</v>
+        <v>323600</v>
       </c>
       <c r="H10" s="3">
-        <v>273500</v>
+        <v>281800</v>
       </c>
       <c r="I10" s="3">
-        <v>222200</v>
+        <v>228900</v>
       </c>
       <c r="J10" s="3">
-        <v>114500</v>
+        <v>118000</v>
       </c>
       <c r="K10" s="3">
         <v>-300700</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19000</v>
+        <v>19600</v>
       </c>
       <c r="E12" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="F12" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="G12" s="3">
-        <v>14200</v>
+        <v>14600</v>
       </c>
       <c r="H12" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="I12" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="J12" s="3">
-        <v>12100</v>
+        <v>12500</v>
       </c>
       <c r="K12" s="3">
         <v>2500</v>
@@ -878,25 +878,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>291000</v>
+        <v>299900</v>
       </c>
       <c r="E14" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>82700</v>
+        <v>85200</v>
       </c>
       <c r="H14" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>580800</v>
+        <v>598500</v>
       </c>
       <c r="K14" s="3">
         <v>116700</v>
@@ -908,25 +908,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>220900</v>
+        <v>227600</v>
       </c>
       <c r="E15" s="3">
-        <v>197300</v>
+        <v>203400</v>
       </c>
       <c r="F15" s="3">
-        <v>213200</v>
+        <v>219700</v>
       </c>
       <c r="G15" s="3">
-        <v>215300</v>
+        <v>221900</v>
       </c>
       <c r="H15" s="3">
-        <v>162300</v>
+        <v>167300</v>
       </c>
       <c r="I15" s="3">
-        <v>153800</v>
+        <v>158500</v>
       </c>
       <c r="J15" s="3">
-        <v>151900</v>
+        <v>156500</v>
       </c>
       <c r="K15" s="3">
         <v>154800</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1046300</v>
+        <v>1078200</v>
       </c>
       <c r="E17" s="3">
-        <v>672700</v>
+        <v>693200</v>
       </c>
       <c r="F17" s="3">
-        <v>720000</v>
+        <v>741900</v>
       </c>
       <c r="G17" s="3">
-        <v>871600</v>
+        <v>898200</v>
       </c>
       <c r="H17" s="3">
-        <v>634100</v>
+        <v>653400</v>
       </c>
       <c r="I17" s="3">
-        <v>595700</v>
+        <v>613800</v>
       </c>
       <c r="J17" s="3">
-        <v>1121400</v>
+        <v>1155600</v>
       </c>
       <c r="K17" s="3">
         <v>556700</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>18100</v>
+        <v>18600</v>
       </c>
       <c r="E18" s="3">
-        <v>294200</v>
+        <v>303100</v>
       </c>
       <c r="F18" s="3">
-        <v>162800</v>
+        <v>167800</v>
       </c>
       <c r="G18" s="3">
-        <v>-29200</v>
+        <v>-30100</v>
       </c>
       <c r="H18" s="3">
-        <v>67500</v>
+        <v>69500</v>
       </c>
       <c r="I18" s="3">
-        <v>27500</v>
+        <v>28400</v>
       </c>
       <c r="J18" s="3">
-        <v>-662500</v>
+        <v>-682700</v>
       </c>
       <c r="K18" s="3">
         <v>-189400</v>
@@ -1023,25 +1023,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-14900</v>
+        <v>-15300</v>
       </c>
       <c r="E20" s="3">
-        <v>-11900</v>
+        <v>-12300</v>
       </c>
       <c r="F20" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="G20" s="3">
-        <v>-20400</v>
+        <v>-21000</v>
       </c>
       <c r="H20" s="3">
-        <v>-38800</v>
+        <v>-40000</v>
       </c>
       <c r="I20" s="3">
-        <v>-37400</v>
+        <v>-38500</v>
       </c>
       <c r="J20" s="3">
-        <v>-59600</v>
+        <v>-61400</v>
       </c>
       <c r="K20" s="3">
         <v>-63600</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>224800</v>
+        <v>234500</v>
       </c>
       <c r="E21" s="3">
-        <v>481700</v>
+        <v>498900</v>
       </c>
       <c r="F21" s="3">
-        <v>380900</v>
+        <v>395200</v>
       </c>
       <c r="G21" s="3">
-        <v>166400</v>
+        <v>174200</v>
       </c>
       <c r="H21" s="3">
-        <v>191500</v>
+        <v>199500</v>
       </c>
       <c r="I21" s="3">
-        <v>144500</v>
+        <v>150800</v>
       </c>
       <c r="J21" s="3">
-        <v>-569700</v>
+        <v>-585100</v>
       </c>
       <c r="K21" s="3">
         <v>-97600</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E23" s="3">
-        <v>282000</v>
+        <v>290600</v>
       </c>
       <c r="F23" s="3">
-        <v>166600</v>
+        <v>171700</v>
       </c>
       <c r="G23" s="3">
-        <v>-49600</v>
+        <v>-51100</v>
       </c>
       <c r="H23" s="3">
-        <v>28700</v>
+        <v>29600</v>
       </c>
       <c r="I23" s="3">
-        <v>-9800</v>
+        <v>-10100</v>
       </c>
       <c r="J23" s="3">
-        <v>-722100</v>
+        <v>-744100</v>
       </c>
       <c r="K23" s="3">
         <v>-253000</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>89200</v>
+        <v>91900</v>
       </c>
       <c r="E24" s="3">
-        <v>95600</v>
+        <v>98600</v>
       </c>
       <c r="F24" s="3">
-        <v>42400</v>
+        <v>43700</v>
       </c>
       <c r="G24" s="3">
-        <v>44200</v>
+        <v>45500</v>
       </c>
       <c r="H24" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="I24" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="J24" s="3">
-        <v>-64400</v>
+        <v>-66300</v>
       </c>
       <c r="K24" s="3">
         <v>-36900</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-86200</v>
+        <v>-88800</v>
       </c>
       <c r="E26" s="3">
-        <v>186400</v>
+        <v>192000</v>
       </c>
       <c r="F26" s="3">
-        <v>124200</v>
+        <v>128000</v>
       </c>
       <c r="G26" s="3">
-        <v>-93800</v>
+        <v>-96700</v>
       </c>
       <c r="H26" s="3">
-        <v>34400</v>
+        <v>35400</v>
       </c>
       <c r="I26" s="3">
-        <v>-23100</v>
+        <v>-23800</v>
       </c>
       <c r="J26" s="3">
-        <v>-657700</v>
+        <v>-677800</v>
       </c>
       <c r="K26" s="3">
         <v>-216000</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-86200</v>
+        <v>-88800</v>
       </c>
       <c r="E27" s="3">
-        <v>186400</v>
+        <v>192000</v>
       </c>
       <c r="F27" s="3">
-        <v>124200</v>
+        <v>128000</v>
       </c>
       <c r="G27" s="3">
-        <v>-93800</v>
+        <v>-96700</v>
       </c>
       <c r="H27" s="3">
-        <v>34400</v>
+        <v>35400</v>
       </c>
       <c r="I27" s="3">
-        <v>-23100</v>
+        <v>-23800</v>
       </c>
       <c r="J27" s="3">
-        <v>-657700</v>
+        <v>-677800</v>
       </c>
       <c r="K27" s="3">
         <v>-216000</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14900</v>
+        <v>15300</v>
       </c>
       <c r="E32" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="F32" s="3">
-        <v>-4100</v>
+        <v>-4300</v>
       </c>
       <c r="G32" s="3">
-        <v>20400</v>
+        <v>21000</v>
       </c>
       <c r="H32" s="3">
-        <v>38800</v>
+        <v>40000</v>
       </c>
       <c r="I32" s="3">
-        <v>37400</v>
+        <v>38500</v>
       </c>
       <c r="J32" s="3">
-        <v>59600</v>
+        <v>61400</v>
       </c>
       <c r="K32" s="3">
         <v>63600</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-86200</v>
+        <v>-88800</v>
       </c>
       <c r="E33" s="3">
-        <v>186400</v>
+        <v>192000</v>
       </c>
       <c r="F33" s="3">
-        <v>124200</v>
+        <v>128000</v>
       </c>
       <c r="G33" s="3">
-        <v>-93800</v>
+        <v>-96700</v>
       </c>
       <c r="H33" s="3">
-        <v>34400</v>
+        <v>35400</v>
       </c>
       <c r="I33" s="3">
-        <v>-23100</v>
+        <v>-23800</v>
       </c>
       <c r="J33" s="3">
-        <v>-657700</v>
+        <v>-677800</v>
       </c>
       <c r="K33" s="3">
         <v>-216000</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-86200</v>
+        <v>-88800</v>
       </c>
       <c r="E35" s="3">
-        <v>186400</v>
+        <v>192000</v>
       </c>
       <c r="F35" s="3">
-        <v>124200</v>
+        <v>128000</v>
       </c>
       <c r="G35" s="3">
-        <v>-93800</v>
+        <v>-96700</v>
       </c>
       <c r="H35" s="3">
-        <v>34400</v>
+        <v>35400</v>
       </c>
       <c r="I35" s="3">
-        <v>-23100</v>
+        <v>-23800</v>
       </c>
       <c r="J35" s="3">
-        <v>-657700</v>
+        <v>-677800</v>
       </c>
       <c r="K35" s="3">
         <v>-216000</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>222900</v>
+        <v>229700</v>
       </c>
       <c r="E41" s="3">
-        <v>285000</v>
+        <v>293700</v>
       </c>
       <c r="F41" s="3">
-        <v>236300</v>
+        <v>243500</v>
       </c>
       <c r="G41" s="3">
-        <v>266200</v>
+        <v>274400</v>
       </c>
       <c r="H41" s="3">
-        <v>259500</v>
+        <v>267400</v>
       </c>
       <c r="I41" s="3">
-        <v>325900</v>
+        <v>335900</v>
       </c>
       <c r="J41" s="3">
-        <v>365600</v>
+        <v>376800</v>
       </c>
       <c r="K41" s="3">
         <v>226800</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30900</v>
+        <v>31800</v>
       </c>
       <c r="E42" s="3">
-        <v>56500</v>
+        <v>58200</v>
       </c>
       <c r="F42" s="3">
-        <v>29500</v>
+        <v>30400</v>
       </c>
       <c r="G42" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="H42" s="3">
-        <v>46300</v>
+        <v>47700</v>
       </c>
       <c r="I42" s="3">
-        <v>18200</v>
+        <v>18800</v>
       </c>
       <c r="J42" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>51400</v>
+        <v>53000</v>
       </c>
       <c r="E43" s="3">
-        <v>44800</v>
+        <v>46200</v>
       </c>
       <c r="F43" s="3">
-        <v>54300</v>
+        <v>55900</v>
       </c>
       <c r="G43" s="3">
-        <v>61400</v>
+        <v>63300</v>
       </c>
       <c r="H43" s="3">
-        <v>53000</v>
+        <v>54600</v>
       </c>
       <c r="I43" s="3">
-        <v>58000</v>
+        <v>59800</v>
       </c>
       <c r="J43" s="3">
-        <v>75900</v>
+        <v>78200</v>
       </c>
       <c r="K43" s="3">
         <v>38400</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>257200</v>
+        <v>265000</v>
       </c>
       <c r="E44" s="3">
-        <v>191900</v>
+        <v>197800</v>
       </c>
       <c r="F44" s="3">
-        <v>164000</v>
+        <v>169000</v>
       </c>
       <c r="G44" s="3">
-        <v>142400</v>
+        <v>146800</v>
       </c>
       <c r="H44" s="3">
-        <v>208300</v>
+        <v>214700</v>
       </c>
       <c r="I44" s="3">
-        <v>170200</v>
+        <v>175400</v>
       </c>
       <c r="J44" s="3">
-        <v>163000</v>
+        <v>167900</v>
       </c>
       <c r="K44" s="3">
         <v>287100</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31300</v>
+        <v>32200</v>
       </c>
       <c r="E45" s="3">
-        <v>33600</v>
+        <v>34600</v>
       </c>
       <c r="F45" s="3">
-        <v>25600</v>
+        <v>26400</v>
       </c>
       <c r="G45" s="3">
-        <v>20000</v>
+        <v>20600</v>
       </c>
       <c r="H45" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="I45" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="J45" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="K45" s="3">
         <v>4300</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>593700</v>
+        <v>611800</v>
       </c>
       <c r="E46" s="3">
-        <v>611800</v>
+        <v>630500</v>
       </c>
       <c r="F46" s="3">
-        <v>509600</v>
+        <v>525100</v>
       </c>
       <c r="G46" s="3">
-        <v>500200</v>
+        <v>515400</v>
       </c>
       <c r="H46" s="3">
-        <v>585700</v>
+        <v>603600</v>
       </c>
       <c r="I46" s="3">
-        <v>587400</v>
+        <v>605300</v>
       </c>
       <c r="J46" s="3">
-        <v>624500</v>
+        <v>643500</v>
       </c>
       <c r="K46" s="3">
         <v>234400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4017400</v>
+        <v>4139900</v>
       </c>
       <c r="E48" s="3">
-        <v>4008100</v>
+        <v>4130300</v>
       </c>
       <c r="F48" s="3">
-        <v>3791100</v>
+        <v>3906700</v>
       </c>
       <c r="G48" s="3">
-        <v>3635900</v>
+        <v>3746800</v>
       </c>
       <c r="H48" s="3">
-        <v>3558500</v>
+        <v>3667000</v>
       </c>
       <c r="I48" s="3">
-        <v>2479100</v>
+        <v>2554700</v>
       </c>
       <c r="J48" s="3">
-        <v>2402800</v>
+        <v>2476100</v>
       </c>
       <c r="K48" s="3">
         <v>2087400</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>69300</v>
+        <v>71400</v>
       </c>
       <c r="E52" s="3">
-        <v>79900</v>
+        <v>82300</v>
       </c>
       <c r="F52" s="3">
-        <v>88900</v>
+        <v>91600</v>
       </c>
       <c r="G52" s="3">
-        <v>92900</v>
+        <v>95800</v>
       </c>
       <c r="H52" s="3">
-        <v>146900</v>
+        <v>151400</v>
       </c>
       <c r="I52" s="3">
-        <v>154400</v>
+        <v>159200</v>
       </c>
       <c r="J52" s="3">
-        <v>154800</v>
+        <v>159500</v>
       </c>
       <c r="K52" s="3">
         <v>299500</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4680400</v>
+        <v>4823100</v>
       </c>
       <c r="E54" s="3">
-        <v>4699800</v>
+        <v>4843100</v>
       </c>
       <c r="F54" s="3">
-        <v>4389600</v>
+        <v>4523500</v>
       </c>
       <c r="G54" s="3">
-        <v>4229000</v>
+        <v>4357900</v>
       </c>
       <c r="H54" s="3">
-        <v>4291200</v>
+        <v>4422000</v>
       </c>
       <c r="I54" s="3">
-        <v>3220900</v>
+        <v>3319100</v>
       </c>
       <c r="J54" s="3">
-        <v>3182100</v>
+        <v>3279200</v>
       </c>
       <c r="K54" s="3">
         <v>2906600</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>177800</v>
+        <v>183300</v>
       </c>
       <c r="E57" s="3">
-        <v>152100</v>
+        <v>156800</v>
       </c>
       <c r="F57" s="3">
-        <v>152900</v>
+        <v>157600</v>
       </c>
       <c r="G57" s="3">
-        <v>286900</v>
+        <v>295700</v>
       </c>
       <c r="H57" s="3">
-        <v>112800</v>
+        <v>116300</v>
       </c>
       <c r="I57" s="3">
-        <v>105600</v>
+        <v>108800</v>
       </c>
       <c r="J57" s="3">
-        <v>108400</v>
+        <v>111700</v>
       </c>
       <c r="K57" s="3">
         <v>109400</v>
@@ -2047,22 +2047,22 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G58" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="H58" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="I58" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="J58" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="K58" s="3">
         <v>8000</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25100</v>
+        <v>25800</v>
       </c>
       <c r="E59" s="3">
-        <v>37100</v>
+        <v>38200</v>
       </c>
       <c r="F59" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="G59" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="H59" s="3">
-        <v>28000</v>
+        <v>28900</v>
       </c>
       <c r="I59" s="3">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="J59" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="K59" s="3">
         <v>7200</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>203400</v>
+        <v>209600</v>
       </c>
       <c r="E60" s="3">
-        <v>189900</v>
+        <v>195600</v>
       </c>
       <c r="F60" s="3">
-        <v>164500</v>
+        <v>169500</v>
       </c>
       <c r="G60" s="3">
-        <v>170500</v>
+        <v>175700</v>
       </c>
       <c r="H60" s="3">
-        <v>146300</v>
+        <v>150800</v>
       </c>
       <c r="I60" s="3">
-        <v>128700</v>
+        <v>132600</v>
       </c>
       <c r="J60" s="3">
-        <v>129100</v>
+        <v>133000</v>
       </c>
       <c r="K60" s="3">
         <v>66200</v>
@@ -2146,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="I61" s="3">
-        <v>389400</v>
+        <v>401300</v>
       </c>
       <c r="J61" s="3">
-        <v>407100</v>
+        <v>419500</v>
       </c>
       <c r="K61" s="3">
         <v>392500</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>941500</v>
+        <v>970200</v>
       </c>
       <c r="E62" s="3">
-        <v>824700</v>
+        <v>849800</v>
       </c>
       <c r="F62" s="3">
-        <v>741700</v>
+        <v>764300</v>
       </c>
       <c r="G62" s="3">
-        <v>695300</v>
+        <v>716500</v>
       </c>
       <c r="H62" s="3">
-        <v>679700</v>
+        <v>700400</v>
       </c>
       <c r="I62" s="3">
-        <v>428900</v>
+        <v>442000</v>
       </c>
       <c r="J62" s="3">
-        <v>417600</v>
+        <v>430300</v>
       </c>
       <c r="K62" s="3">
         <v>407500</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1144900</v>
+        <v>1179800</v>
       </c>
       <c r="E66" s="3">
-        <v>1014500</v>
+        <v>1045500</v>
       </c>
       <c r="F66" s="3">
-        <v>906200</v>
+        <v>933900</v>
       </c>
       <c r="G66" s="3">
-        <v>865800</v>
+        <v>892200</v>
       </c>
       <c r="H66" s="3">
-        <v>826000</v>
+        <v>851200</v>
       </c>
       <c r="I66" s="3">
-        <v>947100</v>
+        <v>975900</v>
       </c>
       <c r="J66" s="3">
-        <v>953800</v>
+        <v>982900</v>
       </c>
       <c r="K66" s="3">
         <v>828600</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1355300</v>
+        <v>-1396700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1238200</v>
+        <v>-1276000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1406800</v>
+        <v>-1449700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1526300</v>
+        <v>-1572900</v>
       </c>
       <c r="H72" s="3">
-        <v>-1438400</v>
+        <v>-1482300</v>
       </c>
       <c r="I72" s="3">
-        <v>-1465700</v>
+        <v>-1510400</v>
       </c>
       <c r="J72" s="3">
-        <v>-1440100</v>
+        <v>-1484000</v>
       </c>
       <c r="K72" s="3">
         <v>-587000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3535500</v>
+        <v>3643300</v>
       </c>
       <c r="E76" s="3">
-        <v>3685300</v>
+        <v>3797600</v>
       </c>
       <c r="F76" s="3">
-        <v>3483400</v>
+        <v>3589600</v>
       </c>
       <c r="G76" s="3">
-        <v>3363200</v>
+        <v>3465700</v>
       </c>
       <c r="H76" s="3">
-        <v>3465200</v>
+        <v>3570800</v>
       </c>
       <c r="I76" s="3">
-        <v>2273800</v>
+        <v>2343200</v>
       </c>
       <c r="J76" s="3">
-        <v>2228400</v>
+        <v>2296300</v>
       </c>
       <c r="K76" s="3">
         <v>2077900</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-86200</v>
+        <v>-88800</v>
       </c>
       <c r="E81" s="3">
-        <v>186400</v>
+        <v>192000</v>
       </c>
       <c r="F81" s="3">
-        <v>124200</v>
+        <v>128000</v>
       </c>
       <c r="G81" s="3">
-        <v>-93800</v>
+        <v>-96700</v>
       </c>
       <c r="H81" s="3">
-        <v>34400</v>
+        <v>35400</v>
       </c>
       <c r="I81" s="3">
-        <v>-23100</v>
+        <v>-23800</v>
       </c>
       <c r="J81" s="3">
-        <v>-657700</v>
+        <v>-677800</v>
       </c>
       <c r="K81" s="3">
         <v>-216000</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>220900</v>
+        <v>227600</v>
       </c>
       <c r="E83" s="3">
-        <v>198800</v>
+        <v>204800</v>
       </c>
       <c r="F83" s="3">
-        <v>213200</v>
+        <v>219700</v>
       </c>
       <c r="G83" s="3">
-        <v>215300</v>
+        <v>221900</v>
       </c>
       <c r="H83" s="3">
-        <v>162300</v>
+        <v>167300</v>
       </c>
       <c r="I83" s="3">
-        <v>153800</v>
+        <v>158500</v>
       </c>
       <c r="J83" s="3">
-        <v>151900</v>
+        <v>156500</v>
       </c>
       <c r="K83" s="3">
         <v>154800</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>460700</v>
+        <v>474800</v>
       </c>
       <c r="E89" s="3">
-        <v>476100</v>
+        <v>490600</v>
       </c>
       <c r="F89" s="3">
-        <v>336500</v>
+        <v>346800</v>
       </c>
       <c r="G89" s="3">
-        <v>276400</v>
+        <v>284900</v>
       </c>
       <c r="H89" s="3">
-        <v>211300</v>
+        <v>217700</v>
       </c>
       <c r="I89" s="3">
-        <v>175400</v>
+        <v>180700</v>
       </c>
       <c r="J89" s="3">
-        <v>77500</v>
+        <v>79900</v>
       </c>
       <c r="K89" s="3">
         <v>98600</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-470800</v>
+        <v>-485200</v>
       </c>
       <c r="E91" s="3">
-        <v>-388900</v>
+        <v>-400700</v>
       </c>
       <c r="F91" s="3">
-        <v>-340700</v>
+        <v>-351100</v>
       </c>
       <c r="G91" s="3">
-        <v>-286300</v>
+        <v>-295000</v>
       </c>
       <c r="H91" s="3">
-        <v>-210000</v>
+        <v>-216400</v>
       </c>
       <c r="I91" s="3">
-        <v>-189300</v>
+        <v>-195100</v>
       </c>
       <c r="J91" s="3">
-        <v>-210800</v>
+        <v>-217200</v>
       </c>
       <c r="K91" s="3">
         <v>-481000</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-461500</v>
+        <v>-475600</v>
       </c>
       <c r="E94" s="3">
-        <v>-405900</v>
+        <v>-418300</v>
       </c>
       <c r="F94" s="3">
-        <v>-345800</v>
+        <v>-356400</v>
       </c>
       <c r="G94" s="3">
-        <v>-254100</v>
+        <v>-261800</v>
       </c>
       <c r="H94" s="3">
-        <v>-154300</v>
+        <v>-159000</v>
       </c>
       <c r="I94" s="3">
-        <v>-195800</v>
+        <v>-201800</v>
       </c>
       <c r="J94" s="3">
-        <v>126500</v>
+        <v>130400</v>
       </c>
       <c r="K94" s="3">
         <v>-192100</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-44600</v>
+        <v>-45900</v>
       </c>
       <c r="E96" s="3">
-        <v>-30900</v>
+        <v>-31800</v>
       </c>
       <c r="F96" s="3">
-        <v>-20200</v>
+        <v>-20800</v>
       </c>
       <c r="G96" s="3">
-        <v>-10100</v>
+        <v>-10400</v>
       </c>
       <c r="H96" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="I96" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="J96" s="3">
-        <v>-13700</v>
+        <v>-14100</v>
       </c>
       <c r="K96" s="3">
         <v>-18300</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-61100</v>
+        <v>-63000</v>
       </c>
       <c r="E100" s="3">
-        <v>-20200</v>
+        <v>-20800</v>
       </c>
       <c r="F100" s="3">
-        <v>-22000</v>
+        <v>-22600</v>
       </c>
       <c r="G100" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="H100" s="3">
-        <v>-126100</v>
+        <v>-130000</v>
       </c>
       <c r="I100" s="3">
-        <v>-16500</v>
+        <v>-17000</v>
       </c>
       <c r="J100" s="3">
-        <v>52200</v>
+        <v>53800</v>
       </c>
       <c r="K100" s="3">
         <v>27000</v>
@@ -3224,16 +3224,16 @@
         <v>1300</v>
       </c>
       <c r="G101" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H101" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I101" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="J101" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="K101" s="3">
         <v>-1900</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-62000</v>
+        <v>-63900</v>
       </c>
       <c r="E102" s="3">
-        <v>48700</v>
+        <v>50200</v>
       </c>
       <c r="F102" s="3">
-        <v>-30000</v>
+        <v>-30900</v>
       </c>
       <c r="G102" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="H102" s="3">
-        <v>-66400</v>
+        <v>-68500</v>
       </c>
       <c r="I102" s="3">
-        <v>-39700</v>
+        <v>-40900</v>
       </c>
       <c r="J102" s="3">
-        <v>250600</v>
+        <v>258200</v>
       </c>
       <c r="K102" s="3">
         <v>-68400</v>

--- a/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1096900</v>
+        <v>1135500</v>
       </c>
       <c r="E8" s="3">
-        <v>996300</v>
+        <v>1138800</v>
       </c>
       <c r="F8" s="3">
-        <v>909800</v>
+        <v>1034400</v>
       </c>
       <c r="G8" s="3">
-        <v>868100</v>
+        <v>944500</v>
       </c>
       <c r="H8" s="3">
-        <v>722900</v>
+        <v>901200</v>
       </c>
       <c r="I8" s="3">
-        <v>642200</v>
+        <v>750500</v>
       </c>
       <c r="J8" s="3">
+        <v>666700</v>
+      </c>
+      <c r="K8" s="3">
         <v>472900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>367200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>483700</v>
+        <v>557900</v>
       </c>
       <c r="E9" s="3">
-        <v>429900</v>
+        <v>502200</v>
       </c>
       <c r="F9" s="3">
-        <v>474700</v>
+        <v>446300</v>
       </c>
       <c r="G9" s="3">
-        <v>544400</v>
+        <v>492800</v>
       </c>
       <c r="H9" s="3">
-        <v>441100</v>
+        <v>565200</v>
       </c>
       <c r="I9" s="3">
-        <v>413300</v>
+        <v>458000</v>
       </c>
       <c r="J9" s="3">
+        <v>429100</v>
+      </c>
+      <c r="K9" s="3">
         <v>354900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>667900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>613200</v>
+        <v>577600</v>
       </c>
       <c r="E10" s="3">
-        <v>566400</v>
+        <v>636600</v>
       </c>
       <c r="F10" s="3">
-        <v>435100</v>
+        <v>588100</v>
       </c>
       <c r="G10" s="3">
-        <v>323600</v>
+        <v>451700</v>
       </c>
       <c r="H10" s="3">
-        <v>281800</v>
+        <v>336000</v>
       </c>
       <c r="I10" s="3">
-        <v>228900</v>
+        <v>292600</v>
       </c>
       <c r="J10" s="3">
+        <v>237700</v>
+      </c>
+      <c r="K10" s="3">
         <v>118000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-300700</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19600</v>
+        <v>25400</v>
       </c>
       <c r="E12" s="3">
-        <v>9600</v>
+        <v>20300</v>
       </c>
       <c r="F12" s="3">
-        <v>8900</v>
+        <v>10000</v>
       </c>
       <c r="G12" s="3">
-        <v>14600</v>
+        <v>9300</v>
       </c>
       <c r="H12" s="3">
-        <v>11100</v>
+        <v>15200</v>
       </c>
       <c r="I12" s="3">
-        <v>6800</v>
+        <v>11500</v>
       </c>
       <c r="J12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K12" s="3">
         <v>12500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>299900</v>
+        <v>99700</v>
       </c>
       <c r="E14" s="3">
-        <v>8700</v>
+        <v>311400</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="G14" s="3">
-        <v>85200</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>5100</v>
+        <v>88500</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>598500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>116700</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>227600</v>
+        <v>237100</v>
       </c>
       <c r="E15" s="3">
-        <v>203400</v>
+        <v>236300</v>
       </c>
       <c r="F15" s="3">
-        <v>219700</v>
+        <v>211100</v>
       </c>
       <c r="G15" s="3">
-        <v>221900</v>
+        <v>228100</v>
       </c>
       <c r="H15" s="3">
-        <v>167300</v>
+        <v>230400</v>
       </c>
       <c r="I15" s="3">
-        <v>158500</v>
+        <v>173700</v>
       </c>
       <c r="J15" s="3">
+        <v>164500</v>
+      </c>
+      <c r="K15" s="3">
         <v>156500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>154800</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1078200</v>
+        <v>981300</v>
       </c>
       <c r="E17" s="3">
-        <v>693200</v>
+        <v>1119400</v>
       </c>
       <c r="F17" s="3">
-        <v>741900</v>
+        <v>719700</v>
       </c>
       <c r="G17" s="3">
-        <v>898200</v>
+        <v>770300</v>
       </c>
       <c r="H17" s="3">
-        <v>653400</v>
+        <v>932500</v>
       </c>
       <c r="I17" s="3">
-        <v>613800</v>
+        <v>678400</v>
       </c>
       <c r="J17" s="3">
+        <v>637300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1155600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>556700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>18600</v>
+        <v>154200</v>
       </c>
       <c r="E18" s="3">
-        <v>303100</v>
+        <v>19400</v>
       </c>
       <c r="F18" s="3">
-        <v>167800</v>
+        <v>314700</v>
       </c>
       <c r="G18" s="3">
-        <v>-30100</v>
+        <v>174200</v>
       </c>
       <c r="H18" s="3">
-        <v>69500</v>
+        <v>-31200</v>
       </c>
       <c r="I18" s="3">
-        <v>28400</v>
+        <v>72200</v>
       </c>
       <c r="J18" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-682700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-189400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-15300</v>
+        <v>-12300</v>
       </c>
       <c r="E20" s="3">
-        <v>-12300</v>
+        <v>-15900</v>
       </c>
       <c r="F20" s="3">
-        <v>4300</v>
+        <v>-12700</v>
       </c>
       <c r="G20" s="3">
-        <v>-21000</v>
+        <v>4400</v>
       </c>
       <c r="H20" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-40000</v>
       </c>
-      <c r="I20" s="3">
-        <v>-38500</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-61400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-63600</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>234500</v>
+        <v>378600</v>
       </c>
       <c r="E21" s="3">
-        <v>498900</v>
+        <v>239400</v>
       </c>
       <c r="F21" s="3">
-        <v>395200</v>
+        <v>514300</v>
       </c>
       <c r="G21" s="3">
-        <v>174200</v>
+        <v>406400</v>
       </c>
       <c r="H21" s="3">
-        <v>199500</v>
+        <v>176900</v>
       </c>
       <c r="I21" s="3">
-        <v>150800</v>
+        <v>204100</v>
       </c>
       <c r="J21" s="3">
+        <v>153800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-585100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-97600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1089,10 +1128,10 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>17</v>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3100</v>
+        <v>141600</v>
       </c>
       <c r="E23" s="3">
-        <v>290600</v>
+        <v>3200</v>
       </c>
       <c r="F23" s="3">
-        <v>171700</v>
+        <v>301700</v>
       </c>
       <c r="G23" s="3">
-        <v>-51100</v>
+        <v>178200</v>
       </c>
       <c r="H23" s="3">
-        <v>29600</v>
+        <v>-53100</v>
       </c>
       <c r="I23" s="3">
-        <v>-10100</v>
+        <v>30700</v>
       </c>
       <c r="J23" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-744100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-253000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>91900</v>
+        <v>90300</v>
       </c>
       <c r="E24" s="3">
-        <v>98600</v>
+        <v>95400</v>
       </c>
       <c r="F24" s="3">
-        <v>43700</v>
+        <v>102300</v>
       </c>
       <c r="G24" s="3">
-        <v>45500</v>
+        <v>45400</v>
       </c>
       <c r="H24" s="3">
-        <v>-5900</v>
+        <v>47300</v>
       </c>
       <c r="I24" s="3">
-        <v>13700</v>
+        <v>-6100</v>
       </c>
       <c r="J24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-66300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-36900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-88800</v>
+        <v>51300</v>
       </c>
       <c r="E26" s="3">
-        <v>192000</v>
+        <v>-92200</v>
       </c>
       <c r="F26" s="3">
-        <v>128000</v>
+        <v>199400</v>
       </c>
       <c r="G26" s="3">
-        <v>-96700</v>
+        <v>132900</v>
       </c>
       <c r="H26" s="3">
-        <v>35400</v>
+        <v>-100400</v>
       </c>
       <c r="I26" s="3">
-        <v>-23800</v>
+        <v>36800</v>
       </c>
       <c r="J26" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-677800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-216000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-88800</v>
+        <v>51300</v>
       </c>
       <c r="E27" s="3">
-        <v>192000</v>
+        <v>-92200</v>
       </c>
       <c r="F27" s="3">
-        <v>128000</v>
+        <v>199400</v>
       </c>
       <c r="G27" s="3">
-        <v>-96700</v>
+        <v>132900</v>
       </c>
       <c r="H27" s="3">
-        <v>35400</v>
+        <v>-100400</v>
       </c>
       <c r="I27" s="3">
-        <v>-23800</v>
+        <v>36800</v>
       </c>
       <c r="J27" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-677800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-216000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15300</v>
+        <v>12300</v>
       </c>
       <c r="E32" s="3">
-        <v>12300</v>
+        <v>15900</v>
       </c>
       <c r="F32" s="3">
-        <v>-4300</v>
+        <v>12700</v>
       </c>
       <c r="G32" s="3">
-        <v>21000</v>
+        <v>-4400</v>
       </c>
       <c r="H32" s="3">
+        <v>21800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>41500</v>
+      </c>
+      <c r="J32" s="3">
         <v>40000</v>
       </c>
-      <c r="I32" s="3">
-        <v>38500</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>61400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>63600</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-88800</v>
+        <v>51300</v>
       </c>
       <c r="E33" s="3">
-        <v>192000</v>
+        <v>-92200</v>
       </c>
       <c r="F33" s="3">
-        <v>128000</v>
+        <v>199400</v>
       </c>
       <c r="G33" s="3">
-        <v>-96700</v>
+        <v>132900</v>
       </c>
       <c r="H33" s="3">
-        <v>35400</v>
+        <v>-100400</v>
       </c>
       <c r="I33" s="3">
-        <v>-23800</v>
+        <v>36800</v>
       </c>
       <c r="J33" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-677800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-216000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-88800</v>
+        <v>51300</v>
       </c>
       <c r="E35" s="3">
-        <v>192000</v>
+        <v>-92200</v>
       </c>
       <c r="F35" s="3">
-        <v>128000</v>
+        <v>199400</v>
       </c>
       <c r="G35" s="3">
-        <v>-96700</v>
+        <v>132900</v>
       </c>
       <c r="H35" s="3">
-        <v>35400</v>
+        <v>-100400</v>
       </c>
       <c r="I35" s="3">
-        <v>-23800</v>
+        <v>36800</v>
       </c>
       <c r="J35" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-677800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-216000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,188 +1645,207 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>229700</v>
+        <v>179500</v>
       </c>
       <c r="E41" s="3">
-        <v>293700</v>
+        <v>238500</v>
       </c>
       <c r="F41" s="3">
-        <v>243500</v>
+        <v>304900</v>
       </c>
       <c r="G41" s="3">
-        <v>274400</v>
+        <v>252800</v>
       </c>
       <c r="H41" s="3">
-        <v>267400</v>
+        <v>284800</v>
       </c>
       <c r="I41" s="3">
-        <v>335900</v>
+        <v>277600</v>
       </c>
       <c r="J41" s="3">
+        <v>348700</v>
+      </c>
+      <c r="K41" s="3">
         <v>376800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>226800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31800</v>
+        <v>25700</v>
       </c>
       <c r="E42" s="3">
-        <v>58200</v>
+        <v>33000</v>
       </c>
       <c r="F42" s="3">
-        <v>30400</v>
+        <v>60400</v>
       </c>
       <c r="G42" s="3">
-        <v>10400</v>
+        <v>31500</v>
       </c>
       <c r="H42" s="3">
-        <v>47700</v>
+        <v>10800</v>
       </c>
       <c r="I42" s="3">
-        <v>18800</v>
+        <v>49500</v>
       </c>
       <c r="J42" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K42" s="3">
         <v>8900</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>53000</v>
+        <v>51400</v>
       </c>
       <c r="E43" s="3">
-        <v>46200</v>
+        <v>55000</v>
       </c>
       <c r="F43" s="3">
-        <v>55900</v>
+        <v>48000</v>
       </c>
       <c r="G43" s="3">
-        <v>63300</v>
+        <v>58100</v>
       </c>
       <c r="H43" s="3">
-        <v>54600</v>
+        <v>65700</v>
       </c>
       <c r="I43" s="3">
-        <v>59800</v>
+        <v>56700</v>
       </c>
       <c r="J43" s="3">
+        <v>62100</v>
+      </c>
+      <c r="K43" s="3">
         <v>78200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>38400</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>265000</v>
+        <v>323800</v>
       </c>
       <c r="E44" s="3">
-        <v>197800</v>
+        <v>275200</v>
       </c>
       <c r="F44" s="3">
-        <v>169000</v>
+        <v>205300</v>
       </c>
       <c r="G44" s="3">
-        <v>146800</v>
+        <v>175500</v>
       </c>
       <c r="H44" s="3">
-        <v>214700</v>
+        <v>152400</v>
       </c>
       <c r="I44" s="3">
-        <v>175400</v>
+        <v>222900</v>
       </c>
       <c r="J44" s="3">
+        <v>182100</v>
+      </c>
+      <c r="K44" s="3">
         <v>167900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>287100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32200</v>
+        <v>29300</v>
       </c>
       <c r="E45" s="3">
-        <v>34600</v>
+        <v>33500</v>
       </c>
       <c r="F45" s="3">
-        <v>26400</v>
+        <v>36000</v>
       </c>
       <c r="G45" s="3">
-        <v>20600</v>
+        <v>27400</v>
       </c>
       <c r="H45" s="3">
-        <v>19200</v>
+        <v>21400</v>
       </c>
       <c r="I45" s="3">
-        <v>15400</v>
+        <v>19900</v>
       </c>
       <c r="J45" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K45" s="3">
         <v>11700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4300</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>611800</v>
+        <v>609800</v>
       </c>
       <c r="E46" s="3">
-        <v>630500</v>
+        <v>635200</v>
       </c>
       <c r="F46" s="3">
-        <v>525100</v>
+        <v>654600</v>
       </c>
       <c r="G46" s="3">
-        <v>515400</v>
+        <v>545200</v>
       </c>
       <c r="H46" s="3">
-        <v>603600</v>
+        <v>535100</v>
       </c>
       <c r="I46" s="3">
-        <v>605300</v>
+        <v>626600</v>
       </c>
       <c r="J46" s="3">
+        <v>628400</v>
+      </c>
+      <c r="K46" s="3">
         <v>643500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>234400</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1767,41 +1871,47 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>72600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4139900</v>
+        <v>4388400</v>
       </c>
       <c r="E48" s="3">
-        <v>4130300</v>
+        <v>4298100</v>
       </c>
       <c r="F48" s="3">
-        <v>3906700</v>
+        <v>4288200</v>
       </c>
       <c r="G48" s="3">
-        <v>3746800</v>
+        <v>4056000</v>
       </c>
       <c r="H48" s="3">
-        <v>3667000</v>
+        <v>3889900</v>
       </c>
       <c r="I48" s="3">
-        <v>2554700</v>
+        <v>3807100</v>
       </c>
       <c r="J48" s="3">
+        <v>2652300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2476100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2087400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1827,11 +1937,14 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>666200</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>71400</v>
+        <v>82100</v>
       </c>
       <c r="E52" s="3">
-        <v>82300</v>
+        <v>74100</v>
       </c>
       <c r="F52" s="3">
-        <v>91600</v>
+        <v>85500</v>
       </c>
       <c r="G52" s="3">
-        <v>95800</v>
+        <v>95100</v>
       </c>
       <c r="H52" s="3">
-        <v>151400</v>
+        <v>99400</v>
       </c>
       <c r="I52" s="3">
-        <v>159200</v>
+        <v>157200</v>
       </c>
       <c r="J52" s="3">
+        <v>165200</v>
+      </c>
+      <c r="K52" s="3">
         <v>159500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>299500</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4823100</v>
+        <v>5080300</v>
       </c>
       <c r="E54" s="3">
-        <v>4843100</v>
+        <v>5007400</v>
       </c>
       <c r="F54" s="3">
-        <v>4523500</v>
+        <v>5028200</v>
       </c>
       <c r="G54" s="3">
-        <v>4357900</v>
+        <v>4696300</v>
       </c>
       <c r="H54" s="3">
-        <v>4422000</v>
+        <v>4524500</v>
       </c>
       <c r="I54" s="3">
-        <v>3319100</v>
+        <v>4591000</v>
       </c>
       <c r="J54" s="3">
+        <v>3446000</v>
+      </c>
+      <c r="K54" s="3">
         <v>3279200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2906600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,128 +2137,141 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>183300</v>
+        <v>204100</v>
       </c>
       <c r="E57" s="3">
-        <v>156800</v>
+        <v>190300</v>
       </c>
       <c r="F57" s="3">
-        <v>157600</v>
+        <v>162700</v>
       </c>
       <c r="G57" s="3">
-        <v>295700</v>
+        <v>163600</v>
       </c>
       <c r="H57" s="3">
-        <v>116300</v>
+        <v>307000</v>
       </c>
       <c r="I57" s="3">
-        <v>108800</v>
+        <v>120700</v>
       </c>
       <c r="J57" s="3">
+        <v>113000</v>
+      </c>
+      <c r="K57" s="3">
         <v>111700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>109400</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
-        <v>6900</v>
-      </c>
       <c r="H58" s="3">
-        <v>11200</v>
+        <v>7200</v>
       </c>
       <c r="I58" s="3">
-        <v>4800</v>
+        <v>11600</v>
       </c>
       <c r="J58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K58" s="3">
         <v>7100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25800</v>
+        <v>46900</v>
       </c>
       <c r="E59" s="3">
-        <v>38200</v>
+        <v>26800</v>
       </c>
       <c r="F59" s="3">
-        <v>10900</v>
+        <v>39700</v>
       </c>
       <c r="G59" s="3">
-        <v>23800</v>
+        <v>11300</v>
       </c>
       <c r="H59" s="3">
-        <v>28900</v>
+        <v>24800</v>
       </c>
       <c r="I59" s="3">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="J59" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K59" s="3">
         <v>14300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7200</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>209600</v>
+        <v>251500</v>
       </c>
       <c r="E60" s="3">
-        <v>195600</v>
+        <v>217600</v>
       </c>
       <c r="F60" s="3">
-        <v>169500</v>
+        <v>203100</v>
       </c>
       <c r="G60" s="3">
-        <v>175700</v>
+        <v>176000</v>
       </c>
       <c r="H60" s="3">
-        <v>150800</v>
+        <v>182400</v>
       </c>
       <c r="I60" s="3">
-        <v>132600</v>
+        <v>156500</v>
       </c>
       <c r="J60" s="3">
+        <v>137700</v>
+      </c>
+      <c r="K60" s="3">
         <v>133000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>66200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2146,50 +2288,56 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>401300</v>
+        <v>4600</v>
       </c>
       <c r="J61" s="3">
+        <v>416600</v>
+      </c>
+      <c r="K61" s="3">
         <v>419500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>392500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>970200</v>
+        <v>1066300</v>
       </c>
       <c r="E62" s="3">
-        <v>849800</v>
+        <v>1007300</v>
       </c>
       <c r="F62" s="3">
-        <v>764300</v>
+        <v>882300</v>
       </c>
       <c r="G62" s="3">
-        <v>716500</v>
+        <v>793500</v>
       </c>
       <c r="H62" s="3">
-        <v>700400</v>
+        <v>743900</v>
       </c>
       <c r="I62" s="3">
-        <v>442000</v>
+        <v>727200</v>
       </c>
       <c r="J62" s="3">
+        <v>458900</v>
+      </c>
+      <c r="K62" s="3">
         <v>430300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>407500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1179800</v>
+        <v>1317900</v>
       </c>
       <c r="E66" s="3">
-        <v>1045500</v>
+        <v>1224900</v>
       </c>
       <c r="F66" s="3">
-        <v>933900</v>
+        <v>1085400</v>
       </c>
       <c r="G66" s="3">
-        <v>892200</v>
+        <v>969500</v>
       </c>
       <c r="H66" s="3">
-        <v>851200</v>
+        <v>926300</v>
       </c>
       <c r="I66" s="3">
-        <v>975900</v>
+        <v>883700</v>
       </c>
       <c r="J66" s="3">
+        <v>1013200</v>
+      </c>
+      <c r="K66" s="3">
         <v>982900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>828600</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1396700</v>
+        <v>-1449900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1276000</v>
+        <v>-1450000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1449700</v>
+        <v>-1324800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1572900</v>
+        <v>-1505100</v>
       </c>
       <c r="H72" s="3">
-        <v>-1482300</v>
+        <v>-1633000</v>
       </c>
       <c r="I72" s="3">
-        <v>-1510400</v>
+        <v>-1538900</v>
       </c>
       <c r="J72" s="3">
+        <v>-1568100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1484000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-587000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3643300</v>
+        <v>3762500</v>
       </c>
       <c r="E76" s="3">
-        <v>3797600</v>
+        <v>3782500</v>
       </c>
       <c r="F76" s="3">
-        <v>3589600</v>
+        <v>3942800</v>
       </c>
       <c r="G76" s="3">
-        <v>3465700</v>
+        <v>3726800</v>
       </c>
       <c r="H76" s="3">
-        <v>3570800</v>
+        <v>3598200</v>
       </c>
       <c r="I76" s="3">
-        <v>2343200</v>
+        <v>3707300</v>
       </c>
       <c r="J76" s="3">
+        <v>2432700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2296300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2077900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-88800</v>
+        <v>51300</v>
       </c>
       <c r="E81" s="3">
-        <v>192000</v>
+        <v>-92200</v>
       </c>
       <c r="F81" s="3">
-        <v>128000</v>
+        <v>199400</v>
       </c>
       <c r="G81" s="3">
-        <v>-96700</v>
+        <v>132900</v>
       </c>
       <c r="H81" s="3">
-        <v>35400</v>
+        <v>-100400</v>
       </c>
       <c r="I81" s="3">
-        <v>-23800</v>
+        <v>36800</v>
       </c>
       <c r="J81" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-677800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-216000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>227600</v>
+        <v>237100</v>
       </c>
       <c r="E83" s="3">
-        <v>204800</v>
+        <v>236300</v>
       </c>
       <c r="F83" s="3">
-        <v>219700</v>
+        <v>212700</v>
       </c>
       <c r="G83" s="3">
-        <v>221900</v>
+        <v>228100</v>
       </c>
       <c r="H83" s="3">
-        <v>167300</v>
+        <v>230400</v>
       </c>
       <c r="I83" s="3">
-        <v>158500</v>
+        <v>173700</v>
       </c>
       <c r="J83" s="3">
+        <v>164500</v>
+      </c>
+      <c r="K83" s="3">
         <v>156500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>154800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>474800</v>
+        <v>412700</v>
       </c>
       <c r="E89" s="3">
-        <v>490600</v>
+        <v>492900</v>
       </c>
       <c r="F89" s="3">
-        <v>346800</v>
+        <v>509400</v>
       </c>
       <c r="G89" s="3">
-        <v>284900</v>
+        <v>360100</v>
       </c>
       <c r="H89" s="3">
-        <v>217700</v>
+        <v>295800</v>
       </c>
       <c r="I89" s="3">
-        <v>180700</v>
+        <v>226100</v>
       </c>
       <c r="J89" s="3">
+        <v>187600</v>
+      </c>
+      <c r="K89" s="3">
         <v>79900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>98600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-485200</v>
+        <v>-433800</v>
       </c>
       <c r="E91" s="3">
-        <v>-400700</v>
+        <v>-503700</v>
       </c>
       <c r="F91" s="3">
-        <v>-351100</v>
+        <v>-416100</v>
       </c>
       <c r="G91" s="3">
-        <v>-295000</v>
+        <v>-364500</v>
       </c>
       <c r="H91" s="3">
-        <v>-216400</v>
+        <v>-306300</v>
       </c>
       <c r="I91" s="3">
-        <v>-195100</v>
+        <v>-224700</v>
       </c>
       <c r="J91" s="3">
+        <v>-202600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-217200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-481000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-475600</v>
+        <v>-432400</v>
       </c>
       <c r="E94" s="3">
-        <v>-418300</v>
+        <v>-493800</v>
       </c>
       <c r="F94" s="3">
-        <v>-356400</v>
+        <v>-434300</v>
       </c>
       <c r="G94" s="3">
-        <v>-261800</v>
+        <v>-370000</v>
       </c>
       <c r="H94" s="3">
-        <v>-159000</v>
+        <v>-271800</v>
       </c>
       <c r="I94" s="3">
-        <v>-201800</v>
+        <v>-165100</v>
       </c>
       <c r="J94" s="3">
+        <v>-209500</v>
+      </c>
+      <c r="K94" s="3">
         <v>130400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-192100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-45900</v>
+        <v>-48500</v>
       </c>
       <c r="E96" s="3">
-        <v>-31800</v>
+        <v>-47700</v>
       </c>
       <c r="F96" s="3">
-        <v>-20800</v>
+        <v>-33000</v>
       </c>
       <c r="G96" s="3">
-        <v>-10400</v>
+        <v>-21600</v>
       </c>
       <c r="H96" s="3">
-        <v>-8000</v>
+        <v>-10800</v>
       </c>
       <c r="I96" s="3">
-        <v>-7200</v>
+        <v>-8300</v>
       </c>
       <c r="J96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-14100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-18300</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-63000</v>
+        <v>-39300</v>
       </c>
       <c r="E100" s="3">
-        <v>-20800</v>
+        <v>-65400</v>
       </c>
       <c r="F100" s="3">
-        <v>-22600</v>
+        <v>-21600</v>
       </c>
       <c r="G100" s="3">
-        <v>-11700</v>
+        <v>-23500</v>
       </c>
       <c r="H100" s="3">
-        <v>-130000</v>
+        <v>-12200</v>
       </c>
       <c r="I100" s="3">
-        <v>-17000</v>
+        <v>-135000</v>
       </c>
       <c r="J100" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K100" s="3">
         <v>53800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>27000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3218,57 +3466,63 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>-1300</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>1300</v>
+        <v>-1400</v>
       </c>
       <c r="G101" s="3">
-        <v>-4400</v>
+        <v>1400</v>
       </c>
       <c r="H101" s="3">
-        <v>2800</v>
+        <v>-4600</v>
       </c>
       <c r="I101" s="3">
-        <v>-2800</v>
+        <v>2900</v>
       </c>
       <c r="J101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1900</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-63900</v>
+        <v>-59000</v>
       </c>
       <c r="E102" s="3">
-        <v>50200</v>
+        <v>-66400</v>
       </c>
       <c r="F102" s="3">
-        <v>-30900</v>
+        <v>52100</v>
       </c>
       <c r="G102" s="3">
-        <v>6900</v>
+        <v>-32100</v>
       </c>
       <c r="H102" s="3">
-        <v>-68500</v>
+        <v>7200</v>
       </c>
       <c r="I102" s="3">
-        <v>-40900</v>
+        <v>-71100</v>
       </c>
       <c r="J102" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="K102" s="3">
         <v>258200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-68400</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1135500</v>
+        <v>1108600</v>
       </c>
       <c r="E8" s="3">
-        <v>1138800</v>
+        <v>1111900</v>
       </c>
       <c r="F8" s="3">
-        <v>1034400</v>
+        <v>1009900</v>
       </c>
       <c r="G8" s="3">
-        <v>944500</v>
+        <v>922200</v>
       </c>
       <c r="H8" s="3">
-        <v>901200</v>
+        <v>879900</v>
       </c>
       <c r="I8" s="3">
-        <v>750500</v>
+        <v>732800</v>
       </c>
       <c r="J8" s="3">
-        <v>666700</v>
+        <v>651000</v>
       </c>
       <c r="K8" s="3">
         <v>472900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>557900</v>
+        <v>544700</v>
       </c>
       <c r="E9" s="3">
-        <v>502200</v>
+        <v>490300</v>
       </c>
       <c r="F9" s="3">
-        <v>446300</v>
+        <v>435800</v>
       </c>
       <c r="G9" s="3">
-        <v>492800</v>
+        <v>481100</v>
       </c>
       <c r="H9" s="3">
-        <v>565200</v>
+        <v>551900</v>
       </c>
       <c r="I9" s="3">
-        <v>458000</v>
+        <v>447100</v>
       </c>
       <c r="J9" s="3">
-        <v>429100</v>
+        <v>418900</v>
       </c>
       <c r="K9" s="3">
         <v>354900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>577600</v>
+        <v>563900</v>
       </c>
       <c r="E10" s="3">
-        <v>636600</v>
+        <v>621500</v>
       </c>
       <c r="F10" s="3">
-        <v>588100</v>
+        <v>574200</v>
       </c>
       <c r="G10" s="3">
-        <v>451700</v>
+        <v>441000</v>
       </c>
       <c r="H10" s="3">
-        <v>336000</v>
+        <v>328100</v>
       </c>
       <c r="I10" s="3">
-        <v>292600</v>
+        <v>285700</v>
       </c>
       <c r="J10" s="3">
-        <v>237700</v>
+        <v>232100</v>
       </c>
       <c r="K10" s="3">
         <v>118000</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>25400</v>
+        <v>24800</v>
       </c>
       <c r="E12" s="3">
-        <v>20300</v>
+        <v>19800</v>
       </c>
       <c r="F12" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="G12" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="H12" s="3">
-        <v>15200</v>
+        <v>14900</v>
       </c>
       <c r="I12" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="J12" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="K12" s="3">
         <v>12500</v>
@@ -897,22 +897,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>99700</v>
+        <v>97300</v>
       </c>
       <c r="E14" s="3">
-        <v>311400</v>
+        <v>304000</v>
       </c>
       <c r="F14" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>88500</v>
+        <v>86400</v>
       </c>
       <c r="I14" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>237100</v>
+        <v>231500</v>
       </c>
       <c r="E15" s="3">
-        <v>236300</v>
+        <v>230700</v>
       </c>
       <c r="F15" s="3">
-        <v>211100</v>
+        <v>206100</v>
       </c>
       <c r="G15" s="3">
-        <v>228100</v>
+        <v>222800</v>
       </c>
       <c r="H15" s="3">
-        <v>230400</v>
+        <v>224900</v>
       </c>
       <c r="I15" s="3">
-        <v>173700</v>
+        <v>169600</v>
       </c>
       <c r="J15" s="3">
-        <v>164500</v>
+        <v>160700</v>
       </c>
       <c r="K15" s="3">
         <v>156500</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>981300</v>
+        <v>958100</v>
       </c>
       <c r="E17" s="3">
-        <v>1119400</v>
+        <v>1093000</v>
       </c>
       <c r="F17" s="3">
-        <v>719700</v>
+        <v>702700</v>
       </c>
       <c r="G17" s="3">
-        <v>770300</v>
+        <v>752100</v>
       </c>
       <c r="H17" s="3">
-        <v>932500</v>
+        <v>910400</v>
       </c>
       <c r="I17" s="3">
-        <v>678400</v>
+        <v>662300</v>
       </c>
       <c r="J17" s="3">
-        <v>637300</v>
+        <v>622200</v>
       </c>
       <c r="K17" s="3">
         <v>1155600</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>154200</v>
+        <v>150500</v>
       </c>
       <c r="E18" s="3">
-        <v>19400</v>
+        <v>18900</v>
       </c>
       <c r="F18" s="3">
-        <v>314700</v>
+        <v>307300</v>
       </c>
       <c r="G18" s="3">
-        <v>174200</v>
+        <v>170100</v>
       </c>
       <c r="H18" s="3">
-        <v>-31200</v>
+        <v>-30500</v>
       </c>
       <c r="I18" s="3">
-        <v>72200</v>
+        <v>70500</v>
       </c>
       <c r="J18" s="3">
-        <v>29500</v>
+        <v>28800</v>
       </c>
       <c r="K18" s="3">
         <v>-682700</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-12300</v>
+        <v>-12000</v>
       </c>
       <c r="E20" s="3">
-        <v>-15900</v>
+        <v>-15500</v>
       </c>
       <c r="F20" s="3">
-        <v>-12700</v>
+        <v>-12400</v>
       </c>
       <c r="G20" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="H20" s="3">
-        <v>-21800</v>
+        <v>-21300</v>
       </c>
       <c r="I20" s="3">
-        <v>-41500</v>
+        <v>-40500</v>
       </c>
       <c r="J20" s="3">
-        <v>-40000</v>
+        <v>-39000</v>
       </c>
       <c r="K20" s="3">
         <v>-61400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>378600</v>
+        <v>369200</v>
       </c>
       <c r="E21" s="3">
-        <v>239400</v>
+        <v>233300</v>
       </c>
       <c r="F21" s="3">
-        <v>514300</v>
+        <v>501700</v>
       </c>
       <c r="G21" s="3">
-        <v>406400</v>
+        <v>396400</v>
       </c>
       <c r="H21" s="3">
-        <v>176900</v>
+        <v>172300</v>
       </c>
       <c r="I21" s="3">
-        <v>204100</v>
+        <v>198900</v>
       </c>
       <c r="J21" s="3">
-        <v>153800</v>
+        <v>149800</v>
       </c>
       <c r="K21" s="3">
         <v>-585100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>141600</v>
+        <v>138200</v>
       </c>
       <c r="E23" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F23" s="3">
-        <v>301700</v>
+        <v>294600</v>
       </c>
       <c r="G23" s="3">
-        <v>178200</v>
+        <v>174000</v>
       </c>
       <c r="H23" s="3">
-        <v>-53100</v>
+        <v>-51800</v>
       </c>
       <c r="I23" s="3">
-        <v>30700</v>
+        <v>30000</v>
       </c>
       <c r="J23" s="3">
-        <v>-10500</v>
+        <v>-10300</v>
       </c>
       <c r="K23" s="3">
         <v>-744100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>90300</v>
+        <v>88200</v>
       </c>
       <c r="E24" s="3">
-        <v>95400</v>
+        <v>93200</v>
       </c>
       <c r="F24" s="3">
-        <v>102300</v>
+        <v>99900</v>
       </c>
       <c r="G24" s="3">
-        <v>45400</v>
+        <v>44300</v>
       </c>
       <c r="H24" s="3">
-        <v>47300</v>
+        <v>46200</v>
       </c>
       <c r="I24" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="J24" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="K24" s="3">
         <v>-66300</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>51300</v>
+        <v>50100</v>
       </c>
       <c r="E26" s="3">
-        <v>-92200</v>
+        <v>-90000</v>
       </c>
       <c r="F26" s="3">
-        <v>199400</v>
+        <v>194700</v>
       </c>
       <c r="G26" s="3">
-        <v>132900</v>
+        <v>129700</v>
       </c>
       <c r="H26" s="3">
-        <v>-100400</v>
+        <v>-98000</v>
       </c>
       <c r="I26" s="3">
-        <v>36800</v>
+        <v>35900</v>
       </c>
       <c r="J26" s="3">
-        <v>-24800</v>
+        <v>-24200</v>
       </c>
       <c r="K26" s="3">
         <v>-677800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>51300</v>
+        <v>50100</v>
       </c>
       <c r="E27" s="3">
-        <v>-92200</v>
+        <v>-90000</v>
       </c>
       <c r="F27" s="3">
-        <v>199400</v>
+        <v>194700</v>
       </c>
       <c r="G27" s="3">
-        <v>132900</v>
+        <v>129700</v>
       </c>
       <c r="H27" s="3">
-        <v>-100400</v>
+        <v>-98000</v>
       </c>
       <c r="I27" s="3">
-        <v>36800</v>
+        <v>35900</v>
       </c>
       <c r="J27" s="3">
-        <v>-24800</v>
+        <v>-24200</v>
       </c>
       <c r="K27" s="3">
         <v>-677800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="E32" s="3">
-        <v>15900</v>
+        <v>15500</v>
       </c>
       <c r="F32" s="3">
-        <v>12700</v>
+        <v>12400</v>
       </c>
       <c r="G32" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="H32" s="3">
-        <v>21800</v>
+        <v>21300</v>
       </c>
       <c r="I32" s="3">
-        <v>41500</v>
+        <v>40500</v>
       </c>
       <c r="J32" s="3">
-        <v>40000</v>
+        <v>39000</v>
       </c>
       <c r="K32" s="3">
         <v>61400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>51300</v>
+        <v>50100</v>
       </c>
       <c r="E33" s="3">
-        <v>-92200</v>
+        <v>-90000</v>
       </c>
       <c r="F33" s="3">
-        <v>199400</v>
+        <v>194700</v>
       </c>
       <c r="G33" s="3">
-        <v>132900</v>
+        <v>129700</v>
       </c>
       <c r="H33" s="3">
-        <v>-100400</v>
+        <v>-98000</v>
       </c>
       <c r="I33" s="3">
-        <v>36800</v>
+        <v>35900</v>
       </c>
       <c r="J33" s="3">
-        <v>-24800</v>
+        <v>-24200</v>
       </c>
       <c r="K33" s="3">
         <v>-677800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>51300</v>
+        <v>50100</v>
       </c>
       <c r="E35" s="3">
-        <v>-92200</v>
+        <v>-90000</v>
       </c>
       <c r="F35" s="3">
-        <v>199400</v>
+        <v>194700</v>
       </c>
       <c r="G35" s="3">
-        <v>132900</v>
+        <v>129700</v>
       </c>
       <c r="H35" s="3">
-        <v>-100400</v>
+        <v>-98000</v>
       </c>
       <c r="I35" s="3">
-        <v>36800</v>
+        <v>35900</v>
       </c>
       <c r="J35" s="3">
-        <v>-24800</v>
+        <v>-24200</v>
       </c>
       <c r="K35" s="3">
         <v>-677800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>179500</v>
+        <v>175200</v>
       </c>
       <c r="E41" s="3">
-        <v>238500</v>
+        <v>232900</v>
       </c>
       <c r="F41" s="3">
-        <v>304900</v>
+        <v>297700</v>
       </c>
       <c r="G41" s="3">
-        <v>252800</v>
+        <v>246800</v>
       </c>
       <c r="H41" s="3">
-        <v>284800</v>
+        <v>278100</v>
       </c>
       <c r="I41" s="3">
-        <v>277600</v>
+        <v>271100</v>
       </c>
       <c r="J41" s="3">
-        <v>348700</v>
+        <v>340500</v>
       </c>
       <c r="K41" s="3">
         <v>376800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25700</v>
+        <v>25100</v>
       </c>
       <c r="E42" s="3">
-        <v>33000</v>
+        <v>32300</v>
       </c>
       <c r="F42" s="3">
-        <v>60400</v>
+        <v>59000</v>
       </c>
       <c r="G42" s="3">
-        <v>31500</v>
+        <v>30800</v>
       </c>
       <c r="H42" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="I42" s="3">
-        <v>49500</v>
+        <v>48300</v>
       </c>
       <c r="J42" s="3">
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="K42" s="3">
         <v>8900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>51400</v>
+        <v>50200</v>
       </c>
       <c r="E43" s="3">
-        <v>55000</v>
+        <v>53700</v>
       </c>
       <c r="F43" s="3">
-        <v>48000</v>
+        <v>46800</v>
       </c>
       <c r="G43" s="3">
-        <v>58100</v>
+        <v>56700</v>
       </c>
       <c r="H43" s="3">
-        <v>65700</v>
+        <v>64100</v>
       </c>
       <c r="I43" s="3">
-        <v>56700</v>
+        <v>55400</v>
       </c>
       <c r="J43" s="3">
-        <v>62100</v>
+        <v>60600</v>
       </c>
       <c r="K43" s="3">
         <v>78200</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>323800</v>
+        <v>316200</v>
       </c>
       <c r="E44" s="3">
-        <v>275200</v>
+        <v>268700</v>
       </c>
       <c r="F44" s="3">
-        <v>205300</v>
+        <v>200500</v>
       </c>
       <c r="G44" s="3">
-        <v>175500</v>
+        <v>171300</v>
       </c>
       <c r="H44" s="3">
-        <v>152400</v>
+        <v>148800</v>
       </c>
       <c r="I44" s="3">
-        <v>222900</v>
+        <v>217600</v>
       </c>
       <c r="J44" s="3">
-        <v>182100</v>
+        <v>177800</v>
       </c>
       <c r="K44" s="3">
         <v>167900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29300</v>
+        <v>28600</v>
       </c>
       <c r="E45" s="3">
-        <v>33500</v>
+        <v>32700</v>
       </c>
       <c r="F45" s="3">
-        <v>36000</v>
+        <v>35100</v>
       </c>
       <c r="G45" s="3">
-        <v>27400</v>
+        <v>26700</v>
       </c>
       <c r="H45" s="3">
-        <v>21400</v>
+        <v>20900</v>
       </c>
       <c r="I45" s="3">
-        <v>19900</v>
+        <v>19400</v>
       </c>
       <c r="J45" s="3">
-        <v>16000</v>
+        <v>15700</v>
       </c>
       <c r="K45" s="3">
         <v>11700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>609800</v>
+        <v>595400</v>
       </c>
       <c r="E46" s="3">
-        <v>635200</v>
+        <v>620200</v>
       </c>
       <c r="F46" s="3">
-        <v>654600</v>
+        <v>639100</v>
       </c>
       <c r="G46" s="3">
-        <v>545200</v>
+        <v>532300</v>
       </c>
       <c r="H46" s="3">
-        <v>535100</v>
+        <v>522500</v>
       </c>
       <c r="I46" s="3">
-        <v>626600</v>
+        <v>611800</v>
       </c>
       <c r="J46" s="3">
-        <v>628400</v>
+        <v>613600</v>
       </c>
       <c r="K46" s="3">
         <v>643500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4388400</v>
+        <v>4284600</v>
       </c>
       <c r="E48" s="3">
-        <v>4298100</v>
+        <v>4196500</v>
       </c>
       <c r="F48" s="3">
-        <v>4288200</v>
+        <v>4186800</v>
       </c>
       <c r="G48" s="3">
-        <v>4056000</v>
+        <v>3960100</v>
       </c>
       <c r="H48" s="3">
-        <v>3889900</v>
+        <v>3798000</v>
       </c>
       <c r="I48" s="3">
-        <v>3807100</v>
+        <v>3717100</v>
       </c>
       <c r="J48" s="3">
-        <v>2652300</v>
+        <v>2589600</v>
       </c>
       <c r="K48" s="3">
         <v>2476100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>82100</v>
+        <v>80200</v>
       </c>
       <c r="E52" s="3">
-        <v>74100</v>
+        <v>72400</v>
       </c>
       <c r="F52" s="3">
-        <v>85500</v>
+        <v>83400</v>
       </c>
       <c r="G52" s="3">
-        <v>95100</v>
+        <v>92900</v>
       </c>
       <c r="H52" s="3">
-        <v>99400</v>
+        <v>97100</v>
       </c>
       <c r="I52" s="3">
-        <v>157200</v>
+        <v>153500</v>
       </c>
       <c r="J52" s="3">
-        <v>165200</v>
+        <v>161300</v>
       </c>
       <c r="K52" s="3">
         <v>159500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5080300</v>
+        <v>4960200</v>
       </c>
       <c r="E54" s="3">
-        <v>5007400</v>
+        <v>4889000</v>
       </c>
       <c r="F54" s="3">
-        <v>5028200</v>
+        <v>4909300</v>
       </c>
       <c r="G54" s="3">
-        <v>4696300</v>
+        <v>4585300</v>
       </c>
       <c r="H54" s="3">
-        <v>4524500</v>
+        <v>4417500</v>
       </c>
       <c r="I54" s="3">
-        <v>4591000</v>
+        <v>4482400</v>
       </c>
       <c r="J54" s="3">
-        <v>3446000</v>
+        <v>3364500</v>
       </c>
       <c r="K54" s="3">
         <v>3279200</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>204100</v>
+        <v>199300</v>
       </c>
       <c r="E57" s="3">
-        <v>190300</v>
+        <v>185800</v>
       </c>
       <c r="F57" s="3">
-        <v>162700</v>
+        <v>158900</v>
       </c>
       <c r="G57" s="3">
-        <v>163600</v>
+        <v>159700</v>
       </c>
       <c r="H57" s="3">
-        <v>307000</v>
+        <v>299700</v>
       </c>
       <c r="I57" s="3">
-        <v>120700</v>
+        <v>117900</v>
       </c>
       <c r="J57" s="3">
-        <v>113000</v>
+        <v>110300</v>
       </c>
       <c r="K57" s="3">
         <v>111700</v>
@@ -2177,10 +2177,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>700</v>
@@ -2189,13 +2189,13 @@
         <v>1100</v>
       </c>
       <c r="H58" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="I58" s="3">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="J58" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="K58" s="3">
         <v>7100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46900</v>
+        <v>45800</v>
       </c>
       <c r="E59" s="3">
-        <v>26800</v>
+        <v>26200</v>
       </c>
       <c r="F59" s="3">
-        <v>39700</v>
+        <v>38700</v>
       </c>
       <c r="G59" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="H59" s="3">
-        <v>24800</v>
+        <v>24200</v>
       </c>
       <c r="I59" s="3">
-        <v>30000</v>
+        <v>29300</v>
       </c>
       <c r="J59" s="3">
-        <v>19800</v>
+        <v>19300</v>
       </c>
       <c r="K59" s="3">
         <v>14300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>251500</v>
+        <v>245600</v>
       </c>
       <c r="E60" s="3">
-        <v>217600</v>
+        <v>212500</v>
       </c>
       <c r="F60" s="3">
-        <v>203100</v>
+        <v>198300</v>
       </c>
       <c r="G60" s="3">
-        <v>176000</v>
+        <v>171900</v>
       </c>
       <c r="H60" s="3">
-        <v>182400</v>
+        <v>178100</v>
       </c>
       <c r="I60" s="3">
-        <v>156500</v>
+        <v>152800</v>
       </c>
       <c r="J60" s="3">
-        <v>137700</v>
+        <v>134500</v>
       </c>
       <c r="K60" s="3">
         <v>133000</v>
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="J61" s="3">
-        <v>416600</v>
+        <v>406800</v>
       </c>
       <c r="K61" s="3">
         <v>419500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1066300</v>
+        <v>1041100</v>
       </c>
       <c r="E62" s="3">
-        <v>1007300</v>
+        <v>983500</v>
       </c>
       <c r="F62" s="3">
-        <v>882300</v>
+        <v>861400</v>
       </c>
       <c r="G62" s="3">
-        <v>793500</v>
+        <v>774800</v>
       </c>
       <c r="H62" s="3">
-        <v>743900</v>
+        <v>726300</v>
       </c>
       <c r="I62" s="3">
-        <v>727200</v>
+        <v>710000</v>
       </c>
       <c r="J62" s="3">
-        <v>458900</v>
+        <v>448100</v>
       </c>
       <c r="K62" s="3">
         <v>430300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1317900</v>
+        <v>1286700</v>
       </c>
       <c r="E66" s="3">
-        <v>1224900</v>
+        <v>1196000</v>
       </c>
       <c r="F66" s="3">
-        <v>1085400</v>
+        <v>1059800</v>
       </c>
       <c r="G66" s="3">
-        <v>969500</v>
+        <v>946600</v>
       </c>
       <c r="H66" s="3">
-        <v>926300</v>
+        <v>904400</v>
       </c>
       <c r="I66" s="3">
-        <v>883700</v>
+        <v>862800</v>
       </c>
       <c r="J66" s="3">
-        <v>1013200</v>
+        <v>989300</v>
       </c>
       <c r="K66" s="3">
         <v>982900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1449900</v>
+        <v>-1415600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1450000</v>
+        <v>-1415700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1324800</v>
+        <v>-1293400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1505100</v>
+        <v>-1469500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1633000</v>
+        <v>-1594400</v>
       </c>
       <c r="I72" s="3">
-        <v>-1538900</v>
+        <v>-1502600</v>
       </c>
       <c r="J72" s="3">
-        <v>-1568100</v>
+        <v>-1531000</v>
       </c>
       <c r="K72" s="3">
         <v>-1484000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3762500</v>
+        <v>3673500</v>
       </c>
       <c r="E76" s="3">
-        <v>3782500</v>
+        <v>3693100</v>
       </c>
       <c r="F76" s="3">
-        <v>3942800</v>
+        <v>3849500</v>
       </c>
       <c r="G76" s="3">
-        <v>3726800</v>
+        <v>3638700</v>
       </c>
       <c r="H76" s="3">
-        <v>3598200</v>
+        <v>3513100</v>
       </c>
       <c r="I76" s="3">
-        <v>3707300</v>
+        <v>3619600</v>
       </c>
       <c r="J76" s="3">
-        <v>2432700</v>
+        <v>2375200</v>
       </c>
       <c r="K76" s="3">
         <v>2296300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>51300</v>
+        <v>50100</v>
       </c>
       <c r="E81" s="3">
-        <v>-92200</v>
+        <v>-90000</v>
       </c>
       <c r="F81" s="3">
-        <v>199400</v>
+        <v>194700</v>
       </c>
       <c r="G81" s="3">
-        <v>132900</v>
+        <v>129700</v>
       </c>
       <c r="H81" s="3">
-        <v>-100400</v>
+        <v>-98000</v>
       </c>
       <c r="I81" s="3">
-        <v>36800</v>
+        <v>35900</v>
       </c>
       <c r="J81" s="3">
-        <v>-24800</v>
+        <v>-24200</v>
       </c>
       <c r="K81" s="3">
         <v>-677800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>237100</v>
+        <v>231500</v>
       </c>
       <c r="E83" s="3">
-        <v>236300</v>
+        <v>230700</v>
       </c>
       <c r="F83" s="3">
-        <v>212700</v>
+        <v>207600</v>
       </c>
       <c r="G83" s="3">
-        <v>228100</v>
+        <v>222800</v>
       </c>
       <c r="H83" s="3">
-        <v>230400</v>
+        <v>224900</v>
       </c>
       <c r="I83" s="3">
-        <v>173700</v>
+        <v>169600</v>
       </c>
       <c r="J83" s="3">
-        <v>164500</v>
+        <v>160700</v>
       </c>
       <c r="K83" s="3">
         <v>156500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>412700</v>
+        <v>403000</v>
       </c>
       <c r="E89" s="3">
-        <v>492900</v>
+        <v>481300</v>
       </c>
       <c r="F89" s="3">
-        <v>509400</v>
+        <v>497300</v>
       </c>
       <c r="G89" s="3">
-        <v>360100</v>
+        <v>351500</v>
       </c>
       <c r="H89" s="3">
-        <v>295800</v>
+        <v>288800</v>
       </c>
       <c r="I89" s="3">
-        <v>226100</v>
+        <v>220700</v>
       </c>
       <c r="J89" s="3">
-        <v>187600</v>
+        <v>183200</v>
       </c>
       <c r="K89" s="3">
         <v>79900</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-433800</v>
+        <v>-423500</v>
       </c>
       <c r="E91" s="3">
-        <v>-503700</v>
+        <v>-491800</v>
       </c>
       <c r="F91" s="3">
-        <v>-416100</v>
+        <v>-406200</v>
       </c>
       <c r="G91" s="3">
-        <v>-364500</v>
+        <v>-355900</v>
       </c>
       <c r="H91" s="3">
-        <v>-306300</v>
+        <v>-299000</v>
       </c>
       <c r="I91" s="3">
-        <v>-224700</v>
+        <v>-219400</v>
       </c>
       <c r="J91" s="3">
-        <v>-202600</v>
+        <v>-197800</v>
       </c>
       <c r="K91" s="3">
         <v>-217200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-432400</v>
+        <v>-422100</v>
       </c>
       <c r="E94" s="3">
-        <v>-493800</v>
+        <v>-482100</v>
       </c>
       <c r="F94" s="3">
-        <v>-434300</v>
+        <v>-424000</v>
       </c>
       <c r="G94" s="3">
-        <v>-370000</v>
+        <v>-361300</v>
       </c>
       <c r="H94" s="3">
-        <v>-271800</v>
+        <v>-265400</v>
       </c>
       <c r="I94" s="3">
-        <v>-165100</v>
+        <v>-161200</v>
       </c>
       <c r="J94" s="3">
-        <v>-209500</v>
+        <v>-204500</v>
       </c>
       <c r="K94" s="3">
         <v>130400</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-48500</v>
+        <v>-47400</v>
       </c>
       <c r="E96" s="3">
-        <v>-47700</v>
+        <v>-46600</v>
       </c>
       <c r="F96" s="3">
-        <v>-33000</v>
+        <v>-32300</v>
       </c>
       <c r="G96" s="3">
-        <v>-21600</v>
+        <v>-21100</v>
       </c>
       <c r="H96" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="I96" s="3">
-        <v>-8300</v>
+        <v>-8100</v>
       </c>
       <c r="J96" s="3">
-        <v>-7500</v>
+        <v>-7300</v>
       </c>
       <c r="K96" s="3">
         <v>-14100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-39300</v>
+        <v>-38300</v>
       </c>
       <c r="E100" s="3">
-        <v>-65400</v>
+        <v>-63900</v>
       </c>
       <c r="F100" s="3">
-        <v>-21600</v>
+        <v>-21100</v>
       </c>
       <c r="G100" s="3">
-        <v>-23500</v>
+        <v>-23000</v>
       </c>
       <c r="H100" s="3">
-        <v>-12200</v>
+        <v>-11900</v>
       </c>
       <c r="I100" s="3">
-        <v>-135000</v>
+        <v>-131800</v>
       </c>
       <c r="J100" s="3">
-        <v>-17700</v>
+        <v>-17300</v>
       </c>
       <c r="K100" s="3">
         <v>53800</v>
@@ -3475,13 +3475,13 @@
         <v>1400</v>
       </c>
       <c r="H101" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="I101" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J101" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="K101" s="3">
         <v>-5900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-59000</v>
+        <v>-57600</v>
       </c>
       <c r="E102" s="3">
-        <v>-66400</v>
+        <v>-64800</v>
       </c>
       <c r="F102" s="3">
-        <v>52100</v>
+        <v>50900</v>
       </c>
       <c r="G102" s="3">
-        <v>-32100</v>
+        <v>-31300</v>
       </c>
       <c r="H102" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="I102" s="3">
-        <v>-71100</v>
+        <v>-69400</v>
       </c>
       <c r="J102" s="3">
-        <v>-42400</v>
+        <v>-41400</v>
       </c>
       <c r="K102" s="3">
         <v>258200</v>

--- a/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1108600</v>
+        <v>1109200</v>
       </c>
       <c r="E8" s="3">
-        <v>1111900</v>
+        <v>1112400</v>
       </c>
       <c r="F8" s="3">
-        <v>1009900</v>
+        <v>1010500</v>
       </c>
       <c r="G8" s="3">
-        <v>922200</v>
+        <v>922700</v>
       </c>
       <c r="H8" s="3">
-        <v>879900</v>
+        <v>880400</v>
       </c>
       <c r="I8" s="3">
-        <v>732800</v>
+        <v>733200</v>
       </c>
       <c r="J8" s="3">
-        <v>651000</v>
+        <v>651300</v>
       </c>
       <c r="K8" s="3">
         <v>472900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>544700</v>
+        <v>545000</v>
       </c>
       <c r="E9" s="3">
-        <v>490300</v>
+        <v>490600</v>
       </c>
       <c r="F9" s="3">
-        <v>435800</v>
+        <v>436000</v>
       </c>
       <c r="G9" s="3">
-        <v>481100</v>
+        <v>481400</v>
       </c>
       <c r="H9" s="3">
-        <v>551900</v>
+        <v>552200</v>
       </c>
       <c r="I9" s="3">
-        <v>447100</v>
+        <v>447400</v>
       </c>
       <c r="J9" s="3">
-        <v>418900</v>
+        <v>419100</v>
       </c>
       <c r="K9" s="3">
         <v>354900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>563900</v>
+        <v>564200</v>
       </c>
       <c r="E10" s="3">
-        <v>621500</v>
+        <v>621900</v>
       </c>
       <c r="F10" s="3">
-        <v>574200</v>
+        <v>574500</v>
       </c>
       <c r="G10" s="3">
-        <v>441000</v>
+        <v>441300</v>
       </c>
       <c r="H10" s="3">
-        <v>328100</v>
+        <v>328200</v>
       </c>
       <c r="I10" s="3">
-        <v>285700</v>
+        <v>285800</v>
       </c>
       <c r="J10" s="3">
-        <v>232100</v>
+        <v>232200</v>
       </c>
       <c r="K10" s="3">
         <v>118000</v>
@@ -831,10 +831,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="E12" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="F12" s="3">
         <v>9700</v>
@@ -897,10 +897,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>97300</v>
+        <v>97400</v>
       </c>
       <c r="E14" s="3">
-        <v>304000</v>
+        <v>304200</v>
       </c>
       <c r="F14" s="3">
         <v>8800</v>
@@ -930,19 +930,19 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>231500</v>
+        <v>231600</v>
       </c>
       <c r="E15" s="3">
-        <v>230700</v>
+        <v>230800</v>
       </c>
       <c r="F15" s="3">
-        <v>206100</v>
+        <v>206300</v>
       </c>
       <c r="G15" s="3">
-        <v>222800</v>
+        <v>222900</v>
       </c>
       <c r="H15" s="3">
-        <v>224900</v>
+        <v>225000</v>
       </c>
       <c r="I15" s="3">
         <v>169600</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>958100</v>
+        <v>958600</v>
       </c>
       <c r="E17" s="3">
-        <v>1093000</v>
+        <v>1093500</v>
       </c>
       <c r="F17" s="3">
-        <v>702700</v>
+        <v>703000</v>
       </c>
       <c r="G17" s="3">
-        <v>752100</v>
+        <v>752500</v>
       </c>
       <c r="H17" s="3">
-        <v>910400</v>
+        <v>910900</v>
       </c>
       <c r="I17" s="3">
-        <v>662300</v>
+        <v>662700</v>
       </c>
       <c r="J17" s="3">
-        <v>622200</v>
+        <v>622500</v>
       </c>
       <c r="K17" s="3">
         <v>1155600</v>
@@ -1008,16 +1008,16 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>150500</v>
+        <v>150600</v>
       </c>
       <c r="E18" s="3">
         <v>18900</v>
       </c>
       <c r="F18" s="3">
-        <v>307300</v>
+        <v>307400</v>
       </c>
       <c r="G18" s="3">
-        <v>170100</v>
+        <v>170200</v>
       </c>
       <c r="H18" s="3">
         <v>-30500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>369200</v>
+        <v>370200</v>
       </c>
       <c r="E21" s="3">
-        <v>233300</v>
+        <v>234200</v>
       </c>
       <c r="F21" s="3">
-        <v>501700</v>
+        <v>502700</v>
       </c>
       <c r="G21" s="3">
-        <v>396400</v>
+        <v>397400</v>
       </c>
       <c r="H21" s="3">
-        <v>172300</v>
+        <v>173200</v>
       </c>
       <c r="I21" s="3">
-        <v>198900</v>
+        <v>199600</v>
       </c>
       <c r="J21" s="3">
-        <v>149800</v>
+        <v>150500</v>
       </c>
       <c r="K21" s="3">
         <v>-585100</v>
@@ -1155,19 +1155,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>138200</v>
+        <v>138300</v>
       </c>
       <c r="E23" s="3">
         <v>3100</v>
       </c>
       <c r="F23" s="3">
-        <v>294600</v>
+        <v>294700</v>
       </c>
       <c r="G23" s="3">
-        <v>174000</v>
+        <v>174100</v>
       </c>
       <c r="H23" s="3">
-        <v>-51800</v>
+        <v>-51900</v>
       </c>
       <c r="I23" s="3">
         <v>30000</v>
@@ -1194,7 +1194,7 @@
         <v>93200</v>
       </c>
       <c r="F24" s="3">
-        <v>99900</v>
+        <v>100000</v>
       </c>
       <c r="G24" s="3">
         <v>44300</v>
@@ -1257,16 +1257,16 @@
         <v>50100</v>
       </c>
       <c r="E26" s="3">
-        <v>-90000</v>
+        <v>-90100</v>
       </c>
       <c r="F26" s="3">
-        <v>194700</v>
+        <v>194800</v>
       </c>
       <c r="G26" s="3">
-        <v>129700</v>
+        <v>129800</v>
       </c>
       <c r="H26" s="3">
-        <v>-98000</v>
+        <v>-98100</v>
       </c>
       <c r="I26" s="3">
         <v>35900</v>
@@ -1290,16 +1290,16 @@
         <v>50100</v>
       </c>
       <c r="E27" s="3">
-        <v>-90000</v>
+        <v>-90100</v>
       </c>
       <c r="F27" s="3">
-        <v>194700</v>
+        <v>194800</v>
       </c>
       <c r="G27" s="3">
-        <v>129700</v>
+        <v>129800</v>
       </c>
       <c r="H27" s="3">
-        <v>-98000</v>
+        <v>-98100</v>
       </c>
       <c r="I27" s="3">
         <v>35900</v>
@@ -1488,16 +1488,16 @@
         <v>50100</v>
       </c>
       <c r="E33" s="3">
-        <v>-90000</v>
+        <v>-90100</v>
       </c>
       <c r="F33" s="3">
-        <v>194700</v>
+        <v>194800</v>
       </c>
       <c r="G33" s="3">
-        <v>129700</v>
+        <v>129800</v>
       </c>
       <c r="H33" s="3">
-        <v>-98000</v>
+        <v>-98100</v>
       </c>
       <c r="I33" s="3">
         <v>35900</v>
@@ -1554,16 +1554,16 @@
         <v>50100</v>
       </c>
       <c r="E35" s="3">
-        <v>-90000</v>
+        <v>-90100</v>
       </c>
       <c r="F35" s="3">
-        <v>194700</v>
+        <v>194800</v>
       </c>
       <c r="G35" s="3">
-        <v>129700</v>
+        <v>129800</v>
       </c>
       <c r="H35" s="3">
-        <v>-98000</v>
+        <v>-98100</v>
       </c>
       <c r="I35" s="3">
         <v>35900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>175200</v>
+        <v>175300</v>
       </c>
       <c r="E41" s="3">
-        <v>232900</v>
+        <v>233000</v>
       </c>
       <c r="F41" s="3">
-        <v>297700</v>
+        <v>297800</v>
       </c>
       <c r="G41" s="3">
-        <v>246800</v>
+        <v>246900</v>
       </c>
       <c r="H41" s="3">
-        <v>278100</v>
+        <v>278200</v>
       </c>
       <c r="I41" s="3">
-        <v>271100</v>
+        <v>271200</v>
       </c>
       <c r="J41" s="3">
-        <v>340500</v>
+        <v>340600</v>
       </c>
       <c r="K41" s="3">
         <v>376800</v>
@@ -1700,7 +1700,7 @@
         <v>10500</v>
       </c>
       <c r="I42" s="3">
-        <v>48300</v>
+        <v>48400</v>
       </c>
       <c r="J42" s="3">
         <v>19000</v>
@@ -1721,16 +1721,16 @@
         <v>50200</v>
       </c>
       <c r="E43" s="3">
-        <v>53700</v>
+        <v>53800</v>
       </c>
       <c r="F43" s="3">
-        <v>46800</v>
+        <v>46900</v>
       </c>
       <c r="G43" s="3">
         <v>56700</v>
       </c>
       <c r="H43" s="3">
-        <v>64100</v>
+        <v>64200</v>
       </c>
       <c r="I43" s="3">
         <v>55400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>316200</v>
+        <v>316300</v>
       </c>
       <c r="E44" s="3">
-        <v>268700</v>
+        <v>268800</v>
       </c>
       <c r="F44" s="3">
-        <v>200500</v>
+        <v>200600</v>
       </c>
       <c r="G44" s="3">
-        <v>171300</v>
+        <v>171400</v>
       </c>
       <c r="H44" s="3">
         <v>148800</v>
       </c>
       <c r="I44" s="3">
-        <v>217600</v>
+        <v>217700</v>
       </c>
       <c r="J44" s="3">
-        <v>177800</v>
+        <v>177900</v>
       </c>
       <c r="K44" s="3">
         <v>167900</v>
@@ -1799,7 +1799,7 @@
         <v>20900</v>
       </c>
       <c r="I45" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="J45" s="3">
         <v>15700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>595400</v>
+        <v>595700</v>
       </c>
       <c r="E46" s="3">
-        <v>620200</v>
+        <v>620500</v>
       </c>
       <c r="F46" s="3">
-        <v>639100</v>
+        <v>639400</v>
       </c>
       <c r="G46" s="3">
-        <v>532300</v>
+        <v>532600</v>
       </c>
       <c r="H46" s="3">
-        <v>522500</v>
+        <v>522700</v>
       </c>
       <c r="I46" s="3">
-        <v>611800</v>
+        <v>612100</v>
       </c>
       <c r="J46" s="3">
-        <v>613600</v>
+        <v>613900</v>
       </c>
       <c r="K46" s="3">
         <v>643500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4284600</v>
+        <v>4286900</v>
       </c>
       <c r="E48" s="3">
-        <v>4196500</v>
+        <v>4198700</v>
       </c>
       <c r="F48" s="3">
-        <v>4186800</v>
+        <v>4188900</v>
       </c>
       <c r="G48" s="3">
-        <v>3960100</v>
+        <v>3962100</v>
       </c>
       <c r="H48" s="3">
-        <v>3798000</v>
+        <v>3799900</v>
       </c>
       <c r="I48" s="3">
-        <v>3717100</v>
+        <v>3719000</v>
       </c>
       <c r="J48" s="3">
-        <v>2589600</v>
+        <v>2590900</v>
       </c>
       <c r="K48" s="3">
         <v>2476100</v>
@@ -2021,7 +2021,7 @@
         <v>72400</v>
       </c>
       <c r="F52" s="3">
-        <v>83400</v>
+        <v>83500</v>
       </c>
       <c r="G52" s="3">
         <v>92900</v>
@@ -2030,10 +2030,10 @@
         <v>97100</v>
       </c>
       <c r="I52" s="3">
-        <v>153500</v>
+        <v>153600</v>
       </c>
       <c r="J52" s="3">
-        <v>161300</v>
+        <v>161400</v>
       </c>
       <c r="K52" s="3">
         <v>159500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4960200</v>
+        <v>4962700</v>
       </c>
       <c r="E54" s="3">
-        <v>4889000</v>
+        <v>4891600</v>
       </c>
       <c r="F54" s="3">
-        <v>4909300</v>
+        <v>4911800</v>
       </c>
       <c r="G54" s="3">
-        <v>4585300</v>
+        <v>4587700</v>
       </c>
       <c r="H54" s="3">
-        <v>4417500</v>
+        <v>4419800</v>
       </c>
       <c r="I54" s="3">
-        <v>4482400</v>
+        <v>4484700</v>
       </c>
       <c r="J54" s="3">
-        <v>3364500</v>
+        <v>3366200</v>
       </c>
       <c r="K54" s="3">
         <v>3279200</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>199300</v>
+        <v>199400</v>
       </c>
       <c r="E57" s="3">
-        <v>185800</v>
+        <v>185900</v>
       </c>
       <c r="F57" s="3">
-        <v>158900</v>
+        <v>159000</v>
       </c>
       <c r="G57" s="3">
-        <v>159700</v>
+        <v>159800</v>
       </c>
       <c r="H57" s="3">
-        <v>299700</v>
+        <v>299900</v>
       </c>
       <c r="I57" s="3">
         <v>117900</v>
       </c>
       <c r="J57" s="3">
-        <v>110300</v>
+        <v>110400</v>
       </c>
       <c r="K57" s="3">
         <v>111700</v>
@@ -2216,7 +2216,7 @@
         <v>26200</v>
       </c>
       <c r="F59" s="3">
-        <v>38700</v>
+        <v>38800</v>
       </c>
       <c r="G59" s="3">
         <v>11100</v>
@@ -2243,22 +2243,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>245600</v>
+        <v>245700</v>
       </c>
       <c r="E60" s="3">
-        <v>212500</v>
+        <v>212600</v>
       </c>
       <c r="F60" s="3">
-        <v>198300</v>
+        <v>198400</v>
       </c>
       <c r="G60" s="3">
         <v>171900</v>
       </c>
       <c r="H60" s="3">
-        <v>178100</v>
+        <v>178200</v>
       </c>
       <c r="I60" s="3">
-        <v>152800</v>
+        <v>152900</v>
       </c>
       <c r="J60" s="3">
         <v>134500</v>
@@ -2294,7 +2294,7 @@
         <v>4500</v>
       </c>
       <c r="J61" s="3">
-        <v>406800</v>
+        <v>407000</v>
       </c>
       <c r="K61" s="3">
         <v>419500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1041100</v>
+        <v>1041700</v>
       </c>
       <c r="E62" s="3">
-        <v>983500</v>
+        <v>984000</v>
       </c>
       <c r="F62" s="3">
-        <v>861400</v>
+        <v>861900</v>
       </c>
       <c r="G62" s="3">
-        <v>774800</v>
+        <v>775200</v>
       </c>
       <c r="H62" s="3">
-        <v>726300</v>
+        <v>726700</v>
       </c>
       <c r="I62" s="3">
-        <v>710000</v>
+        <v>710300</v>
       </c>
       <c r="J62" s="3">
-        <v>448100</v>
+        <v>448300</v>
       </c>
       <c r="K62" s="3">
         <v>430300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1286700</v>
+        <v>1287400</v>
       </c>
       <c r="E66" s="3">
-        <v>1196000</v>
+        <v>1196600</v>
       </c>
       <c r="F66" s="3">
-        <v>1059800</v>
+        <v>1060300</v>
       </c>
       <c r="G66" s="3">
-        <v>946600</v>
+        <v>947100</v>
       </c>
       <c r="H66" s="3">
-        <v>904400</v>
+        <v>904800</v>
       </c>
       <c r="I66" s="3">
-        <v>862800</v>
+        <v>863200</v>
       </c>
       <c r="J66" s="3">
-        <v>989300</v>
+        <v>989800</v>
       </c>
       <c r="K66" s="3">
         <v>982900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1415600</v>
+        <v>-1416300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1415700</v>
+        <v>-1416500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1293400</v>
+        <v>-1294100</v>
       </c>
       <c r="G72" s="3">
-        <v>-1469500</v>
+        <v>-1470200</v>
       </c>
       <c r="H72" s="3">
-        <v>-1594400</v>
+        <v>-1595200</v>
       </c>
       <c r="I72" s="3">
-        <v>-1502600</v>
+        <v>-1503300</v>
       </c>
       <c r="J72" s="3">
-        <v>-1531000</v>
+        <v>-1531800</v>
       </c>
       <c r="K72" s="3">
         <v>-1484000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3673500</v>
+        <v>3675400</v>
       </c>
       <c r="E76" s="3">
-        <v>3693100</v>
+        <v>3695000</v>
       </c>
       <c r="F76" s="3">
-        <v>3849500</v>
+        <v>3851500</v>
       </c>
       <c r="G76" s="3">
-        <v>3638700</v>
+        <v>3640500</v>
       </c>
       <c r="H76" s="3">
-        <v>3513100</v>
+        <v>3514900</v>
       </c>
       <c r="I76" s="3">
-        <v>3619600</v>
+        <v>3621500</v>
       </c>
       <c r="J76" s="3">
-        <v>2375200</v>
+        <v>2376400</v>
       </c>
       <c r="K76" s="3">
         <v>2296300</v>
@@ -2860,16 +2860,16 @@
         <v>50100</v>
       </c>
       <c r="E81" s="3">
-        <v>-90000</v>
+        <v>-90100</v>
       </c>
       <c r="F81" s="3">
-        <v>194700</v>
+        <v>194800</v>
       </c>
       <c r="G81" s="3">
-        <v>129700</v>
+        <v>129800</v>
       </c>
       <c r="H81" s="3">
-        <v>-98000</v>
+        <v>-98100</v>
       </c>
       <c r="I81" s="3">
         <v>35900</v>
@@ -2905,19 +2905,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>231500</v>
+        <v>231600</v>
       </c>
       <c r="E83" s="3">
-        <v>230700</v>
+        <v>230800</v>
       </c>
       <c r="F83" s="3">
-        <v>207600</v>
+        <v>207700</v>
       </c>
       <c r="G83" s="3">
-        <v>222800</v>
+        <v>222900</v>
       </c>
       <c r="H83" s="3">
-        <v>224900</v>
+        <v>225000</v>
       </c>
       <c r="I83" s="3">
         <v>169600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>403000</v>
+        <v>403200</v>
       </c>
       <c r="E89" s="3">
-        <v>481300</v>
+        <v>481500</v>
       </c>
       <c r="F89" s="3">
-        <v>497300</v>
+        <v>497600</v>
       </c>
       <c r="G89" s="3">
-        <v>351500</v>
+        <v>351700</v>
       </c>
       <c r="H89" s="3">
-        <v>288800</v>
+        <v>288900</v>
       </c>
       <c r="I89" s="3">
-        <v>220700</v>
+        <v>220800</v>
       </c>
       <c r="J89" s="3">
-        <v>183200</v>
+        <v>183300</v>
       </c>
       <c r="K89" s="3">
         <v>79900</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-423500</v>
+        <v>-423700</v>
       </c>
       <c r="E91" s="3">
-        <v>-491800</v>
+        <v>-492100</v>
       </c>
       <c r="F91" s="3">
-        <v>-406200</v>
+        <v>-406400</v>
       </c>
       <c r="G91" s="3">
-        <v>-355900</v>
+        <v>-356000</v>
       </c>
       <c r="H91" s="3">
-        <v>-299000</v>
+        <v>-299200</v>
       </c>
       <c r="I91" s="3">
-        <v>-219400</v>
+        <v>-219500</v>
       </c>
       <c r="J91" s="3">
-        <v>-197800</v>
+        <v>-197900</v>
       </c>
       <c r="K91" s="3">
         <v>-217200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-422100</v>
+        <v>-422400</v>
       </c>
       <c r="E94" s="3">
-        <v>-482100</v>
+        <v>-482300</v>
       </c>
       <c r="F94" s="3">
-        <v>-424000</v>
+        <v>-424300</v>
       </c>
       <c r="G94" s="3">
-        <v>-361300</v>
+        <v>-361400</v>
       </c>
       <c r="H94" s="3">
-        <v>-265400</v>
+        <v>-265500</v>
       </c>
       <c r="I94" s="3">
-        <v>-161200</v>
+        <v>-161300</v>
       </c>
       <c r="J94" s="3">
-        <v>-204500</v>
+        <v>-204600</v>
       </c>
       <c r="K94" s="3">
         <v>130400</v>
@@ -3430,7 +3430,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-38300</v>
+        <v>-38400</v>
       </c>
       <c r="E100" s="3">
         <v>-63900</v>
@@ -3496,7 +3496,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-57600</v>
+        <v>-57700</v>
       </c>
       <c r="E102" s="3">
         <v>-64800</v>
@@ -3514,7 +3514,7 @@
         <v>-69400</v>
       </c>
       <c r="J102" s="3">
-        <v>-41400</v>
+        <v>-41500</v>
       </c>
       <c r="K102" s="3">
         <v>258200</v>

--- a/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AGI_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1109200</v>
+        <v>1129600</v>
       </c>
       <c r="E8" s="3">
-        <v>1112400</v>
+        <v>1132900</v>
       </c>
       <c r="F8" s="3">
-        <v>1010500</v>
+        <v>1029000</v>
       </c>
       <c r="G8" s="3">
-        <v>922700</v>
+        <v>939600</v>
       </c>
       <c r="H8" s="3">
-        <v>880400</v>
+        <v>896600</v>
       </c>
       <c r="I8" s="3">
-        <v>733200</v>
+        <v>746600</v>
       </c>
       <c r="J8" s="3">
-        <v>651300</v>
+        <v>663300</v>
       </c>
       <c r="K8" s="3">
         <v>472900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>545000</v>
+        <v>555000</v>
       </c>
       <c r="E9" s="3">
-        <v>490600</v>
+        <v>499600</v>
       </c>
       <c r="F9" s="3">
-        <v>436000</v>
+        <v>444000</v>
       </c>
       <c r="G9" s="3">
-        <v>481400</v>
+        <v>490200</v>
       </c>
       <c r="H9" s="3">
-        <v>552200</v>
+        <v>562300</v>
       </c>
       <c r="I9" s="3">
-        <v>447400</v>
+        <v>455600</v>
       </c>
       <c r="J9" s="3">
-        <v>419100</v>
+        <v>426800</v>
       </c>
       <c r="K9" s="3">
         <v>354900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>564200</v>
+        <v>574500</v>
       </c>
       <c r="E10" s="3">
-        <v>621900</v>
+        <v>633300</v>
       </c>
       <c r="F10" s="3">
-        <v>574500</v>
+        <v>585000</v>
       </c>
       <c r="G10" s="3">
-        <v>441300</v>
+        <v>449400</v>
       </c>
       <c r="H10" s="3">
-        <v>328200</v>
+        <v>334200</v>
       </c>
       <c r="I10" s="3">
-        <v>285800</v>
+        <v>291100</v>
       </c>
       <c r="J10" s="3">
-        <v>232200</v>
+        <v>236400</v>
       </c>
       <c r="K10" s="3">
         <v>118000</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>24900</v>
+        <v>25300</v>
       </c>
       <c r="E12" s="3">
-        <v>19900</v>
+        <v>20200</v>
       </c>
       <c r="F12" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="G12" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="H12" s="3">
-        <v>14900</v>
+        <v>15100</v>
       </c>
       <c r="I12" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="J12" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="K12" s="3">
         <v>12500</v>
@@ -897,22 +897,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>97400</v>
+        <v>99200</v>
       </c>
       <c r="E14" s="3">
-        <v>304200</v>
+        <v>309800</v>
       </c>
       <c r="F14" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>86400</v>
+        <v>88000</v>
       </c>
       <c r="I14" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>231600</v>
+        <v>235900</v>
       </c>
       <c r="E15" s="3">
-        <v>230800</v>
+        <v>235100</v>
       </c>
       <c r="F15" s="3">
-        <v>206300</v>
+        <v>210000</v>
       </c>
       <c r="G15" s="3">
-        <v>222900</v>
+        <v>227000</v>
       </c>
       <c r="H15" s="3">
-        <v>225000</v>
+        <v>229200</v>
       </c>
       <c r="I15" s="3">
-        <v>169600</v>
+        <v>172800</v>
       </c>
       <c r="J15" s="3">
-        <v>160700</v>
+        <v>163700</v>
       </c>
       <c r="K15" s="3">
         <v>156500</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>958600</v>
+        <v>976200</v>
       </c>
       <c r="E17" s="3">
-        <v>1093500</v>
+        <v>1113600</v>
       </c>
       <c r="F17" s="3">
-        <v>703000</v>
+        <v>715900</v>
       </c>
       <c r="G17" s="3">
-        <v>752500</v>
+        <v>766300</v>
       </c>
       <c r="H17" s="3">
-        <v>910900</v>
+        <v>927600</v>
       </c>
       <c r="I17" s="3">
-        <v>662700</v>
+        <v>674800</v>
       </c>
       <c r="J17" s="3">
-        <v>622500</v>
+        <v>634000</v>
       </c>
       <c r="K17" s="3">
         <v>1155600</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>150600</v>
+        <v>153400</v>
       </c>
       <c r="E18" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="F18" s="3">
-        <v>307400</v>
+        <v>313100</v>
       </c>
       <c r="G18" s="3">
-        <v>170200</v>
+        <v>173300</v>
       </c>
       <c r="H18" s="3">
-        <v>-30500</v>
+        <v>-31100</v>
       </c>
       <c r="I18" s="3">
-        <v>70500</v>
+        <v>71800</v>
       </c>
       <c r="J18" s="3">
-        <v>28800</v>
+        <v>29300</v>
       </c>
       <c r="K18" s="3">
         <v>-682700</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-12000</v>
+        <v>-12200</v>
       </c>
       <c r="E20" s="3">
-        <v>-15500</v>
+        <v>-15800</v>
       </c>
       <c r="F20" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="G20" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="H20" s="3">
-        <v>-21300</v>
+        <v>-21700</v>
       </c>
       <c r="I20" s="3">
-        <v>-40500</v>
+        <v>-41300</v>
       </c>
       <c r="J20" s="3">
-        <v>-39000</v>
+        <v>-39800</v>
       </c>
       <c r="K20" s="3">
         <v>-61400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>370200</v>
+        <v>375700</v>
       </c>
       <c r="E21" s="3">
-        <v>234200</v>
+        <v>237200</v>
       </c>
       <c r="F21" s="3">
-        <v>502700</v>
+        <v>510800</v>
       </c>
       <c r="G21" s="3">
-        <v>397400</v>
+        <v>403400</v>
       </c>
       <c r="H21" s="3">
-        <v>173200</v>
+        <v>175100</v>
       </c>
       <c r="I21" s="3">
-        <v>199600</v>
+        <v>202300</v>
       </c>
       <c r="J21" s="3">
-        <v>150500</v>
+        <v>152300</v>
       </c>
       <c r="K21" s="3">
         <v>-585100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>138300</v>
+        <v>140900</v>
       </c>
       <c r="E23" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F23" s="3">
-        <v>294700</v>
+        <v>300100</v>
       </c>
       <c r="G23" s="3">
-        <v>174100</v>
+        <v>177300</v>
       </c>
       <c r="H23" s="3">
-        <v>-51900</v>
+        <v>-52800</v>
       </c>
       <c r="I23" s="3">
-        <v>30000</v>
+        <v>30500</v>
       </c>
       <c r="J23" s="3">
-        <v>-10300</v>
+        <v>-10500</v>
       </c>
       <c r="K23" s="3">
         <v>-744100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>88200</v>
+        <v>89800</v>
       </c>
       <c r="E24" s="3">
-        <v>93200</v>
+        <v>94900</v>
       </c>
       <c r="F24" s="3">
-        <v>100000</v>
+        <v>101800</v>
       </c>
       <c r="G24" s="3">
-        <v>44300</v>
+        <v>45100</v>
       </c>
       <c r="H24" s="3">
-        <v>46200</v>
+        <v>47000</v>
       </c>
       <c r="I24" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="J24" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="K24" s="3">
         <v>-66300</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>50100</v>
+        <v>51000</v>
       </c>
       <c r="E26" s="3">
-        <v>-90100</v>
+        <v>-91700</v>
       </c>
       <c r="F26" s="3">
-        <v>194800</v>
+        <v>198300</v>
       </c>
       <c r="G26" s="3">
-        <v>129800</v>
+        <v>132200</v>
       </c>
       <c r="H26" s="3">
-        <v>-98100</v>
+        <v>-99900</v>
       </c>
       <c r="I26" s="3">
-        <v>35900</v>
+        <v>36600</v>
       </c>
       <c r="J26" s="3">
-        <v>-24200</v>
+        <v>-24600</v>
       </c>
       <c r="K26" s="3">
         <v>-677800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>50100</v>
+        <v>51000</v>
       </c>
       <c r="E27" s="3">
-        <v>-90100</v>
+        <v>-91700</v>
       </c>
       <c r="F27" s="3">
-        <v>194800</v>
+        <v>198300</v>
       </c>
       <c r="G27" s="3">
-        <v>129800</v>
+        <v>132200</v>
       </c>
       <c r="H27" s="3">
-        <v>-98100</v>
+        <v>-99900</v>
       </c>
       <c r="I27" s="3">
-        <v>35900</v>
+        <v>36600</v>
       </c>
       <c r="J27" s="3">
-        <v>-24200</v>
+        <v>-24600</v>
       </c>
       <c r="K27" s="3">
         <v>-677800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="E32" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="F32" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="G32" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H32" s="3">
-        <v>21300</v>
+        <v>21700</v>
       </c>
       <c r="I32" s="3">
-        <v>40500</v>
+        <v>41300</v>
       </c>
       <c r="J32" s="3">
-        <v>39000</v>
+        <v>39800</v>
       </c>
       <c r="K32" s="3">
         <v>61400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>50100</v>
+        <v>51000</v>
       </c>
       <c r="E33" s="3">
-        <v>-90100</v>
+        <v>-91700</v>
       </c>
       <c r="F33" s="3">
-        <v>194800</v>
+        <v>198300</v>
       </c>
       <c r="G33" s="3">
-        <v>129800</v>
+        <v>132200</v>
       </c>
       <c r="H33" s="3">
-        <v>-98100</v>
+        <v>-99900</v>
       </c>
       <c r="I33" s="3">
-        <v>35900</v>
+        <v>36600</v>
       </c>
       <c r="J33" s="3">
-        <v>-24200</v>
+        <v>-24600</v>
       </c>
       <c r="K33" s="3">
         <v>-677800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>50100</v>
+        <v>51000</v>
       </c>
       <c r="E35" s="3">
-        <v>-90100</v>
+        <v>-91700</v>
       </c>
       <c r="F35" s="3">
-        <v>194800</v>
+        <v>198300</v>
       </c>
       <c r="G35" s="3">
-        <v>129800</v>
+        <v>132200</v>
       </c>
       <c r="H35" s="3">
-        <v>-98100</v>
+        <v>-99900</v>
       </c>
       <c r="I35" s="3">
-        <v>35900</v>
+        <v>36600</v>
       </c>
       <c r="J35" s="3">
-        <v>-24200</v>
+        <v>-24600</v>
       </c>
       <c r="K35" s="3">
         <v>-677800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>175300</v>
+        <v>178500</v>
       </c>
       <c r="E41" s="3">
-        <v>233000</v>
+        <v>237300</v>
       </c>
       <c r="F41" s="3">
-        <v>297800</v>
+        <v>303300</v>
       </c>
       <c r="G41" s="3">
-        <v>246900</v>
+        <v>251400</v>
       </c>
       <c r="H41" s="3">
-        <v>278200</v>
+        <v>283400</v>
       </c>
       <c r="I41" s="3">
-        <v>271200</v>
+        <v>276200</v>
       </c>
       <c r="J41" s="3">
-        <v>340600</v>
+        <v>346900</v>
       </c>
       <c r="K41" s="3">
         <v>376800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25100</v>
+        <v>25600</v>
       </c>
       <c r="E42" s="3">
-        <v>32300</v>
+        <v>32900</v>
       </c>
       <c r="F42" s="3">
-        <v>59000</v>
+        <v>60100</v>
       </c>
       <c r="G42" s="3">
-        <v>30800</v>
+        <v>31400</v>
       </c>
       <c r="H42" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="I42" s="3">
-        <v>48400</v>
+        <v>49200</v>
       </c>
       <c r="J42" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="K42" s="3">
         <v>8900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>50200</v>
+        <v>51200</v>
       </c>
       <c r="E43" s="3">
-        <v>53800</v>
+        <v>54700</v>
       </c>
       <c r="F43" s="3">
-        <v>46900</v>
+        <v>47700</v>
       </c>
       <c r="G43" s="3">
-        <v>56700</v>
+        <v>57800</v>
       </c>
       <c r="H43" s="3">
-        <v>64200</v>
+        <v>65300</v>
       </c>
       <c r="I43" s="3">
-        <v>55400</v>
+        <v>56400</v>
       </c>
       <c r="J43" s="3">
-        <v>60600</v>
+        <v>61800</v>
       </c>
       <c r="K43" s="3">
         <v>78200</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>316300</v>
+        <v>322100</v>
       </c>
       <c r="E44" s="3">
-        <v>268800</v>
+        <v>273700</v>
       </c>
       <c r="F44" s="3">
-        <v>200600</v>
+        <v>204300</v>
       </c>
       <c r="G44" s="3">
-        <v>171400</v>
+        <v>174600</v>
       </c>
       <c r="H44" s="3">
-        <v>148800</v>
+        <v>151600</v>
       </c>
       <c r="I44" s="3">
-        <v>217700</v>
+        <v>221700</v>
       </c>
       <c r="J44" s="3">
-        <v>177900</v>
+        <v>181200</v>
       </c>
       <c r="K44" s="3">
         <v>167900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28600</v>
+        <v>29200</v>
       </c>
       <c r="E45" s="3">
-        <v>32700</v>
+        <v>33300</v>
       </c>
       <c r="F45" s="3">
-        <v>35100</v>
+        <v>35800</v>
       </c>
       <c r="G45" s="3">
-        <v>26700</v>
+        <v>27200</v>
       </c>
       <c r="H45" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="I45" s="3">
-        <v>19500</v>
+        <v>19800</v>
       </c>
       <c r="J45" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="K45" s="3">
         <v>11700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>595700</v>
+        <v>606600</v>
       </c>
       <c r="E46" s="3">
-        <v>620500</v>
+        <v>631900</v>
       </c>
       <c r="F46" s="3">
-        <v>639400</v>
+        <v>651200</v>
       </c>
       <c r="G46" s="3">
-        <v>532600</v>
+        <v>542400</v>
       </c>
       <c r="H46" s="3">
-        <v>522700</v>
+        <v>532300</v>
       </c>
       <c r="I46" s="3">
-        <v>612100</v>
+        <v>623400</v>
       </c>
       <c r="J46" s="3">
-        <v>613900</v>
+        <v>625200</v>
       </c>
       <c r="K46" s="3">
         <v>643500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4286900</v>
+        <v>4365600</v>
       </c>
       <c r="E48" s="3">
-        <v>4198700</v>
+        <v>4275700</v>
       </c>
       <c r="F48" s="3">
-        <v>4188900</v>
+        <v>4265800</v>
       </c>
       <c r="G48" s="3">
-        <v>3962100</v>
+        <v>4034900</v>
       </c>
       <c r="H48" s="3">
-        <v>3799900</v>
+        <v>3869700</v>
       </c>
       <c r="I48" s="3">
-        <v>3719000</v>
+        <v>3787300</v>
       </c>
       <c r="J48" s="3">
-        <v>2590900</v>
+        <v>2638500</v>
       </c>
       <c r="K48" s="3">
         <v>2476100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>80200</v>
+        <v>81700</v>
       </c>
       <c r="E52" s="3">
-        <v>72400</v>
+        <v>73700</v>
       </c>
       <c r="F52" s="3">
-        <v>83500</v>
+        <v>85000</v>
       </c>
       <c r="G52" s="3">
-        <v>92900</v>
+        <v>94600</v>
       </c>
       <c r="H52" s="3">
-        <v>97100</v>
+        <v>98900</v>
       </c>
       <c r="I52" s="3">
-        <v>153600</v>
+        <v>156400</v>
       </c>
       <c r="J52" s="3">
-        <v>161400</v>
+        <v>164400</v>
       </c>
       <c r="K52" s="3">
         <v>159500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4962700</v>
+        <v>5053900</v>
       </c>
       <c r="E54" s="3">
-        <v>4891600</v>
+        <v>4981400</v>
       </c>
       <c r="F54" s="3">
-        <v>4911800</v>
+        <v>5002000</v>
       </c>
       <c r="G54" s="3">
-        <v>4587700</v>
+        <v>4671900</v>
       </c>
       <c r="H54" s="3">
-        <v>4419800</v>
+        <v>4500900</v>
       </c>
       <c r="I54" s="3">
-        <v>4484700</v>
+        <v>4567100</v>
       </c>
       <c r="J54" s="3">
-        <v>3366200</v>
+        <v>3428000</v>
       </c>
       <c r="K54" s="3">
         <v>3279200</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>199400</v>
+        <v>203000</v>
       </c>
       <c r="E57" s="3">
-        <v>185900</v>
+        <v>189300</v>
       </c>
       <c r="F57" s="3">
-        <v>159000</v>
+        <v>161900</v>
       </c>
       <c r="G57" s="3">
-        <v>159800</v>
+        <v>162700</v>
       </c>
       <c r="H57" s="3">
-        <v>299900</v>
+        <v>305400</v>
       </c>
       <c r="I57" s="3">
-        <v>117900</v>
+        <v>120100</v>
       </c>
       <c r="J57" s="3">
-        <v>110400</v>
+        <v>112400</v>
       </c>
       <c r="K57" s="3">
         <v>111700</v>
@@ -2177,10 +2177,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>700</v>
@@ -2189,13 +2189,13 @@
         <v>1100</v>
       </c>
       <c r="H58" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="I58" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="J58" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K58" s="3">
         <v>7100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45800</v>
+        <v>46600</v>
       </c>
       <c r="E59" s="3">
-        <v>26200</v>
+        <v>26700</v>
       </c>
       <c r="F59" s="3">
-        <v>38800</v>
+        <v>39500</v>
       </c>
       <c r="G59" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="H59" s="3">
-        <v>24200</v>
+        <v>24600</v>
       </c>
       <c r="I59" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="J59" s="3">
-        <v>19300</v>
+        <v>19700</v>
       </c>
       <c r="K59" s="3">
         <v>14300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>245700</v>
+        <v>250200</v>
       </c>
       <c r="E60" s="3">
-        <v>212600</v>
+        <v>216500</v>
       </c>
       <c r="F60" s="3">
-        <v>198400</v>
+        <v>202100</v>
       </c>
       <c r="G60" s="3">
-        <v>171900</v>
+        <v>175100</v>
       </c>
       <c r="H60" s="3">
-        <v>178200</v>
+        <v>181400</v>
       </c>
       <c r="I60" s="3">
-        <v>152900</v>
+        <v>155700</v>
       </c>
       <c r="J60" s="3">
-        <v>134500</v>
+        <v>137000</v>
       </c>
       <c r="K60" s="3">
         <v>133000</v>
@@ -2294,7 +2294,7 @@
         <v>4500</v>
       </c>
       <c r="J61" s="3">
-        <v>407000</v>
+        <v>414400</v>
       </c>
       <c r="K61" s="3">
         <v>419500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1041700</v>
+        <v>1060800</v>
       </c>
       <c r="E62" s="3">
-        <v>984000</v>
+        <v>1002100</v>
       </c>
       <c r="F62" s="3">
-        <v>861900</v>
+        <v>877700</v>
       </c>
       <c r="G62" s="3">
-        <v>775200</v>
+        <v>789400</v>
       </c>
       <c r="H62" s="3">
-        <v>726700</v>
+        <v>740000</v>
       </c>
       <c r="I62" s="3">
-        <v>710300</v>
+        <v>723400</v>
       </c>
       <c r="J62" s="3">
-        <v>448300</v>
+        <v>456500</v>
       </c>
       <c r="K62" s="3">
         <v>430300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1287400</v>
+        <v>1311000</v>
       </c>
       <c r="E66" s="3">
-        <v>1196600</v>
+        <v>1218600</v>
       </c>
       <c r="F66" s="3">
-        <v>1060300</v>
+        <v>1079800</v>
       </c>
       <c r="G66" s="3">
-        <v>947100</v>
+        <v>964500</v>
       </c>
       <c r="H66" s="3">
-        <v>904800</v>
+        <v>921400</v>
       </c>
       <c r="I66" s="3">
-        <v>863200</v>
+        <v>879100</v>
       </c>
       <c r="J66" s="3">
-        <v>989800</v>
+        <v>1008000</v>
       </c>
       <c r="K66" s="3">
         <v>982900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1416300</v>
+        <v>-1442300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1416500</v>
+        <v>-1442500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1294100</v>
+        <v>-1317900</v>
       </c>
       <c r="G72" s="3">
-        <v>-1470200</v>
+        <v>-1497200</v>
       </c>
       <c r="H72" s="3">
-        <v>-1595200</v>
+        <v>-1624500</v>
       </c>
       <c r="I72" s="3">
-        <v>-1503300</v>
+        <v>-1530900</v>
       </c>
       <c r="J72" s="3">
-        <v>-1531800</v>
+        <v>-1560000</v>
       </c>
       <c r="K72" s="3">
         <v>-1484000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3675400</v>
+        <v>3742900</v>
       </c>
       <c r="E76" s="3">
-        <v>3695000</v>
+        <v>3762800</v>
       </c>
       <c r="F76" s="3">
-        <v>3851500</v>
+        <v>3922200</v>
       </c>
       <c r="G76" s="3">
-        <v>3640500</v>
+        <v>3707400</v>
       </c>
       <c r="H76" s="3">
-        <v>3514900</v>
+        <v>3579500</v>
       </c>
       <c r="I76" s="3">
-        <v>3621500</v>
+        <v>3688000</v>
       </c>
       <c r="J76" s="3">
-        <v>2376400</v>
+        <v>2420100</v>
       </c>
       <c r="K76" s="3">
         <v>2296300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>50100</v>
+        <v>51000</v>
       </c>
       <c r="E81" s="3">
-        <v>-90100</v>
+        <v>-91700</v>
       </c>
       <c r="F81" s="3">
-        <v>194800</v>
+        <v>198300</v>
       </c>
       <c r="G81" s="3">
-        <v>129800</v>
+        <v>132200</v>
       </c>
       <c r="H81" s="3">
-        <v>-98100</v>
+        <v>-99900</v>
       </c>
       <c r="I81" s="3">
-        <v>35900</v>
+        <v>36600</v>
       </c>
       <c r="J81" s="3">
-        <v>-24200</v>
+        <v>-24600</v>
       </c>
       <c r="K81" s="3">
         <v>-677800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>231600</v>
+        <v>235900</v>
       </c>
       <c r="E83" s="3">
-        <v>230800</v>
+        <v>235100</v>
       </c>
       <c r="F83" s="3">
-        <v>207700</v>
+        <v>211600</v>
       </c>
       <c r="G83" s="3">
-        <v>222900</v>
+        <v>227000</v>
       </c>
       <c r="H83" s="3">
-        <v>225000</v>
+        <v>229200</v>
       </c>
       <c r="I83" s="3">
-        <v>169600</v>
+        <v>172800</v>
       </c>
       <c r="J83" s="3">
-        <v>160700</v>
+        <v>163700</v>
       </c>
       <c r="K83" s="3">
         <v>156500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>403200</v>
+        <v>410600</v>
       </c>
       <c r="E89" s="3">
-        <v>481500</v>
+        <v>490400</v>
       </c>
       <c r="F89" s="3">
-        <v>497600</v>
+        <v>506700</v>
       </c>
       <c r="G89" s="3">
-        <v>351700</v>
+        <v>358200</v>
       </c>
       <c r="H89" s="3">
-        <v>288900</v>
+        <v>294200</v>
       </c>
       <c r="I89" s="3">
-        <v>220800</v>
+        <v>224900</v>
       </c>
       <c r="J89" s="3">
-        <v>183300</v>
+        <v>186700</v>
       </c>
       <c r="K89" s="3">
         <v>79900</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-423700</v>
+        <v>-431500</v>
       </c>
       <c r="E91" s="3">
-        <v>-492100</v>
+        <v>-501100</v>
       </c>
       <c r="F91" s="3">
-        <v>-406400</v>
+        <v>-413900</v>
       </c>
       <c r="G91" s="3">
-        <v>-356000</v>
+        <v>-362600</v>
       </c>
       <c r="H91" s="3">
-        <v>-299200</v>
+        <v>-304700</v>
       </c>
       <c r="I91" s="3">
-        <v>-219500</v>
+        <v>-223500</v>
       </c>
       <c r="J91" s="3">
-        <v>-197900</v>
+        <v>-201500</v>
       </c>
       <c r="K91" s="3">
         <v>-217200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-422400</v>
+        <v>-430100</v>
       </c>
       <c r="E94" s="3">
-        <v>-482300</v>
+        <v>-491200</v>
       </c>
       <c r="F94" s="3">
-        <v>-424300</v>
+        <v>-432000</v>
       </c>
       <c r="G94" s="3">
-        <v>-361400</v>
+        <v>-368100</v>
       </c>
       <c r="H94" s="3">
-        <v>-265500</v>
+        <v>-270400</v>
       </c>
       <c r="I94" s="3">
-        <v>-161300</v>
+        <v>-164200</v>
       </c>
       <c r="J94" s="3">
-        <v>-204600</v>
+        <v>-208400</v>
       </c>
       <c r="K94" s="3">
         <v>130400</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-47400</v>
+        <v>-48300</v>
       </c>
       <c r="E96" s="3">
-        <v>-46600</v>
+        <v>-47500</v>
       </c>
       <c r="F96" s="3">
-        <v>-32300</v>
+        <v>-32900</v>
       </c>
       <c r="G96" s="3">
-        <v>-21100</v>
+        <v>-21500</v>
       </c>
       <c r="H96" s="3">
-        <v>-10500</v>
+        <v>-10700</v>
       </c>
       <c r="I96" s="3">
-        <v>-8100</v>
+        <v>-8300</v>
       </c>
       <c r="J96" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="K96" s="3">
         <v>-14100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-38400</v>
+        <v>-39100</v>
       </c>
       <c r="E100" s="3">
-        <v>-63900</v>
+        <v>-65100</v>
       </c>
       <c r="F100" s="3">
-        <v>-21100</v>
+        <v>-21500</v>
       </c>
       <c r="G100" s="3">
-        <v>-23000</v>
+        <v>-23400</v>
       </c>
       <c r="H100" s="3">
-        <v>-11900</v>
+        <v>-12100</v>
       </c>
       <c r="I100" s="3">
-        <v>-131800</v>
+        <v>-134200</v>
       </c>
       <c r="J100" s="3">
-        <v>-17300</v>
+        <v>-17600</v>
       </c>
       <c r="K100" s="3">
         <v>53800</v>
@@ -3478,10 +3478,10 @@
         <v>-4500</v>
       </c>
       <c r="I101" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J101" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="K101" s="3">
         <v>-5900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-57700</v>
+        <v>-58700</v>
       </c>
       <c r="E102" s="3">
-        <v>-64800</v>
+        <v>-66000</v>
       </c>
       <c r="F102" s="3">
-        <v>50900</v>
+        <v>51900</v>
       </c>
       <c r="G102" s="3">
-        <v>-31300</v>
+        <v>-31900</v>
       </c>
       <c r="H102" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="I102" s="3">
-        <v>-69400</v>
+        <v>-70700</v>
       </c>
       <c r="J102" s="3">
-        <v>-41500</v>
+        <v>-42200</v>
       </c>
       <c r="K102" s="3">
         <v>258200</v>
